--- a/data/espn_rugby_data.xlsx
+++ b/data/espn_rugby_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurapallett/Desktop/fantasy_rugby/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurapallett/Documents/espn_fantasy_rugby/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C672288F-6DA2-3D4E-A501-31BE398BDE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA0508-E93C-1645-850E-FA38C3C4F9C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{F4E93FC6-B9F6-D143-A36F-47FE27FE8D7F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="270">
   <si>
     <t>O Farrell</t>
   </si>
@@ -834,6 +834,18 @@
   <si>
     <t>ROUND</t>
   </si>
+  <si>
+    <t>P OMahony</t>
+  </si>
+  <si>
+    <t>L Cowan Dickie</t>
+  </si>
+  <si>
+    <t>B Teo</t>
+  </si>
+  <si>
+    <t>Z Fagerson</t>
+  </si>
 </sst>
 </file>
 
@@ -1223,12 +1235,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F97981-5D51-8D49-B1FC-CA5460516FF6}">
   <dimension ref="A1:W232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J206" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W232"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4429,7 +4442,7 @@
     </row>
     <row r="46" spans="1:23" ht="17">
       <c r="A46" s="3" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -9044,7 +9057,7 @@
     </row>
     <row r="111" spans="1:23" ht="17">
       <c r="A111" s="3" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>1</v>
@@ -11032,7 +11045,7 @@
     </row>
     <row r="139" spans="1:23" ht="17">
       <c r="A139" s="3" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>1</v>
@@ -16357,7 +16370,7 @@
     </row>
     <row r="214" spans="1:23" ht="17">
       <c r="A214" s="3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>4</v>

--- a/data/espn_rugby_data.xlsx
+++ b/data/espn_rugby_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurapallett/Documents/espn_fantasy_rugby/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA0508-E93C-1645-850E-FA38C3C4F9C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1755F742-59B3-2D4F-AE8C-BFBFEECA4B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{F4E93FC6-B9F6-D143-A36F-47FE27FE8D7F}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" activeTab="1" xr2:uid="{F4E93FC6-B9F6-D143-A36F-47FE27FE8D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="round1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="267">
   <si>
     <t>O Farrell</t>
   </si>
@@ -280,9 +280,6 @@
     <t>L Morisi</t>
   </si>
   <si>
-    <t>P O’Mahony</t>
-  </si>
-  <si>
     <t>D Biggar</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>N Hughes</t>
   </si>
   <si>
-    <t>L Cowan-Dickie</t>
-  </si>
-  <si>
     <t>C Traore</t>
   </si>
   <si>
@@ -617,9 +611,6 @@
   </si>
   <si>
     <t>A Davies</t>
-  </si>
-  <si>
-    <t>B Te'o</t>
   </si>
   <si>
     <t>D Cole</t>
@@ -817,9 +808,6 @@
     <t>N Isiekwe</t>
   </si>
   <si>
-    <t>Z. Fagerson</t>
-  </si>
-  <si>
     <t>M McCallum</t>
   </si>
   <si>
@@ -845,6 +833,9 @@
   </si>
   <si>
     <t>Z Fagerson</t>
+  </si>
+  <si>
+    <t>S OBrien</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F97981-5D51-8D49-B1FC-CA5460516FF6}">
   <dimension ref="A1:W232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
@@ -1253,13 +1244,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F1" s="1">
         <v>2018</v>
@@ -1313,7 +1304,7 @@
         <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17">
@@ -4229,7 +4220,7 @@
     </row>
     <row r="43" spans="1:23" ht="17">
       <c r="A43" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>1</v>
@@ -4300,7 +4291,7 @@
     </row>
     <row r="44" spans="1:23" ht="17">
       <c r="A44" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>15</v>
@@ -4442,7 +4433,7 @@
     </row>
     <row r="46" spans="1:23" ht="17">
       <c r="A46" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -4513,7 +4504,7 @@
     </row>
     <row r="47" spans="1:23" ht="17">
       <c r="A47" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>17</v>
@@ -4726,7 +4717,7 @@
     </row>
     <row r="50" spans="1:23" ht="17">
       <c r="A50" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
@@ -4797,7 +4788,7 @@
     </row>
     <row r="51" spans="1:23" ht="17">
       <c r="A51" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
@@ -4868,7 +4859,7 @@
     </row>
     <row r="52" spans="1:23" ht="17">
       <c r="A52" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
@@ -4939,7 +4930,7 @@
     </row>
     <row r="53" spans="1:23" ht="17">
       <c r="A53" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
@@ -5081,7 +5072,7 @@
     </row>
     <row r="55" spans="1:23" ht="17">
       <c r="A55" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>4</v>
@@ -5152,7 +5143,7 @@
     </row>
     <row r="56" spans="1:23" ht="17">
       <c r="A56" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>4</v>
@@ -5223,7 +5214,7 @@
     </row>
     <row r="57" spans="1:23" ht="17">
       <c r="A57" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>4</v>
@@ -5365,7 +5356,7 @@
     </row>
     <row r="59" spans="1:23" ht="17">
       <c r="A59" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>7</v>
@@ -5436,7 +5427,7 @@
     </row>
     <row r="60" spans="1:23" ht="17">
       <c r="A60" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>7</v>
@@ -5507,7 +5498,7 @@
     </row>
     <row r="61" spans="1:23" ht="17">
       <c r="A61" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>7</v>
@@ -5578,7 +5569,7 @@
     </row>
     <row r="62" spans="1:23" ht="17">
       <c r="A62" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>1</v>
@@ -5649,7 +5640,7 @@
     </row>
     <row r="63" spans="1:23" ht="17">
       <c r="A63" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>1</v>
@@ -5720,7 +5711,7 @@
     </row>
     <row r="64" spans="1:23" ht="17">
       <c r="A64" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1</v>
@@ -5791,7 +5782,7 @@
     </row>
     <row r="65" spans="1:23" ht="17">
       <c r="A65" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>1</v>
@@ -5933,7 +5924,7 @@
     </row>
     <row r="67" spans="1:23" ht="17">
       <c r="A67" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>15</v>
@@ -6004,7 +5995,7 @@
     </row>
     <row r="68" spans="1:23" ht="17">
       <c r="A68" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>15</v>
@@ -6075,7 +6066,7 @@
     </row>
     <row r="69" spans="1:23" ht="17">
       <c r="A69" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>15</v>
@@ -6146,7 +6137,7 @@
     </row>
     <row r="70" spans="1:23" ht="17">
       <c r="A70" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>15</v>
@@ -6217,7 +6208,7 @@
     </row>
     <row r="71" spans="1:23" ht="17">
       <c r="A71" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>15</v>
@@ -6288,7 +6279,7 @@
     </row>
     <row r="72" spans="1:23" ht="17">
       <c r="A72" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>15</v>
@@ -6359,7 +6350,7 @@
     </row>
     <row r="73" spans="1:23" ht="17">
       <c r="A73" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>15</v>
@@ -6430,7 +6421,7 @@
     </row>
     <row r="74" spans="1:23" ht="17">
       <c r="A74" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>17</v>
@@ -6501,7 +6492,7 @@
     </row>
     <row r="75" spans="1:23" ht="17">
       <c r="A75" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>17</v>
@@ -6572,7 +6563,7 @@
     </row>
     <row r="76" spans="1:23" ht="17">
       <c r="A76" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>17</v>
@@ -6643,7 +6634,7 @@
     </row>
     <row r="77" spans="1:23" ht="17">
       <c r="A77" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>17</v>
@@ -6714,7 +6705,7 @@
     </row>
     <row r="78" spans="1:23" ht="17">
       <c r="A78" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>17</v>
@@ -6785,7 +6776,7 @@
     </row>
     <row r="79" spans="1:23" ht="17">
       <c r="A79" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>17</v>
@@ -6856,7 +6847,7 @@
     </row>
     <row r="80" spans="1:23" ht="17">
       <c r="A80" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>12</v>
@@ -6927,7 +6918,7 @@
     </row>
     <row r="81" spans="1:23" ht="17">
       <c r="A81" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>12</v>
@@ -6998,7 +6989,7 @@
     </row>
     <row r="82" spans="1:23" ht="17">
       <c r="A82" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>4</v>
@@ -7069,7 +7060,7 @@
     </row>
     <row r="83" spans="1:23" ht="17">
       <c r="A83" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>7</v>
@@ -7140,7 +7131,7 @@
     </row>
     <row r="84" spans="1:23" ht="17">
       <c r="A84" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>7</v>
@@ -7211,7 +7202,7 @@
     </row>
     <row r="85" spans="1:23" ht="17">
       <c r="A85" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>7</v>
@@ -7282,7 +7273,7 @@
     </row>
     <row r="86" spans="1:23" ht="17">
       <c r="A86" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>7</v>
@@ -7353,7 +7344,7 @@
     </row>
     <row r="87" spans="1:23" ht="17">
       <c r="A87" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>7</v>
@@ -7424,7 +7415,7 @@
     </row>
     <row r="88" spans="1:23" ht="17">
       <c r="A88" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>7</v>
@@ -7495,7 +7486,7 @@
     </row>
     <row r="89" spans="1:23" ht="17">
       <c r="A89" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>7</v>
@@ -7566,7 +7557,7 @@
     </row>
     <row r="90" spans="1:23" ht="17">
       <c r="A90" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1</v>
@@ -7637,7 +7628,7 @@
     </row>
     <row r="91" spans="1:23" ht="17">
       <c r="A91" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1</v>
@@ -7708,7 +7699,7 @@
     </row>
     <row r="92" spans="1:23" ht="17">
       <c r="A92" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>1</v>
@@ -7779,7 +7770,7 @@
     </row>
     <row r="93" spans="1:23" ht="17">
       <c r="A93" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>15</v>
@@ -7850,7 +7841,7 @@
     </row>
     <row r="94" spans="1:23" ht="17">
       <c r="A94" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>15</v>
@@ -7992,7 +7983,7 @@
     </row>
     <row r="96" spans="1:23" ht="17">
       <c r="A96" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>17</v>
@@ -8063,7 +8054,7 @@
     </row>
     <row r="97" spans="1:23" ht="17">
       <c r="A97" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>17</v>
@@ -8134,7 +8125,7 @@
     </row>
     <row r="98" spans="1:23" ht="17">
       <c r="A98" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>4</v>
@@ -8205,7 +8196,7 @@
     </row>
     <row r="99" spans="1:23" ht="17">
       <c r="A99" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>4</v>
@@ -8276,7 +8267,7 @@
     </row>
     <row r="100" spans="1:23" ht="17">
       <c r="A100" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>4</v>
@@ -8347,7 +8338,7 @@
     </row>
     <row r="101" spans="1:23" ht="17">
       <c r="A101" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>4</v>
@@ -8418,7 +8409,7 @@
     </row>
     <row r="102" spans="1:23" ht="17">
       <c r="A102" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>4</v>
@@ -8489,7 +8480,7 @@
     </row>
     <row r="103" spans="1:23" ht="17">
       <c r="A103" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>7</v>
@@ -8560,7 +8551,7 @@
     </row>
     <row r="104" spans="1:23" ht="17">
       <c r="A104" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>7</v>
@@ -8631,7 +8622,7 @@
     </row>
     <row r="105" spans="1:23" ht="17">
       <c r="A105" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>7</v>
@@ -8702,7 +8693,7 @@
     </row>
     <row r="106" spans="1:23" ht="17">
       <c r="A106" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>7</v>
@@ -8773,7 +8764,7 @@
     </row>
     <row r="107" spans="1:23" ht="17">
       <c r="A107" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>1</v>
@@ -8844,7 +8835,7 @@
     </row>
     <row r="108" spans="1:23" ht="17">
       <c r="A108" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>1</v>
@@ -8915,7 +8906,7 @@
     </row>
     <row r="109" spans="1:23" ht="17">
       <c r="A109" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>1</v>
@@ -8986,7 +8977,7 @@
     </row>
     <row r="110" spans="1:23" ht="17">
       <c r="A110" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>1</v>
@@ -9057,7 +9048,7 @@
     </row>
     <row r="111" spans="1:23" ht="17">
       <c r="A111" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>1</v>
@@ -9199,7 +9190,7 @@
     </row>
     <row r="113" spans="1:23" ht="17">
       <c r="A113" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>15</v>
@@ -9270,7 +9261,7 @@
     </row>
     <row r="114" spans="1:23" ht="17">
       <c r="A114" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>15</v>
@@ -9341,7 +9332,7 @@
     </row>
     <row r="115" spans="1:23" ht="17">
       <c r="A115" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>15</v>
@@ -9412,7 +9403,7 @@
     </row>
     <row r="116" spans="1:23" ht="17">
       <c r="A116" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>15</v>
@@ -9483,7 +9474,7 @@
     </row>
     <row r="117" spans="1:23" ht="17">
       <c r="A117" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>15</v>
@@ -9554,7 +9545,7 @@
     </row>
     <row r="118" spans="1:23" ht="17">
       <c r="A118" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>15</v>
@@ -9625,7 +9616,7 @@
     </row>
     <row r="119" spans="1:23" ht="17">
       <c r="A119" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>17</v>
@@ -9696,7 +9687,7 @@
     </row>
     <row r="120" spans="1:23" ht="17">
       <c r="A120" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>17</v>
@@ -9767,7 +9758,7 @@
     </row>
     <row r="121" spans="1:23" ht="17">
       <c r="A121" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>17</v>
@@ -9838,7 +9829,7 @@
     </row>
     <row r="122" spans="1:23" ht="17">
       <c r="A122" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>17</v>
@@ -9909,7 +9900,7 @@
     </row>
     <row r="123" spans="1:23" ht="17">
       <c r="A123" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>17</v>
@@ -9980,7 +9971,7 @@
     </row>
     <row r="124" spans="1:23" ht="17">
       <c r="A124" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>12</v>
@@ -10051,7 +10042,7 @@
     </row>
     <row r="125" spans="1:23" ht="17">
       <c r="A125" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>12</v>
@@ -10122,7 +10113,7 @@
     </row>
     <row r="126" spans="1:23" ht="17">
       <c r="A126" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>12</v>
@@ -10193,7 +10184,7 @@
     </row>
     <row r="127" spans="1:23" ht="17">
       <c r="A127" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>12</v>
@@ -10264,7 +10255,7 @@
     </row>
     <row r="128" spans="1:23" ht="17">
       <c r="A128" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>12</v>
@@ -10335,7 +10326,7 @@
     </row>
     <row r="129" spans="1:23" ht="17">
       <c r="A129" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>12</v>
@@ -10406,7 +10397,7 @@
     </row>
     <row r="130" spans="1:23" ht="17">
       <c r="A130" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>4</v>
@@ -10477,7 +10468,7 @@
     </row>
     <row r="131" spans="1:23" ht="17">
       <c r="A131" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>4</v>
@@ -10548,7 +10539,7 @@
     </row>
     <row r="132" spans="1:23" ht="17">
       <c r="A132" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>4</v>
@@ -10619,7 +10610,7 @@
     </row>
     <row r="133" spans="1:23" ht="17">
       <c r="A133" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>7</v>
@@ -10690,7 +10681,7 @@
     </row>
     <row r="134" spans="1:23" ht="17">
       <c r="A134" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>1</v>
@@ -10761,7 +10752,7 @@
     </row>
     <row r="135" spans="1:23" ht="17">
       <c r="A135" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>1</v>
@@ -10832,7 +10823,7 @@
     </row>
     <row r="136" spans="1:23" ht="17">
       <c r="A136" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>1</v>
@@ -10903,7 +10894,7 @@
     </row>
     <row r="137" spans="1:23" ht="17">
       <c r="A137" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>1</v>
@@ -10974,7 +10965,7 @@
     </row>
     <row r="138" spans="1:23" ht="17">
       <c r="A138" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>1</v>
@@ -11045,7 +11036,7 @@
     </row>
     <row r="139" spans="1:23" ht="17">
       <c r="A139" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>1</v>
@@ -11116,7 +11107,7 @@
     </row>
     <row r="140" spans="1:23" ht="17">
       <c r="A140" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>1</v>
@@ -11187,7 +11178,7 @@
     </row>
     <row r="141" spans="1:23" ht="17">
       <c r="A141" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1</v>
@@ -11258,7 +11249,7 @@
     </row>
     <row r="142" spans="1:23" ht="17">
       <c r="A142" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
@@ -11329,7 +11320,7 @@
     </row>
     <row r="143" spans="1:23" ht="17">
       <c r="A143" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1</v>
@@ -11400,7 +11391,7 @@
     </row>
     <row r="144" spans="1:23" ht="17">
       <c r="A144" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1</v>
@@ -11471,7 +11462,7 @@
     </row>
     <row r="145" spans="1:23" ht="17">
       <c r="A145" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1</v>
@@ -11542,7 +11533,7 @@
     </row>
     <row r="146" spans="1:23" ht="17">
       <c r="A146" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>1</v>
@@ -11613,7 +11604,7 @@
     </row>
     <row r="147" spans="1:23" ht="17">
       <c r="A147" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>1</v>
@@ -11684,7 +11675,7 @@
     </row>
     <row r="148" spans="1:23" ht="17">
       <c r="A148" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>1</v>
@@ -11755,7 +11746,7 @@
     </row>
     <row r="149" spans="1:23" ht="17">
       <c r="A149" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>15</v>
@@ -11826,7 +11817,7 @@
     </row>
     <row r="150" spans="1:23" ht="17">
       <c r="A150" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>15</v>
@@ -11897,7 +11888,7 @@
     </row>
     <row r="151" spans="1:23" ht="17">
       <c r="A151" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>15</v>
@@ -11968,7 +11959,7 @@
     </row>
     <row r="152" spans="1:23" ht="17">
       <c r="A152" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>15</v>
@@ -12039,7 +12030,7 @@
     </row>
     <row r="153" spans="1:23" ht="17">
       <c r="A153" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>15</v>
@@ -12110,7 +12101,7 @@
     </row>
     <row r="154" spans="1:23" ht="17">
       <c r="A154" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>15</v>
@@ -12181,7 +12172,7 @@
     </row>
     <row r="155" spans="1:23" ht="17">
       <c r="A155" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>15</v>
@@ -12252,7 +12243,7 @@
     </row>
     <row r="156" spans="1:23" ht="17">
       <c r="A156" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>15</v>
@@ -12323,7 +12314,7 @@
     </row>
     <row r="157" spans="1:23" ht="17">
       <c r="A157" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>15</v>
@@ -12394,7 +12385,7 @@
     </row>
     <row r="158" spans="1:23" ht="17">
       <c r="A158" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>15</v>
@@ -12465,7 +12456,7 @@
     </row>
     <row r="159" spans="1:23" ht="17">
       <c r="A159" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>17</v>
@@ -12536,7 +12527,7 @@
     </row>
     <row r="160" spans="1:23" ht="17">
       <c r="A160" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>17</v>
@@ -12607,7 +12598,7 @@
     </row>
     <row r="161" spans="1:23" ht="17">
       <c r="A161" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>17</v>
@@ -12678,7 +12669,7 @@
     </row>
     <row r="162" spans="1:23" ht="17">
       <c r="A162" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>17</v>
@@ -12749,7 +12740,7 @@
     </row>
     <row r="163" spans="1:23" ht="17">
       <c r="A163" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>17</v>
@@ -12820,7 +12811,7 @@
     </row>
     <row r="164" spans="1:23" ht="17">
       <c r="A164" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>17</v>
@@ -12891,7 +12882,7 @@
     </row>
     <row r="165" spans="1:23" ht="17">
       <c r="A165" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>17</v>
@@ -12962,7 +12953,7 @@
     </row>
     <row r="166" spans="1:23" ht="17">
       <c r="A166" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>17</v>
@@ -13033,7 +13024,7 @@
     </row>
     <row r="167" spans="1:23" ht="17">
       <c r="A167" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>17</v>
@@ -13104,7 +13095,7 @@
     </row>
     <row r="168" spans="1:23" ht="17">
       <c r="A168" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>17</v>
@@ -13175,7 +13166,7 @@
     </row>
     <row r="169" spans="1:23" ht="17">
       <c r="A169" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>17</v>
@@ -13246,7 +13237,7 @@
     </row>
     <row r="170" spans="1:23" ht="17">
       <c r="A170" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>17</v>
@@ -13317,7 +13308,7 @@
     </row>
     <row r="171" spans="1:23" ht="17">
       <c r="A171" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>17</v>
@@ -13388,7 +13379,7 @@
     </row>
     <row r="172" spans="1:23" ht="17">
       <c r="A172" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>17</v>
@@ -13459,7 +13450,7 @@
     </row>
     <row r="173" spans="1:23" ht="17">
       <c r="A173" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>17</v>
@@ -13530,7 +13521,7 @@
     </row>
     <row r="174" spans="1:23" ht="17">
       <c r="A174" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>17</v>
@@ -13601,7 +13592,7 @@
     </row>
     <row r="175" spans="1:23" ht="17">
       <c r="A175" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>17</v>
@@ -13672,7 +13663,7 @@
     </row>
     <row r="176" spans="1:23" ht="17">
       <c r="A176" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>12</v>
@@ -13743,7 +13734,7 @@
     </row>
     <row r="177" spans="1:23" ht="17">
       <c r="A177" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>12</v>
@@ -13814,7 +13805,7 @@
     </row>
     <row r="178" spans="1:23" ht="17">
       <c r="A178" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>12</v>
@@ -13885,7 +13876,7 @@
     </row>
     <row r="179" spans="1:23" ht="17">
       <c r="A179" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>12</v>
@@ -13956,7 +13947,7 @@
     </row>
     <row r="180" spans="1:23" ht="17">
       <c r="A180" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>12</v>
@@ -14027,7 +14018,7 @@
     </row>
     <row r="181" spans="1:23" ht="17">
       <c r="A181" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>12</v>
@@ -14098,7 +14089,7 @@
     </row>
     <row r="182" spans="1:23" ht="17">
       <c r="A182" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>12</v>
@@ -14169,7 +14160,7 @@
     </row>
     <row r="183" spans="1:23" ht="17">
       <c r="A183" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>12</v>
@@ -14240,7 +14231,7 @@
     </row>
     <row r="184" spans="1:23" ht="17">
       <c r="A184" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>12</v>
@@ -14311,7 +14302,7 @@
     </row>
     <row r="185" spans="1:23" ht="17">
       <c r="A185" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>12</v>
@@ -14382,7 +14373,7 @@
     </row>
     <row r="186" spans="1:23" ht="17">
       <c r="A186" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>12</v>
@@ -14453,7 +14444,7 @@
     </row>
     <row r="187" spans="1:23" ht="17">
       <c r="A187" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>12</v>
@@ -14524,7 +14515,7 @@
     </row>
     <row r="188" spans="1:23" ht="17">
       <c r="A188" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>12</v>
@@ -14595,7 +14586,7 @@
     </row>
     <row r="189" spans="1:23" ht="17">
       <c r="A189" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>4</v>
@@ -14666,7 +14657,7 @@
     </row>
     <row r="190" spans="1:23" ht="17">
       <c r="A190" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>4</v>
@@ -14737,7 +14728,7 @@
     </row>
     <row r="191" spans="1:23" ht="17">
       <c r="A191" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>4</v>
@@ -14808,7 +14799,7 @@
     </row>
     <row r="192" spans="1:23" ht="17">
       <c r="A192" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>4</v>
@@ -14879,7 +14870,7 @@
     </row>
     <row r="193" spans="1:23" ht="17">
       <c r="A193" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>4</v>
@@ -14950,7 +14941,7 @@
     </row>
     <row r="194" spans="1:23" ht="17">
       <c r="A194" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>4</v>
@@ -15021,7 +15012,7 @@
     </row>
     <row r="195" spans="1:23" ht="17">
       <c r="A195" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>4</v>
@@ -15092,7 +15083,7 @@
     </row>
     <row r="196" spans="1:23" ht="17">
       <c r="A196" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>4</v>
@@ -15163,7 +15154,7 @@
     </row>
     <row r="197" spans="1:23" ht="17">
       <c r="A197" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>4</v>
@@ -15234,7 +15225,7 @@
     </row>
     <row r="198" spans="1:23" ht="17">
       <c r="A198" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>4</v>
@@ -15305,7 +15296,7 @@
     </row>
     <row r="199" spans="1:23" ht="17">
       <c r="A199" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>4</v>
@@ -15376,7 +15367,7 @@
     </row>
     <row r="200" spans="1:23" ht="17">
       <c r="A200" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>4</v>
@@ -15447,7 +15438,7 @@
     </row>
     <row r="201" spans="1:23" ht="17">
       <c r="A201" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>4</v>
@@ -15518,7 +15509,7 @@
     </row>
     <row r="202" spans="1:23" ht="17">
       <c r="A202" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>4</v>
@@ -15589,7 +15580,7 @@
     </row>
     <row r="203" spans="1:23" ht="17">
       <c r="A203" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>4</v>
@@ -15660,7 +15651,7 @@
     </row>
     <row r="204" spans="1:23" ht="17">
       <c r="A204" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>4</v>
@@ -15731,7 +15722,7 @@
     </row>
     <row r="205" spans="1:23" ht="17">
       <c r="A205" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>4</v>
@@ -15802,7 +15793,7 @@
     </row>
     <row r="206" spans="1:23" ht="17">
       <c r="A206" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>4</v>
@@ -15873,7 +15864,7 @@
     </row>
     <row r="207" spans="1:23" ht="17">
       <c r="A207" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>4</v>
@@ -15944,7 +15935,7 @@
     </row>
     <row r="208" spans="1:23" ht="17">
       <c r="A208" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>4</v>
@@ -16015,7 +16006,7 @@
     </row>
     <row r="209" spans="1:23" ht="17">
       <c r="A209" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>4</v>
@@ -16086,7 +16077,7 @@
     </row>
     <row r="210" spans="1:23" ht="17">
       <c r="A210" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>4</v>
@@ -16157,7 +16148,7 @@
     </row>
     <row r="211" spans="1:23" ht="17">
       <c r="A211" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>4</v>
@@ -16228,7 +16219,7 @@
     </row>
     <row r="212" spans="1:23" ht="17">
       <c r="A212" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>4</v>
@@ -16299,7 +16290,7 @@
     </row>
     <row r="213" spans="1:23" ht="17">
       <c r="A213" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>4</v>
@@ -16370,7 +16361,7 @@
     </row>
     <row r="214" spans="1:23" ht="17">
       <c r="A214" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>4</v>
@@ -16441,7 +16432,7 @@
     </row>
     <row r="215" spans="1:23" ht="17">
       <c r="A215" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -16512,7 +16503,7 @@
     </row>
     <row r="216" spans="1:23" ht="17">
       <c r="A216" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>7</v>
@@ -16583,7 +16574,7 @@
     </row>
     <row r="217" spans="1:23" ht="17">
       <c r="A217" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>7</v>
@@ -16654,7 +16645,7 @@
     </row>
     <row r="218" spans="1:23" ht="17">
       <c r="A218" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>7</v>
@@ -16725,7 +16716,7 @@
     </row>
     <row r="219" spans="1:23" ht="17">
       <c r="A219" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>7</v>
@@ -16796,7 +16787,7 @@
     </row>
     <row r="220" spans="1:23" ht="17">
       <c r="A220" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>7</v>
@@ -16867,7 +16858,7 @@
     </row>
     <row r="221" spans="1:23" ht="17">
       <c r="A221" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>7</v>
@@ -16938,7 +16929,7 @@
     </row>
     <row r="222" spans="1:23" ht="17">
       <c r="A222" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>7</v>
@@ -17009,7 +17000,7 @@
     </row>
     <row r="223" spans="1:23" ht="17">
       <c r="A223" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>7</v>
@@ -17080,7 +17071,7 @@
     </row>
     <row r="224" spans="1:23" ht="17">
       <c r="A224" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>7</v>
@@ -17151,7 +17142,7 @@
     </row>
     <row r="225" spans="1:23" ht="17">
       <c r="A225" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>7</v>
@@ -17222,7 +17213,7 @@
     </row>
     <row r="226" spans="1:23" ht="17">
       <c r="A226" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>7</v>
@@ -17293,7 +17284,7 @@
     </row>
     <row r="227" spans="1:23" ht="17">
       <c r="A227" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>7</v>
@@ -17364,7 +17355,7 @@
     </row>
     <row r="228" spans="1:23" ht="17">
       <c r="A228" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>7</v>
@@ -17435,7 +17426,7 @@
     </row>
     <row r="229" spans="1:23" ht="17">
       <c r="A229" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>7</v>
@@ -17506,7 +17497,7 @@
     </row>
     <row r="230" spans="1:23" ht="17">
       <c r="A230" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>7</v>
@@ -17577,7 +17568,7 @@
     </row>
     <row r="231" spans="1:23" ht="17">
       <c r="A231" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>7</v>
@@ -17648,7 +17639,7 @@
     </row>
     <row r="232" spans="1:23" ht="17">
       <c r="A232" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>7</v>
@@ -17729,11 +17720,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93910695-16D6-D24B-9285-A04402E2D69C}">
   <dimension ref="A1:W232"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W232"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
@@ -17743,13 +17737,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F1" s="1">
         <v>2018</v>
@@ -17803,7 +17797,7 @@
         <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17">
@@ -18092,7 +18086,7 @@
     </row>
     <row r="6" spans="1:23" ht="17">
       <c r="A6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -18234,7 +18228,7 @@
     </row>
     <row r="8" spans="1:23" ht="17">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
@@ -18305,7 +18299,7 @@
     </row>
     <row r="9" spans="1:23" ht="17">
       <c r="A9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -18447,7 +18441,7 @@
     </row>
     <row r="11" spans="1:23" ht="17">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -18660,7 +18654,7 @@
     </row>
     <row r="14" spans="1:23" ht="17">
       <c r="A14" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -18731,7 +18725,7 @@
     </row>
     <row r="15" spans="1:23" ht="17">
       <c r="A15" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1</v>
@@ -18873,7 +18867,7 @@
     </row>
     <row r="17" spans="1:23" ht="17">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -19228,7 +19222,7 @@
     </row>
     <row r="22" spans="1:23" ht="17">
       <c r="A22" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
@@ -19299,7 +19293,7 @@
     </row>
     <row r="23" spans="1:23" ht="17">
       <c r="A23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
@@ -19512,7 +19506,7 @@
     </row>
     <row r="26" spans="1:23" ht="17">
       <c r="A26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
@@ -19654,7 +19648,7 @@
     </row>
     <row r="28" spans="1:23" ht="17">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>4</v>
@@ -20009,7 +20003,7 @@
     </row>
     <row r="33" spans="1:23" ht="17">
       <c r="A33" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1</v>
@@ -20080,7 +20074,7 @@
     </row>
     <row r="34" spans="1:23" ht="17">
       <c r="A34" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1</v>
@@ -20364,7 +20358,7 @@
     </row>
     <row r="38" spans="1:23" ht="17">
       <c r="A38" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>17</v>
@@ -20435,7 +20429,7 @@
     </row>
     <row r="39" spans="1:23" ht="17">
       <c r="A39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
@@ -20648,7 +20642,7 @@
     </row>
     <row r="42" spans="1:23" ht="17">
       <c r="A42" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>7</v>
@@ -20932,7 +20926,7 @@
     </row>
     <row r="46" spans="1:23" ht="17">
       <c r="A46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -21003,7 +20997,7 @@
     </row>
     <row r="47" spans="1:23" ht="17">
       <c r="A47" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>17</v>
@@ -21358,7 +21352,7 @@
     </row>
     <row r="52" spans="1:23" ht="17">
       <c r="A52" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>7</v>
@@ -21429,7 +21423,7 @@
     </row>
     <row r="53" spans="1:23" ht="17">
       <c r="A53" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>7</v>
@@ -21571,7 +21565,7 @@
     </row>
     <row r="55" spans="1:23" ht="17">
       <c r="A55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>1</v>
@@ -21642,7 +21636,7 @@
     </row>
     <row r="56" spans="1:23" ht="17">
       <c r="A56" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>1</v>
@@ -21713,7 +21707,7 @@
     </row>
     <row r="57" spans="1:23" ht="17">
       <c r="A57" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>1</v>
@@ -21784,7 +21778,7 @@
     </row>
     <row r="58" spans="1:23" ht="17">
       <c r="A58" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>15</v>
@@ -21855,7 +21849,7 @@
     </row>
     <row r="59" spans="1:23" ht="17">
       <c r="A59" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>15</v>
@@ -21926,7 +21920,7 @@
     </row>
     <row r="60" spans="1:23" ht="17">
       <c r="A60" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>15</v>
@@ -21997,7 +21991,7 @@
     </row>
     <row r="61" spans="1:23" ht="17">
       <c r="A61" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>15</v>
@@ -22068,7 +22062,7 @@
     </row>
     <row r="62" spans="1:23" ht="17">
       <c r="A62" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>15</v>
@@ -22139,7 +22133,7 @@
     </row>
     <row r="63" spans="1:23" ht="17">
       <c r="A63" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>15</v>
@@ -22210,7 +22204,7 @@
     </row>
     <row r="64" spans="1:23" ht="17">
       <c r="A64" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>15</v>
@@ -22352,7 +22346,7 @@
     </row>
     <row r="66" spans="1:23" ht="17">
       <c r="A66" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>15</v>
@@ -22423,7 +22417,7 @@
     </row>
     <row r="67" spans="1:23" ht="17">
       <c r="A67" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>15</v>
@@ -22494,7 +22488,7 @@
     </row>
     <row r="68" spans="1:23" ht="17">
       <c r="A68" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>15</v>
@@ -22565,7 +22559,7 @@
     </row>
     <row r="69" spans="1:23" ht="17">
       <c r="A69" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>17</v>
@@ -22636,7 +22630,7 @@
     </row>
     <row r="70" spans="1:23" ht="17">
       <c r="A70" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -22707,7 +22701,7 @@
     </row>
     <row r="71" spans="1:23" ht="17">
       <c r="A71" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>17</v>
@@ -22778,7 +22772,7 @@
     </row>
     <row r="72" spans="1:23" ht="17">
       <c r="A72" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>17</v>
@@ -22991,7 +22985,7 @@
     </row>
     <row r="75" spans="1:23" ht="17">
       <c r="A75" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -23062,7 +23056,7 @@
     </row>
     <row r="76" spans="1:23" ht="17">
       <c r="A76" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>4</v>
@@ -23133,7 +23127,7 @@
     </row>
     <row r="77" spans="1:23" ht="17">
       <c r="A77" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>4</v>
@@ -23204,7 +23198,7 @@
     </row>
     <row r="78" spans="1:23" ht="17">
       <c r="A78" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>4</v>
@@ -23275,7 +23269,7 @@
     </row>
     <row r="79" spans="1:23" ht="17">
       <c r="A79" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>4</v>
@@ -23346,7 +23340,7 @@
     </row>
     <row r="80" spans="1:23" ht="17">
       <c r="A80" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>7</v>
@@ -23417,7 +23411,7 @@
     </row>
     <row r="81" spans="1:23" ht="17">
       <c r="A81" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>7</v>
@@ -23488,7 +23482,7 @@
     </row>
     <row r="82" spans="1:23" ht="17">
       <c r="A82" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>7</v>
@@ -23559,7 +23553,7 @@
     </row>
     <row r="83" spans="1:23" ht="17">
       <c r="A83" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>7</v>
@@ -23630,7 +23624,7 @@
     </row>
     <row r="84" spans="1:23" ht="17">
       <c r="A84" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>7</v>
@@ -23701,7 +23695,7 @@
     </row>
     <row r="85" spans="1:23" ht="17">
       <c r="A85" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>7</v>
@@ -23772,7 +23766,7 @@
     </row>
     <row r="86" spans="1:23" ht="17">
       <c r="A86" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1</v>
@@ -23843,7 +23837,7 @@
     </row>
     <row r="87" spans="1:23" ht="17">
       <c r="A87" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>1</v>
@@ -23914,7 +23908,7 @@
     </row>
     <row r="88" spans="1:23" ht="17">
       <c r="A88" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>1</v>
@@ -23985,7 +23979,7 @@
     </row>
     <row r="89" spans="1:23" ht="17">
       <c r="A89" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>1</v>
@@ -24056,7 +24050,7 @@
     </row>
     <row r="90" spans="1:23" ht="17">
       <c r="A90" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1</v>
@@ -24127,7 +24121,7 @@
     </row>
     <row r="91" spans="1:23" ht="17">
       <c r="A91" s="3" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1</v>
@@ -24198,7 +24192,7 @@
     </row>
     <row r="92" spans="1:23" ht="17">
       <c r="A92" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>15</v>
@@ -24269,7 +24263,7 @@
     </row>
     <row r="93" spans="1:23" ht="17">
       <c r="A93" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>17</v>
@@ -24340,7 +24334,7 @@
     </row>
     <row r="94" spans="1:23" ht="17">
       <c r="A94" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>12</v>
@@ -24553,7 +24547,7 @@
     </row>
     <row r="97" spans="1:23" ht="17">
       <c r="A97" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>4</v>
@@ -24624,7 +24618,7 @@
     </row>
     <row r="98" spans="1:23" ht="17">
       <c r="A98" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>4</v>
@@ -24766,7 +24760,7 @@
     </row>
     <row r="100" spans="1:23" ht="17">
       <c r="A100" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>7</v>
@@ -24837,7 +24831,7 @@
     </row>
     <row r="101" spans="1:23" ht="17">
       <c r="A101" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>7</v>
@@ -24908,7 +24902,7 @@
     </row>
     <row r="102" spans="1:23" ht="17">
       <c r="A102" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>1</v>
@@ -24979,7 +24973,7 @@
     </row>
     <row r="103" spans="1:23" ht="17">
       <c r="A103" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>1</v>
@@ -25192,7 +25186,7 @@
     </row>
     <row r="106" spans="1:23" ht="17">
       <c r="A106" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>15</v>
@@ -25263,7 +25257,7 @@
     </row>
     <row r="107" spans="1:23" ht="17">
       <c r="A107" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>15</v>
@@ -25334,7 +25328,7 @@
     </row>
     <row r="108" spans="1:23" ht="17">
       <c r="A108" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>15</v>
@@ -25405,7 +25399,7 @@
     </row>
     <row r="109" spans="1:23" ht="17">
       <c r="A109" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>15</v>
@@ -25476,7 +25470,7 @@
     </row>
     <row r="110" spans="1:23" ht="17">
       <c r="A110" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>15</v>
@@ -25547,7 +25541,7 @@
     </row>
     <row r="111" spans="1:23" ht="17">
       <c r="A111" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>17</v>
@@ -25760,7 +25754,7 @@
     </row>
     <row r="114" spans="1:23" ht="17">
       <c r="A114" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>17</v>
@@ -25831,7 +25825,7 @@
     </row>
     <row r="115" spans="1:23" ht="17">
       <c r="A115" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>17</v>
@@ -25902,7 +25896,7 @@
     </row>
     <row r="116" spans="1:23" ht="17">
       <c r="A116" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>17</v>
@@ -25973,7 +25967,7 @@
     </row>
     <row r="117" spans="1:23" ht="17">
       <c r="A117" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>12</v>
@@ -26044,7 +26038,7 @@
     </row>
     <row r="118" spans="1:23" ht="17">
       <c r="A118" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>12</v>
@@ -26115,7 +26109,7 @@
     </row>
     <row r="119" spans="1:23" ht="17">
       <c r="A119" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>12</v>
@@ -26186,7 +26180,7 @@
     </row>
     <row r="120" spans="1:23" ht="17">
       <c r="A120" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>12</v>
@@ -26257,7 +26251,7 @@
     </row>
     <row r="121" spans="1:23" ht="17">
       <c r="A121" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>12</v>
@@ -26328,7 +26322,7 @@
     </row>
     <row r="122" spans="1:23" ht="17">
       <c r="A122" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>12</v>
@@ -26399,7 +26393,7 @@
     </row>
     <row r="123" spans="1:23" ht="17">
       <c r="A123" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>12</v>
@@ -26470,7 +26464,7 @@
     </row>
     <row r="124" spans="1:23" ht="17">
       <c r="A124" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>4</v>
@@ -26541,7 +26535,7 @@
     </row>
     <row r="125" spans="1:23" ht="17">
       <c r="A125" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>4</v>
@@ -26612,7 +26606,7 @@
     </row>
     <row r="126" spans="1:23" ht="17">
       <c r="A126" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>4</v>
@@ -26683,7 +26677,7 @@
     </row>
     <row r="127" spans="1:23" ht="17">
       <c r="A127" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>4</v>
@@ -26754,7 +26748,7 @@
     </row>
     <row r="128" spans="1:23" ht="17">
       <c r="A128" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>7</v>
@@ -26825,7 +26819,7 @@
     </row>
     <row r="129" spans="1:23" ht="17">
       <c r="A129" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>7</v>
@@ -26896,7 +26890,7 @@
     </row>
     <row r="130" spans="1:23" ht="17">
       <c r="A130" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>7</v>
@@ -26967,7 +26961,7 @@
     </row>
     <row r="131" spans="1:23" ht="17">
       <c r="A131" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>7</v>
@@ -27038,7 +27032,7 @@
     </row>
     <row r="132" spans="1:23" ht="17">
       <c r="A132" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>7</v>
@@ -27109,7 +27103,7 @@
     </row>
     <row r="133" spans="1:23" ht="17">
       <c r="A133" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>7</v>
@@ -27180,7 +27174,7 @@
     </row>
     <row r="134" spans="1:23" ht="17">
       <c r="A134" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>1</v>
@@ -27251,7 +27245,7 @@
     </row>
     <row r="135" spans="1:23" ht="17">
       <c r="A135" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>1</v>
@@ -27322,7 +27316,7 @@
     </row>
     <row r="136" spans="1:23" ht="17">
       <c r="A136" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>1</v>
@@ -27393,7 +27387,7 @@
     </row>
     <row r="137" spans="1:23" ht="17">
       <c r="A137" s="3" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>1</v>
@@ -27464,7 +27458,7 @@
     </row>
     <row r="138" spans="1:23" ht="17">
       <c r="A138" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>1</v>
@@ -27535,7 +27529,7 @@
     </row>
     <row r="139" spans="1:23" ht="17">
       <c r="A139" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>1</v>
@@ -27606,7 +27600,7 @@
     </row>
     <row r="140" spans="1:23" ht="17">
       <c r="A140" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>1</v>
@@ -27677,7 +27671,7 @@
     </row>
     <row r="141" spans="1:23" ht="17">
       <c r="A141" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1</v>
@@ -27748,7 +27742,7 @@
     </row>
     <row r="142" spans="1:23" ht="17">
       <c r="A142" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
@@ -27819,7 +27813,7 @@
     </row>
     <row r="143" spans="1:23" ht="17">
       <c r="A143" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1</v>
@@ -27890,7 +27884,7 @@
     </row>
     <row r="144" spans="1:23" ht="17">
       <c r="A144" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1</v>
@@ -27961,7 +27955,7 @@
     </row>
     <row r="145" spans="1:23" ht="17">
       <c r="A145" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1</v>
@@ -28032,7 +28026,7 @@
     </row>
     <row r="146" spans="1:23" ht="17">
       <c r="A146" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>1</v>
@@ -28103,7 +28097,7 @@
     </row>
     <row r="147" spans="1:23" ht="17">
       <c r="A147" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>1</v>
@@ -28245,7 +28239,7 @@
     </row>
     <row r="149" spans="1:23" ht="17">
       <c r="A149" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>15</v>
@@ -28316,7 +28310,7 @@
     </row>
     <row r="150" spans="1:23" ht="17">
       <c r="A150" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>15</v>
@@ -28387,7 +28381,7 @@
     </row>
     <row r="151" spans="1:23" ht="17">
       <c r="A151" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>15</v>
@@ -28458,7 +28452,7 @@
     </row>
     <row r="152" spans="1:23" ht="17">
       <c r="A152" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>15</v>
@@ -28529,7 +28523,7 @@
     </row>
     <row r="153" spans="1:23" ht="17">
       <c r="A153" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>15</v>
@@ -28600,7 +28594,7 @@
     </row>
     <row r="154" spans="1:23" ht="17">
       <c r="A154" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>15</v>
@@ -28671,7 +28665,7 @@
     </row>
     <row r="155" spans="1:23" ht="17">
       <c r="A155" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>15</v>
@@ -28742,7 +28736,7 @@
     </row>
     <row r="156" spans="1:23" ht="17">
       <c r="A156" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>15</v>
@@ -28813,7 +28807,7 @@
     </row>
     <row r="157" spans="1:23" ht="17">
       <c r="A157" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>15</v>
@@ -28955,7 +28949,7 @@
     </row>
     <row r="159" spans="1:23" ht="17">
       <c r="A159" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>17</v>
@@ -29026,7 +29020,7 @@
     </row>
     <row r="160" spans="1:23" ht="17">
       <c r="A160" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>17</v>
@@ -29097,7 +29091,7 @@
     </row>
     <row r="161" spans="1:23" ht="17">
       <c r="A161" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>17</v>
@@ -29168,7 +29162,7 @@
     </row>
     <row r="162" spans="1:23" ht="17">
       <c r="A162" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>17</v>
@@ -29239,7 +29233,7 @@
     </row>
     <row r="163" spans="1:23" ht="17">
       <c r="A163" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>17</v>
@@ -29310,7 +29304,7 @@
     </row>
     <row r="164" spans="1:23" ht="17">
       <c r="A164" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>17</v>
@@ -29381,7 +29375,7 @@
     </row>
     <row r="165" spans="1:23" ht="17">
       <c r="A165" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>17</v>
@@ -29452,7 +29446,7 @@
     </row>
     <row r="166" spans="1:23" ht="17">
       <c r="A166" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>17</v>
@@ -29523,7 +29517,7 @@
     </row>
     <row r="167" spans="1:23" ht="17">
       <c r="A167" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>17</v>
@@ -29594,7 +29588,7 @@
     </row>
     <row r="168" spans="1:23" ht="17">
       <c r="A168" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>17</v>
@@ -29665,7 +29659,7 @@
     </row>
     <row r="169" spans="1:23" ht="17">
       <c r="A169" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>17</v>
@@ -29736,7 +29730,7 @@
     </row>
     <row r="170" spans="1:23" ht="17">
       <c r="A170" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>17</v>
@@ -29807,7 +29801,7 @@
     </row>
     <row r="171" spans="1:23" ht="17">
       <c r="A171" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>17</v>
@@ -29878,7 +29872,7 @@
     </row>
     <row r="172" spans="1:23" ht="17">
       <c r="A172" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>17</v>
@@ -29949,7 +29943,7 @@
     </row>
     <row r="173" spans="1:23" ht="17">
       <c r="A173" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>17</v>
@@ -30020,7 +30014,7 @@
     </row>
     <row r="174" spans="1:23" ht="17">
       <c r="A174" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>17</v>
@@ -30091,7 +30085,7 @@
     </row>
     <row r="175" spans="1:23" ht="17">
       <c r="A175" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>12</v>
@@ -30162,7 +30156,7 @@
     </row>
     <row r="176" spans="1:23" ht="17">
       <c r="A176" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>12</v>
@@ -30233,7 +30227,7 @@
     </row>
     <row r="177" spans="1:23" ht="17">
       <c r="A177" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>12</v>
@@ -30304,7 +30298,7 @@
     </row>
     <row r="178" spans="1:23" ht="17">
       <c r="A178" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>12</v>
@@ -30375,7 +30369,7 @@
     </row>
     <row r="179" spans="1:23" ht="17">
       <c r="A179" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>12</v>
@@ -30446,7 +30440,7 @@
     </row>
     <row r="180" spans="1:23" ht="17">
       <c r="A180" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>12</v>
@@ -30517,7 +30511,7 @@
     </row>
     <row r="181" spans="1:23" ht="17">
       <c r="A181" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>12</v>
@@ -30588,7 +30582,7 @@
     </row>
     <row r="182" spans="1:23" ht="17">
       <c r="A182" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>12</v>
@@ -30659,7 +30653,7 @@
     </row>
     <row r="183" spans="1:23" ht="17">
       <c r="A183" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>12</v>
@@ -30730,7 +30724,7 @@
     </row>
     <row r="184" spans="1:23" ht="17">
       <c r="A184" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>12</v>
@@ -30801,7 +30795,7 @@
     </row>
     <row r="185" spans="1:23" ht="17">
       <c r="A185" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>12</v>
@@ -30872,7 +30866,7 @@
     </row>
     <row r="186" spans="1:23" ht="17">
       <c r="A186" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>12</v>
@@ -30943,7 +30937,7 @@
     </row>
     <row r="187" spans="1:23" ht="17">
       <c r="A187" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>12</v>
@@ -31014,7 +31008,7 @@
     </row>
     <row r="188" spans="1:23" ht="17">
       <c r="A188" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>12</v>
@@ -31085,7 +31079,7 @@
     </row>
     <row r="189" spans="1:23" ht="17">
       <c r="A189" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>12</v>
@@ -31156,7 +31150,7 @@
     </row>
     <row r="190" spans="1:23" ht="17">
       <c r="A190" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>4</v>
@@ -31227,7 +31221,7 @@
     </row>
     <row r="191" spans="1:23" ht="17">
       <c r="A191" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>4</v>
@@ -31298,7 +31292,7 @@
     </row>
     <row r="192" spans="1:23" ht="17">
       <c r="A192" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>4</v>
@@ -31369,7 +31363,7 @@
     </row>
     <row r="193" spans="1:23" ht="17">
       <c r="A193" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>4</v>
@@ -31440,7 +31434,7 @@
     </row>
     <row r="194" spans="1:23" ht="17">
       <c r="A194" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>4</v>
@@ -31511,7 +31505,7 @@
     </row>
     <row r="195" spans="1:23" ht="17">
       <c r="A195" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>4</v>
@@ -31582,7 +31576,7 @@
     </row>
     <row r="196" spans="1:23" ht="17">
       <c r="A196" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>4</v>
@@ -31724,7 +31718,7 @@
     </row>
     <row r="198" spans="1:23" ht="17">
       <c r="A198" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>4</v>
@@ -31795,7 +31789,7 @@
     </row>
     <row r="199" spans="1:23" ht="17">
       <c r="A199" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>4</v>
@@ -31866,7 +31860,7 @@
     </row>
     <row r="200" spans="1:23" ht="17">
       <c r="A200" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>4</v>
@@ -31937,7 +31931,7 @@
     </row>
     <row r="201" spans="1:23" ht="17">
       <c r="A201" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>4</v>
@@ -32008,7 +32002,7 @@
     </row>
     <row r="202" spans="1:23" ht="17">
       <c r="A202" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>4</v>
@@ -32079,7 +32073,7 @@
     </row>
     <row r="203" spans="1:23" ht="17">
       <c r="A203" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>4</v>
@@ -32150,7 +32144,7 @@
     </row>
     <row r="204" spans="1:23" ht="17">
       <c r="A204" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>4</v>
@@ -32221,7 +32215,7 @@
     </row>
     <row r="205" spans="1:23" ht="17">
       <c r="A205" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>4</v>
@@ -32292,7 +32286,7 @@
     </row>
     <row r="206" spans="1:23" ht="17">
       <c r="A206" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>4</v>
@@ -32363,7 +32357,7 @@
     </row>
     <row r="207" spans="1:23" ht="17">
       <c r="A207" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>4</v>
@@ -32434,7 +32428,7 @@
     </row>
     <row r="208" spans="1:23" ht="17">
       <c r="A208" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>4</v>
@@ -32505,7 +32499,7 @@
     </row>
     <row r="209" spans="1:23" ht="17">
       <c r="A209" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>4</v>
@@ -32576,7 +32570,7 @@
     </row>
     <row r="210" spans="1:23" ht="17">
       <c r="A210" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>4</v>
@@ -32647,7 +32641,7 @@
     </row>
     <row r="211" spans="1:23" ht="17">
       <c r="A211" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>4</v>
@@ -32718,7 +32712,7 @@
     </row>
     <row r="212" spans="1:23" ht="17">
       <c r="A212" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>4</v>
@@ -32789,7 +32783,7 @@
     </row>
     <row r="213" spans="1:23" ht="17">
       <c r="A213" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>4</v>
@@ -32860,7 +32854,7 @@
     </row>
     <row r="214" spans="1:23" ht="17">
       <c r="A214" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>4</v>
@@ -32931,7 +32925,7 @@
     </row>
     <row r="215" spans="1:23" ht="17">
       <c r="A215" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -33002,7 +32996,7 @@
     </row>
     <row r="216" spans="1:23" ht="17">
       <c r="A216" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>4</v>
@@ -33073,7 +33067,7 @@
     </row>
     <row r="217" spans="1:23" ht="17">
       <c r="A217" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>7</v>
@@ -33286,7 +33280,7 @@
     </row>
     <row r="220" spans="1:23" ht="17">
       <c r="A220" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>7</v>
@@ -33357,7 +33351,7 @@
     </row>
     <row r="221" spans="1:23" ht="17">
       <c r="A221" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>7</v>
@@ -33428,7 +33422,7 @@
     </row>
     <row r="222" spans="1:23" ht="17">
       <c r="A222" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>7</v>
@@ -33499,7 +33493,7 @@
     </row>
     <row r="223" spans="1:23" ht="17">
       <c r="A223" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>7</v>
@@ -33641,7 +33635,7 @@
     </row>
     <row r="225" spans="1:23" ht="17">
       <c r="A225" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>7</v>
@@ -33712,7 +33706,7 @@
     </row>
     <row r="226" spans="1:23" ht="17">
       <c r="A226" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>7</v>
@@ -33783,7 +33777,7 @@
     </row>
     <row r="227" spans="1:23" ht="17">
       <c r="A227" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>7</v>
@@ -33854,7 +33848,7 @@
     </row>
     <row r="228" spans="1:23" ht="17">
       <c r="A228" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>7</v>
@@ -33925,7 +33919,7 @@
     </row>
     <row r="229" spans="1:23" ht="17">
       <c r="A229" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>7</v>
@@ -33996,7 +33990,7 @@
     </row>
     <row r="230" spans="1:23" ht="17">
       <c r="A230" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>7</v>
@@ -34067,7 +34061,7 @@
     </row>
     <row r="231" spans="1:23" ht="17">
       <c r="A231" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>7</v>
@@ -34138,7 +34132,7 @@
     </row>
     <row r="232" spans="1:23" ht="17">
       <c r="A232" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>7</v>
@@ -34219,11 +34213,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F61A27-9F0E-F041-B7C7-37C6DCE29063}">
   <dimension ref="A1:W232"/>
   <sheetViews>
-    <sheetView topLeftCell="J201" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W232"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
@@ -34233,13 +34230,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F1" s="1">
         <v>2018</v>
@@ -34293,7 +34290,7 @@
         <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17">
@@ -34582,7 +34579,7 @@
     </row>
     <row r="6" spans="1:23" ht="17">
       <c r="A6" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -34724,7 +34721,7 @@
     </row>
     <row r="8" spans="1:23" ht="17">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
@@ -34795,7 +34792,7 @@
     </row>
     <row r="9" spans="1:23" ht="17">
       <c r="A9" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -34937,7 +34934,7 @@
     </row>
     <row r="11" spans="1:23" ht="17">
       <c r="A11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
@@ -35008,7 +35005,7 @@
     </row>
     <row r="12" spans="1:23" ht="17">
       <c r="A12" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
@@ -35079,7 +35076,7 @@
     </row>
     <row r="13" spans="1:23" ht="17">
       <c r="A13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
@@ -35150,7 +35147,7 @@
     </row>
     <row r="14" spans="1:23" ht="17">
       <c r="A14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -35221,7 +35218,7 @@
     </row>
     <row r="15" spans="1:23" ht="17">
       <c r="A15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -35505,7 +35502,7 @@
     </row>
     <row r="19" spans="1:23" ht="17">
       <c r="A19" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>15</v>
@@ -35718,7 +35715,7 @@
     </row>
     <row r="22" spans="1:23" ht="17">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
@@ -36073,7 +36070,7 @@
     </row>
     <row r="27" spans="1:23" ht="17">
       <c r="A27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>15</v>
@@ -36144,7 +36141,7 @@
     </row>
     <row r="28" spans="1:23" ht="17">
       <c r="A28" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>17</v>
@@ -36286,7 +36283,7 @@
     </row>
     <row r="30" spans="1:23" ht="17">
       <c r="A30" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -36357,7 +36354,7 @@
     </row>
     <row r="31" spans="1:23" ht="17">
       <c r="A31" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>4</v>
@@ -36428,7 +36425,7 @@
     </row>
     <row r="32" spans="1:23" ht="17">
       <c r="A32" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1</v>
@@ -36499,7 +36496,7 @@
     </row>
     <row r="33" spans="1:23" ht="17">
       <c r="A33" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1</v>
@@ -36570,7 +36567,7 @@
     </row>
     <row r="34" spans="1:23" ht="17">
       <c r="A34" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1</v>
@@ -36641,7 +36638,7 @@
     </row>
     <row r="35" spans="1:23" ht="17">
       <c r="A35" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>15</v>
@@ -36854,7 +36851,7 @@
     </row>
     <row r="38" spans="1:23" ht="17">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
@@ -36925,7 +36922,7 @@
     </row>
     <row r="39" spans="1:23" ht="17">
       <c r="A39" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
@@ -36996,7 +36993,7 @@
     </row>
     <row r="40" spans="1:23" ht="17">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>4</v>
@@ -37067,7 +37064,7 @@
     </row>
     <row r="41" spans="1:23" ht="17">
       <c r="A41" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>4</v>
@@ -37209,7 +37206,7 @@
     </row>
     <row r="43" spans="1:23" ht="17">
       <c r="A43" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>7</v>
@@ -37351,7 +37348,7 @@
     </row>
     <row r="45" spans="1:23" ht="17">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1</v>
@@ -37422,7 +37419,7 @@
     </row>
     <row r="46" spans="1:23" ht="17">
       <c r="A46" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>15</v>
@@ -37493,7 +37490,7 @@
     </row>
     <row r="47" spans="1:23" ht="17">
       <c r="A47" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>15</v>
@@ -37564,7 +37561,7 @@
     </row>
     <row r="48" spans="1:23" ht="17">
       <c r="A48" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>15</v>
@@ -37635,7 +37632,7 @@
     </row>
     <row r="49" spans="1:23" ht="17">
       <c r="A49" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>15</v>
@@ -37706,7 +37703,7 @@
     </row>
     <row r="50" spans="1:23" ht="17">
       <c r="A50" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>17</v>
@@ -37777,7 +37774,7 @@
     </row>
     <row r="51" spans="1:23" ht="17">
       <c r="A51" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>17</v>
@@ -37848,7 +37845,7 @@
     </row>
     <row r="52" spans="1:23" ht="17">
       <c r="A52" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>17</v>
@@ -37919,7 +37916,7 @@
     </row>
     <row r="53" spans="1:23" ht="17">
       <c r="A53" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
@@ -37990,7 +37987,7 @@
     </row>
     <row r="54" spans="1:23" ht="17">
       <c r="A54" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -38061,7 +38058,7 @@
     </row>
     <row r="55" spans="1:23" ht="17">
       <c r="A55" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
@@ -38274,7 +38271,7 @@
     </row>
     <row r="58" spans="1:23" ht="17">
       <c r="A58" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>4</v>
@@ -38629,7 +38626,7 @@
     </row>
     <row r="63" spans="1:23" ht="17">
       <c r="A63" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>1</v>
@@ -38700,7 +38697,7 @@
     </row>
     <row r="64" spans="1:23" ht="17">
       <c r="A64" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1</v>
@@ -38771,7 +38768,7 @@
     </row>
     <row r="65" spans="1:23" ht="17">
       <c r="A65" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1</v>
@@ -38842,7 +38839,7 @@
     </row>
     <row r="66" spans="1:23" ht="17">
       <c r="A66" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>1</v>
@@ -38984,7 +38981,7 @@
     </row>
     <row r="68" spans="1:23" ht="17">
       <c r="A68" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>15</v>
@@ -39055,7 +39052,7 @@
     </row>
     <row r="69" spans="1:23" ht="17">
       <c r="A69" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>17</v>
@@ -39126,7 +39123,7 @@
     </row>
     <row r="70" spans="1:23" ht="17">
       <c r="A70" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -39197,7 +39194,7 @@
     </row>
     <row r="71" spans="1:23" ht="17">
       <c r="A71" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>17</v>
@@ -39339,7 +39336,7 @@
     </row>
     <row r="73" spans="1:23" ht="17">
       <c r="A73" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -39481,7 +39478,7 @@
     </row>
     <row r="75" spans="1:23" ht="17">
       <c r="A75" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -39552,7 +39549,7 @@
     </row>
     <row r="76" spans="1:23" ht="17">
       <c r="A76" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>12</v>
@@ -39836,7 +39833,7 @@
     </row>
     <row r="80" spans="1:23" ht="17">
       <c r="A80" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>4</v>
@@ -39907,7 +39904,7 @@
     </row>
     <row r="81" spans="1:23" ht="17">
       <c r="A81" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>4</v>
@@ -39978,7 +39975,7 @@
     </row>
     <row r="82" spans="1:23" ht="17">
       <c r="A82" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>4</v>
@@ -40049,7 +40046,7 @@
     </row>
     <row r="83" spans="1:23" ht="17">
       <c r="A83" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>7</v>
@@ -40120,7 +40117,7 @@
     </row>
     <row r="84" spans="1:23" ht="17">
       <c r="A84" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>7</v>
@@ -40262,7 +40259,7 @@
     </row>
     <row r="86" spans="1:23" ht="17">
       <c r="A86" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>7</v>
@@ -40333,7 +40330,7 @@
     </row>
     <row r="87" spans="1:23" ht="17">
       <c r="A87" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>7</v>
@@ -40404,7 +40401,7 @@
     </row>
     <row r="88" spans="1:23" ht="17">
       <c r="A88" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>7</v>
@@ -40475,7 +40472,7 @@
     </row>
     <row r="89" spans="1:23" ht="17">
       <c r="A89" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>7</v>
@@ -40617,7 +40614,7 @@
     </row>
     <row r="91" spans="1:23" ht="17">
       <c r="A91" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1</v>
@@ -40688,7 +40685,7 @@
     </row>
     <row r="92" spans="1:23" ht="17">
       <c r="A92" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>15</v>
@@ -40759,7 +40756,7 @@
     </row>
     <row r="93" spans="1:23" ht="17">
       <c r="A93" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>15</v>
@@ -40830,7 +40827,7 @@
     </row>
     <row r="94" spans="1:23" ht="17">
       <c r="A94" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>15</v>
@@ -40901,7 +40898,7 @@
     </row>
     <row r="95" spans="1:23" ht="17">
       <c r="A95" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>17</v>
@@ -40972,7 +40969,7 @@
     </row>
     <row r="96" spans="1:23" ht="17">
       <c r="A96" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>17</v>
@@ -41043,7 +41040,7 @@
     </row>
     <row r="97" spans="1:23" ht="17">
       <c r="A97" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>17</v>
@@ -41114,7 +41111,7 @@
     </row>
     <row r="98" spans="1:23" ht="17">
       <c r="A98" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>17</v>
@@ -41185,7 +41182,7 @@
     </row>
     <row r="99" spans="1:23" ht="17">
       <c r="A99" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>17</v>
@@ -41327,7 +41324,7 @@
     </row>
     <row r="101" spans="1:23" ht="17">
       <c r="A101" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>12</v>
@@ -41398,7 +41395,7 @@
     </row>
     <row r="102" spans="1:23" ht="17">
       <c r="A102" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>4</v>
@@ -41469,7 +41466,7 @@
     </row>
     <row r="103" spans="1:23" ht="17">
       <c r="A103" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>4</v>
@@ -41540,7 +41537,7 @@
     </row>
     <row r="104" spans="1:23" ht="17">
       <c r="A104" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>4</v>
@@ -41611,7 +41608,7 @@
     </row>
     <row r="105" spans="1:23" ht="17">
       <c r="A105" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>4</v>
@@ -41753,7 +41750,7 @@
     </row>
     <row r="107" spans="1:23" ht="17">
       <c r="A107" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>1</v>
@@ -41824,7 +41821,7 @@
     </row>
     <row r="108" spans="1:23" ht="17">
       <c r="A108" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>1</v>
@@ -41895,7 +41892,7 @@
     </row>
     <row r="109" spans="1:23" ht="17">
       <c r="A109" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>1</v>
@@ -42037,7 +42034,7 @@
     </row>
     <row r="111" spans="1:23" ht="17">
       <c r="A111" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>15</v>
@@ -42108,7 +42105,7 @@
     </row>
     <row r="112" spans="1:23" ht="17">
       <c r="A112" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>15</v>
@@ -42321,7 +42318,7 @@
     </row>
     <row r="115" spans="1:23" ht="17">
       <c r="A115" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>17</v>
@@ -42392,7 +42389,7 @@
     </row>
     <row r="116" spans="1:23" ht="17">
       <c r="A116" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>17</v>
@@ -42463,7 +42460,7 @@
     </row>
     <row r="117" spans="1:23" ht="17">
       <c r="A117" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>17</v>
@@ -42534,7 +42531,7 @@
     </row>
     <row r="118" spans="1:23" ht="17">
       <c r="A118" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>12</v>
@@ -42605,7 +42602,7 @@
     </row>
     <row r="119" spans="1:23" ht="17">
       <c r="A119" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>12</v>
@@ -42676,7 +42673,7 @@
     </row>
     <row r="120" spans="1:23" ht="17">
       <c r="A120" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>12</v>
@@ -42747,7 +42744,7 @@
     </row>
     <row r="121" spans="1:23" ht="17">
       <c r="A121" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>4</v>
@@ -42818,7 +42815,7 @@
     </row>
     <row r="122" spans="1:23" ht="17">
       <c r="A122" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>4</v>
@@ -42889,7 +42886,7 @@
     </row>
     <row r="123" spans="1:23" ht="17">
       <c r="A123" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>4</v>
@@ -42960,7 +42957,7 @@
     </row>
     <row r="124" spans="1:23" ht="17">
       <c r="A124" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>4</v>
@@ -43031,7 +43028,7 @@
     </row>
     <row r="125" spans="1:23" ht="17">
       <c r="A125" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>7</v>
@@ -43102,7 +43099,7 @@
     </row>
     <row r="126" spans="1:23" ht="17">
       <c r="A126" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>7</v>
@@ -43173,7 +43170,7 @@
     </row>
     <row r="127" spans="1:23" ht="17">
       <c r="A127" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>7</v>
@@ -43244,7 +43241,7 @@
     </row>
     <row r="128" spans="1:23" ht="17">
       <c r="A128" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>7</v>
@@ -43315,7 +43312,7 @@
     </row>
     <row r="129" spans="1:23" ht="17">
       <c r="A129" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>7</v>
@@ -43386,7 +43383,7 @@
     </row>
     <row r="130" spans="1:23" ht="17">
       <c r="A130" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>7</v>
@@ -43457,7 +43454,7 @@
     </row>
     <row r="131" spans="1:23" ht="17">
       <c r="A131" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>7</v>
@@ -43599,7 +43596,7 @@
     </row>
     <row r="133" spans="1:23" ht="17">
       <c r="A133" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>1</v>
@@ -43670,7 +43667,7 @@
     </row>
     <row r="134" spans="1:23" ht="17">
       <c r="A134" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>1</v>
@@ -43741,7 +43738,7 @@
     </row>
     <row r="135" spans="1:23" ht="17">
       <c r="A135" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>1</v>
@@ -43812,7 +43809,7 @@
     </row>
     <row r="136" spans="1:23" ht="17">
       <c r="A136" s="3" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>1</v>
@@ -43883,7 +43880,7 @@
     </row>
     <row r="137" spans="1:23" ht="17">
       <c r="A137" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>1</v>
@@ -43954,7 +43951,7 @@
     </row>
     <row r="138" spans="1:23" ht="17">
       <c r="A138" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>1</v>
@@ -44025,7 +44022,7 @@
     </row>
     <row r="139" spans="1:23" ht="17">
       <c r="A139" s="3" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>1</v>
@@ -44096,7 +44093,7 @@
     </row>
     <row r="140" spans="1:23" ht="17">
       <c r="A140" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>1</v>
@@ -44167,7 +44164,7 @@
     </row>
     <row r="141" spans="1:23" ht="17">
       <c r="A141" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1</v>
@@ -44238,7 +44235,7 @@
     </row>
     <row r="142" spans="1:23" ht="17">
       <c r="A142" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
@@ -44309,7 +44306,7 @@
     </row>
     <row r="143" spans="1:23" ht="17">
       <c r="A143" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1</v>
@@ -44380,7 +44377,7 @@
     </row>
     <row r="144" spans="1:23" ht="17">
       <c r="A144" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1</v>
@@ -44451,7 +44448,7 @@
     </row>
     <row r="145" spans="1:23" ht="17">
       <c r="A145" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1</v>
@@ -44522,7 +44519,7 @@
     </row>
     <row r="146" spans="1:23" ht="17">
       <c r="A146" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>1</v>
@@ -44593,7 +44590,7 @@
     </row>
     <row r="147" spans="1:23" ht="17">
       <c r="A147" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>1</v>
@@ -44664,7 +44661,7 @@
     </row>
     <row r="148" spans="1:23" ht="17">
       <c r="A148" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>1</v>
@@ -44806,7 +44803,7 @@
     </row>
     <row r="150" spans="1:23" ht="17">
       <c r="A150" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>15</v>
@@ -44877,7 +44874,7 @@
     </row>
     <row r="151" spans="1:23" ht="17">
       <c r="A151" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>15</v>
@@ -44948,7 +44945,7 @@
     </row>
     <row r="152" spans="1:23" ht="17">
       <c r="A152" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>15</v>
@@ -45019,7 +45016,7 @@
     </row>
     <row r="153" spans="1:23" ht="17">
       <c r="A153" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>15</v>
@@ -45090,7 +45087,7 @@
     </row>
     <row r="154" spans="1:23" ht="17">
       <c r="A154" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>15</v>
@@ -45161,7 +45158,7 @@
     </row>
     <row r="155" spans="1:23" ht="17">
       <c r="A155" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>15</v>
@@ -45232,7 +45229,7 @@
     </row>
     <row r="156" spans="1:23" ht="17">
       <c r="A156" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>15</v>
@@ -45303,7 +45300,7 @@
     </row>
     <row r="157" spans="1:23" ht="17">
       <c r="A157" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>15</v>
@@ -45374,7 +45371,7 @@
     </row>
     <row r="158" spans="1:23" ht="17">
       <c r="A158" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>15</v>
@@ -45445,7 +45442,7 @@
     </row>
     <row r="159" spans="1:23" ht="17">
       <c r="A159" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>15</v>
@@ -45516,7 +45513,7 @@
     </row>
     <row r="160" spans="1:23" ht="17">
       <c r="A160" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>15</v>
@@ -45587,7 +45584,7 @@
     </row>
     <row r="161" spans="1:23" ht="17">
       <c r="A161" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>17</v>
@@ -45729,7 +45726,7 @@
     </row>
     <row r="163" spans="1:23" ht="17">
       <c r="A163" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>17</v>
@@ -45800,7 +45797,7 @@
     </row>
     <row r="164" spans="1:23" ht="17">
       <c r="A164" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>17</v>
@@ -45942,7 +45939,7 @@
     </row>
     <row r="166" spans="1:23" ht="17">
       <c r="A166" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>17</v>
@@ -46013,7 +46010,7 @@
     </row>
     <row r="167" spans="1:23" ht="17">
       <c r="A167" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>17</v>
@@ -46084,7 +46081,7 @@
     </row>
     <row r="168" spans="1:23" ht="17">
       <c r="A168" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>17</v>
@@ -46155,7 +46152,7 @@
     </row>
     <row r="169" spans="1:23" ht="17">
       <c r="A169" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>17</v>
@@ -46226,7 +46223,7 @@
     </row>
     <row r="170" spans="1:23" ht="17">
       <c r="A170" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>17</v>
@@ -46297,7 +46294,7 @@
     </row>
     <row r="171" spans="1:23" ht="17">
       <c r="A171" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>17</v>
@@ -46368,7 +46365,7 @@
     </row>
     <row r="172" spans="1:23" ht="17">
       <c r="A172" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>17</v>
@@ -46439,7 +46436,7 @@
     </row>
     <row r="173" spans="1:23" ht="17">
       <c r="A173" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>17</v>
@@ -46510,7 +46507,7 @@
     </row>
     <row r="174" spans="1:23" ht="17">
       <c r="A174" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>17</v>
@@ -46581,7 +46578,7 @@
     </row>
     <row r="175" spans="1:23" ht="17">
       <c r="A175" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>17</v>
@@ -46652,7 +46649,7 @@
     </row>
     <row r="176" spans="1:23" ht="17">
       <c r="A176" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>17</v>
@@ -46723,7 +46720,7 @@
     </row>
     <row r="177" spans="1:23" ht="17">
       <c r="A177" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>12</v>
@@ -46936,7 +46933,7 @@
     </row>
     <row r="180" spans="1:23" ht="17">
       <c r="A180" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>12</v>
@@ -47007,7 +47004,7 @@
     </row>
     <row r="181" spans="1:23" ht="17">
       <c r="A181" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>12</v>
@@ -47078,7 +47075,7 @@
     </row>
     <row r="182" spans="1:23" ht="17">
       <c r="A182" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>12</v>
@@ -47149,7 +47146,7 @@
     </row>
     <row r="183" spans="1:23" ht="17">
       <c r="A183" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>12</v>
@@ -47220,7 +47217,7 @@
     </row>
     <row r="184" spans="1:23" ht="17">
       <c r="A184" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>12</v>
@@ -47291,7 +47288,7 @@
     </row>
     <row r="185" spans="1:23" ht="17">
       <c r="A185" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>12</v>
@@ -47362,7 +47359,7 @@
     </row>
     <row r="186" spans="1:23" ht="17">
       <c r="A186" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>12</v>
@@ -47433,7 +47430,7 @@
     </row>
     <row r="187" spans="1:23" ht="17">
       <c r="A187" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>12</v>
@@ -47504,7 +47501,7 @@
     </row>
     <row r="188" spans="1:23" ht="17">
       <c r="A188" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>12</v>
@@ -47575,7 +47572,7 @@
     </row>
     <row r="189" spans="1:23" ht="17">
       <c r="A189" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>12</v>
@@ -47646,7 +47643,7 @@
     </row>
     <row r="190" spans="1:23" ht="17">
       <c r="A190" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>12</v>
@@ -47859,7 +47856,7 @@
     </row>
     <row r="193" spans="1:23" ht="17">
       <c r="A193" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>4</v>
@@ -47930,7 +47927,7 @@
     </row>
     <row r="194" spans="1:23" ht="17">
       <c r="A194" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>4</v>
@@ -48072,7 +48069,7 @@
     </row>
     <row r="196" spans="1:23" ht="17">
       <c r="A196" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>4</v>
@@ -48143,7 +48140,7 @@
     </row>
     <row r="197" spans="1:23" ht="17">
       <c r="A197" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>4</v>
@@ -48214,7 +48211,7 @@
     </row>
     <row r="198" spans="1:23" ht="17">
       <c r="A198" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>4</v>
@@ -48285,7 +48282,7 @@
     </row>
     <row r="199" spans="1:23" ht="17">
       <c r="A199" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>4</v>
@@ -48356,7 +48353,7 @@
     </row>
     <row r="200" spans="1:23" ht="17">
       <c r="A200" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>4</v>
@@ -48427,7 +48424,7 @@
     </row>
     <row r="201" spans="1:23" ht="17">
       <c r="A201" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>4</v>
@@ -48498,7 +48495,7 @@
     </row>
     <row r="202" spans="1:23" ht="17">
       <c r="A202" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>4</v>
@@ -48569,7 +48566,7 @@
     </row>
     <row r="203" spans="1:23" ht="17">
       <c r="A203" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>4</v>
@@ -48640,7 +48637,7 @@
     </row>
     <row r="204" spans="1:23" ht="17">
       <c r="A204" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>4</v>
@@ -48711,7 +48708,7 @@
     </row>
     <row r="205" spans="1:23" ht="17">
       <c r="A205" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>4</v>
@@ -48782,7 +48779,7 @@
     </row>
     <row r="206" spans="1:23" ht="17">
       <c r="A206" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>4</v>
@@ -48853,7 +48850,7 @@
     </row>
     <row r="207" spans="1:23" ht="17">
       <c r="A207" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>4</v>
@@ -48924,7 +48921,7 @@
     </row>
     <row r="208" spans="1:23" ht="17">
       <c r="A208" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>4</v>
@@ -48995,7 +48992,7 @@
     </row>
     <row r="209" spans="1:23" ht="17">
       <c r="A209" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>4</v>
@@ -49066,7 +49063,7 @@
     </row>
     <row r="210" spans="1:23" ht="17">
       <c r="A210" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>4</v>
@@ -49137,7 +49134,7 @@
     </row>
     <row r="211" spans="1:23" ht="17">
       <c r="A211" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>4</v>
@@ -49208,7 +49205,7 @@
     </row>
     <row r="212" spans="1:23" ht="17">
       <c r="A212" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>4</v>
@@ -49279,7 +49276,7 @@
     </row>
     <row r="213" spans="1:23" ht="17">
       <c r="A213" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>4</v>
@@ -49350,7 +49347,7 @@
     </row>
     <row r="214" spans="1:23" ht="17">
       <c r="A214" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>4</v>
@@ -49421,7 +49418,7 @@
     </row>
     <row r="215" spans="1:23" ht="17">
       <c r="A215" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -49492,7 +49489,7 @@
     </row>
     <row r="216" spans="1:23" ht="17">
       <c r="A216" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>4</v>
@@ -49634,7 +49631,7 @@
     </row>
     <row r="218" spans="1:23" ht="17">
       <c r="A218" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>7</v>
@@ -49705,7 +49702,7 @@
     </row>
     <row r="219" spans="1:23" ht="17">
       <c r="A219" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>7</v>
@@ -49776,7 +49773,7 @@
     </row>
     <row r="220" spans="1:23" ht="17">
       <c r="A220" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>7</v>
@@ -49847,7 +49844,7 @@
     </row>
     <row r="221" spans="1:23" ht="17">
       <c r="A221" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>7</v>
@@ -49918,7 +49915,7 @@
     </row>
     <row r="222" spans="1:23" ht="17">
       <c r="A222" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>7</v>
@@ -49989,7 +49986,7 @@
     </row>
     <row r="223" spans="1:23" ht="17">
       <c r="A223" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>7</v>
@@ -50060,7 +50057,7 @@
     </row>
     <row r="224" spans="1:23" ht="17">
       <c r="A224" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>7</v>
@@ -50131,7 +50128,7 @@
     </row>
     <row r="225" spans="1:23" ht="17">
       <c r="A225" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>7</v>
@@ -50202,7 +50199,7 @@
     </row>
     <row r="226" spans="1:23" ht="17">
       <c r="A226" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>7</v>
@@ -50273,7 +50270,7 @@
     </row>
     <row r="227" spans="1:23" ht="17">
       <c r="A227" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>7</v>
@@ -50344,7 +50341,7 @@
     </row>
     <row r="228" spans="1:23" ht="17">
       <c r="A228" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>7</v>
@@ -50415,7 +50412,7 @@
     </row>
     <row r="229" spans="1:23" ht="17">
       <c r="A229" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>7</v>
@@ -50486,7 +50483,7 @@
     </row>
     <row r="230" spans="1:23" ht="17">
       <c r="A230" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>7</v>
@@ -50557,7 +50554,7 @@
     </row>
     <row r="231" spans="1:23" ht="17">
       <c r="A231" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>7</v>
@@ -50628,7 +50625,7 @@
     </row>
     <row r="232" spans="1:23" ht="17">
       <c r="A232" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>7</v>
@@ -50709,11 +50706,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57E4E30-4B88-EA47-8709-667FE0F27FC1}">
   <dimension ref="A1:W232"/>
   <sheetViews>
-    <sheetView topLeftCell="M203" workbookViewId="0">
-      <selection activeCell="Z227" sqref="Z227"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
@@ -50723,13 +50723,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F1" s="1">
         <v>2018</v>
@@ -50783,12 +50783,12 @@
         <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17">
       <c r="A2" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -50859,7 +50859,7 @@
     </row>
     <row r="3" spans="1:23" ht="17">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -51072,7 +51072,7 @@
     </row>
     <row r="6" spans="1:23" ht="17">
       <c r="A6" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -51143,7 +51143,7 @@
     </row>
     <row r="7" spans="1:23" ht="17">
       <c r="A7" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -51285,7 +51285,7 @@
     </row>
     <row r="9" spans="1:23" ht="17">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -51498,7 +51498,7 @@
     </row>
     <row r="12" spans="1:23" ht="17">
       <c r="A12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -51569,7 +51569,7 @@
     </row>
     <row r="13" spans="1:23" ht="17">
       <c r="A13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
@@ -51640,7 +51640,7 @@
     </row>
     <row r="14" spans="1:23" ht="17">
       <c r="A14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -51711,7 +51711,7 @@
     </row>
     <row r="15" spans="1:23" ht="17">
       <c r="A15" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
@@ -52350,7 +52350,7 @@
     </row>
     <row r="24" spans="1:23" ht="17">
       <c r="A24" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>15</v>
@@ -52492,7 +52492,7 @@
     </row>
     <row r="26" spans="1:23" ht="17">
       <c r="A26" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>1</v>
@@ -52705,7 +52705,7 @@
     </row>
     <row r="29" spans="1:23" ht="17">
       <c r="A29" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
@@ -52776,7 +52776,7 @@
     </row>
     <row r="30" spans="1:23" ht="17">
       <c r="A30" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
@@ -52989,7 +52989,7 @@
     </row>
     <row r="33" spans="1:23" ht="17">
       <c r="A33" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1</v>
@@ -53060,7 +53060,7 @@
     </row>
     <row r="34" spans="1:23" ht="17">
       <c r="A34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1</v>
@@ -53131,7 +53131,7 @@
     </row>
     <row r="35" spans="1:23" ht="17">
       <c r="A35" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>15</v>
@@ -53202,7 +53202,7 @@
     </row>
     <row r="36" spans="1:23" ht="17">
       <c r="A36" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>15</v>
@@ -53273,7 +53273,7 @@
     </row>
     <row r="37" spans="1:23" ht="17">
       <c r="A37" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>12</v>
@@ -53344,7 +53344,7 @@
     </row>
     <row r="38" spans="1:23" ht="17">
       <c r="A38" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
@@ -53486,7 +53486,7 @@
     </row>
     <row r="40" spans="1:23" ht="17">
       <c r="A40" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>4</v>
@@ -53557,7 +53557,7 @@
     </row>
     <row r="41" spans="1:23" ht="17">
       <c r="A41" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>7</v>
@@ -53699,7 +53699,7 @@
     </row>
     <row r="43" spans="1:23" ht="17">
       <c r="A43" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>1</v>
@@ -53770,7 +53770,7 @@
     </row>
     <row r="44" spans="1:23" ht="17">
       <c r="A44" s="3" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1</v>
@@ -53912,7 +53912,7 @@
     </row>
     <row r="46" spans="1:23" ht="17">
       <c r="A46" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>15</v>
@@ -53983,7 +53983,7 @@
     </row>
     <row r="47" spans="1:23" ht="17">
       <c r="A47" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>15</v>
@@ -54054,7 +54054,7 @@
     </row>
     <row r="48" spans="1:23" ht="17">
       <c r="A48" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
@@ -54267,7 +54267,7 @@
     </row>
     <row r="51" spans="1:23" ht="17">
       <c r="A51" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>4</v>
@@ -54338,7 +54338,7 @@
     </row>
     <row r="52" spans="1:23" ht="17">
       <c r="A52" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>4</v>
@@ -54551,7 +54551,7 @@
     </row>
     <row r="55" spans="1:23" ht="17">
       <c r="A55" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>4</v>
@@ -54693,7 +54693,7 @@
     </row>
     <row r="57" spans="1:23" ht="17">
       <c r="A57" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>7</v>
@@ -54764,7 +54764,7 @@
     </row>
     <row r="58" spans="1:23" ht="17">
       <c r="A58" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>7</v>
@@ -54835,7 +54835,7 @@
     </row>
     <row r="59" spans="1:23" ht="17">
       <c r="A59" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>1</v>
@@ -54977,7 +54977,7 @@
     </row>
     <row r="61" spans="1:23" ht="17">
       <c r="A61" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>15</v>
@@ -55048,7 +55048,7 @@
     </row>
     <row r="62" spans="1:23" ht="17">
       <c r="A62" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>15</v>
@@ -55119,7 +55119,7 @@
     </row>
     <row r="63" spans="1:23" ht="17">
       <c r="A63" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>15</v>
@@ -55190,7 +55190,7 @@
     </row>
     <row r="64" spans="1:23" ht="17">
       <c r="A64" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>15</v>
@@ -55261,7 +55261,7 @@
     </row>
     <row r="65" spans="1:23" ht="17">
       <c r="A65" s="3" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>17</v>
@@ -55403,7 +55403,7 @@
     </row>
     <row r="67" spans="1:23" ht="17">
       <c r="A67" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>17</v>
@@ -55474,7 +55474,7 @@
     </row>
     <row r="68" spans="1:23" ht="17">
       <c r="A68" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>17</v>
@@ -55545,7 +55545,7 @@
     </row>
     <row r="69" spans="1:23" ht="17">
       <c r="A69" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>17</v>
@@ -55616,7 +55616,7 @@
     </row>
     <row r="70" spans="1:23" ht="17">
       <c r="A70" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -55829,7 +55829,7 @@
     </row>
     <row r="73" spans="1:23" ht="17">
       <c r="A73" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -55900,7 +55900,7 @@
     </row>
     <row r="74" spans="1:23" ht="17">
       <c r="A74" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>12</v>
@@ -55971,7 +55971,7 @@
     </row>
     <row r="75" spans="1:23" ht="17">
       <c r="A75" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -56042,7 +56042,7 @@
     </row>
     <row r="76" spans="1:23" ht="17">
       <c r="A76" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>12</v>
@@ -56113,7 +56113,7 @@
     </row>
     <row r="77" spans="1:23" ht="17">
       <c r="A77" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>12</v>
@@ -56255,7 +56255,7 @@
     </row>
     <row r="79" spans="1:23" ht="17">
       <c r="A79" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>4</v>
@@ -56326,7 +56326,7 @@
     </row>
     <row r="80" spans="1:23" ht="17">
       <c r="A80" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>4</v>
@@ -56397,7 +56397,7 @@
     </row>
     <row r="81" spans="1:23" ht="17">
       <c r="A81" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>4</v>
@@ -56539,7 +56539,7 @@
     </row>
     <row r="83" spans="1:23" ht="17">
       <c r="A83" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>7</v>
@@ -56610,7 +56610,7 @@
     </row>
     <row r="84" spans="1:23" ht="17">
       <c r="A84" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>7</v>
@@ -56681,7 +56681,7 @@
     </row>
     <row r="85" spans="1:23" ht="17">
       <c r="A85" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>7</v>
@@ -56752,7 +56752,7 @@
     </row>
     <row r="86" spans="1:23" ht="17">
       <c r="A86" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1</v>
@@ -56823,7 +56823,7 @@
     </row>
     <row r="87" spans="1:23" ht="17">
       <c r="A87" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>1</v>
@@ -56894,7 +56894,7 @@
     </row>
     <row r="88" spans="1:23" ht="17">
       <c r="A88" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>15</v>
@@ -56965,7 +56965,7 @@
     </row>
     <row r="89" spans="1:23" ht="17">
       <c r="A89" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>15</v>
@@ -57036,7 +57036,7 @@
     </row>
     <row r="90" spans="1:23" ht="17">
       <c r="A90" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>15</v>
@@ -57107,7 +57107,7 @@
     </row>
     <row r="91" spans="1:23" ht="17">
       <c r="A91" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>17</v>
@@ -57178,7 +57178,7 @@
     </row>
     <row r="92" spans="1:23" ht="17">
       <c r="A92" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>17</v>
@@ -57604,7 +57604,7 @@
     </row>
     <row r="98" spans="1:23" ht="17">
       <c r="A98" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>12</v>
@@ -57746,7 +57746,7 @@
     </row>
     <row r="100" spans="1:23" ht="17">
       <c r="A100" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>4</v>
@@ -57817,7 +57817,7 @@
     </row>
     <row r="101" spans="1:23" ht="17">
       <c r="A101" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>4</v>
@@ -57888,7 +57888,7 @@
     </row>
     <row r="102" spans="1:23" ht="17">
       <c r="A102" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>7</v>
@@ -57959,7 +57959,7 @@
     </row>
     <row r="103" spans="1:23" ht="17">
       <c r="A103" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>7</v>
@@ -58030,7 +58030,7 @@
     </row>
     <row r="104" spans="1:23" ht="17">
       <c r="A104" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>7</v>
@@ -58101,7 +58101,7 @@
     </row>
     <row r="105" spans="1:23" ht="17">
       <c r="A105" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>7</v>
@@ -58172,7 +58172,7 @@
     </row>
     <row r="106" spans="1:23" ht="17">
       <c r="A106" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>7</v>
@@ -58243,7 +58243,7 @@
     </row>
     <row r="107" spans="1:23" ht="17">
       <c r="A107" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>7</v>
@@ -58456,7 +58456,7 @@
     </row>
     <row r="110" spans="1:23" ht="17">
       <c r="A110" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>1</v>
@@ -58527,7 +58527,7 @@
     </row>
     <row r="111" spans="1:23" ht="17">
       <c r="A111" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>1</v>
@@ -58598,7 +58598,7 @@
     </row>
     <row r="112" spans="1:23" ht="17">
       <c r="A112" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>1</v>
@@ -58669,7 +58669,7 @@
     </row>
     <row r="113" spans="1:23" ht="17">
       <c r="A113" s="3" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>1</v>
@@ -58811,7 +58811,7 @@
     </row>
     <row r="115" spans="1:23" ht="17">
       <c r="A115" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>15</v>
@@ -58882,7 +58882,7 @@
     </row>
     <row r="116" spans="1:23" ht="17">
       <c r="A116" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>15</v>
@@ -59024,7 +59024,7 @@
     </row>
     <row r="118" spans="1:23" ht="17">
       <c r="A118" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>17</v>
@@ -59095,7 +59095,7 @@
     </row>
     <row r="119" spans="1:23" ht="17">
       <c r="A119" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>17</v>
@@ -59166,7 +59166,7 @@
     </row>
     <row r="120" spans="1:23" ht="17">
       <c r="A120" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>17</v>
@@ -59237,7 +59237,7 @@
     </row>
     <row r="121" spans="1:23" ht="17">
       <c r="A121" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>17</v>
@@ -59308,7 +59308,7 @@
     </row>
     <row r="122" spans="1:23" ht="17">
       <c r="A122" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>17</v>
@@ -59450,7 +59450,7 @@
     </row>
     <row r="124" spans="1:23" ht="17">
       <c r="A124" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>12</v>
@@ -59521,7 +59521,7 @@
     </row>
     <row r="125" spans="1:23" ht="17">
       <c r="A125" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>12</v>
@@ -59592,7 +59592,7 @@
     </row>
     <row r="126" spans="1:23" ht="17">
       <c r="A126" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>12</v>
@@ -59734,7 +59734,7 @@
     </row>
     <row r="128" spans="1:23" ht="17">
       <c r="A128" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>4</v>
@@ -59805,7 +59805,7 @@
     </row>
     <row r="129" spans="1:23" ht="17">
       <c r="A129" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>4</v>
@@ -59876,7 +59876,7 @@
     </row>
     <row r="130" spans="1:23" ht="17">
       <c r="A130" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>4</v>
@@ -59947,7 +59947,7 @@
     </row>
     <row r="131" spans="1:23" ht="17">
       <c r="A131" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>7</v>
@@ -60018,7 +60018,7 @@
     </row>
     <row r="132" spans="1:23" ht="17">
       <c r="A132" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>7</v>
@@ -60089,7 +60089,7 @@
     </row>
     <row r="133" spans="1:23" ht="17">
       <c r="A133" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>7</v>
@@ -60160,7 +60160,7 @@
     </row>
     <row r="134" spans="1:23" ht="17">
       <c r="A134" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>1</v>
@@ -60302,7 +60302,7 @@
     </row>
     <row r="136" spans="1:23" ht="17">
       <c r="A136" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>1</v>
@@ -60373,7 +60373,7 @@
     </row>
     <row r="137" spans="1:23" ht="17">
       <c r="A137" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>1</v>
@@ -60444,7 +60444,7 @@
     </row>
     <row r="138" spans="1:23" ht="17">
       <c r="A138" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>1</v>
@@ -60515,7 +60515,7 @@
     </row>
     <row r="139" spans="1:23" ht="17">
       <c r="A139" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>1</v>
@@ -60586,7 +60586,7 @@
     </row>
     <row r="140" spans="1:23" ht="17">
       <c r="A140" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>1</v>
@@ -60657,7 +60657,7 @@
     </row>
     <row r="141" spans="1:23" ht="17">
       <c r="A141" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1</v>
@@ -60728,7 +60728,7 @@
     </row>
     <row r="142" spans="1:23" ht="17">
       <c r="A142" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
@@ -60799,7 +60799,7 @@
     </row>
     <row r="143" spans="1:23" ht="17">
       <c r="A143" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1</v>
@@ -60870,7 +60870,7 @@
     </row>
     <row r="144" spans="1:23" ht="17">
       <c r="A144" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1</v>
@@ -60941,7 +60941,7 @@
     </row>
     <row r="145" spans="1:23" ht="17">
       <c r="A145" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1</v>
@@ -61012,7 +61012,7 @@
     </row>
     <row r="146" spans="1:23" ht="17">
       <c r="A146" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>1</v>
@@ -61083,7 +61083,7 @@
     </row>
     <row r="147" spans="1:23" ht="17">
       <c r="A147" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>1</v>
@@ -61225,7 +61225,7 @@
     </row>
     <row r="149" spans="1:23" ht="17">
       <c r="A149" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>15</v>
@@ -61296,7 +61296,7 @@
     </row>
     <row r="150" spans="1:23" ht="17">
       <c r="A150" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>15</v>
@@ -61367,7 +61367,7 @@
     </row>
     <row r="151" spans="1:23" ht="17">
       <c r="A151" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>15</v>
@@ -61438,7 +61438,7 @@
     </row>
     <row r="152" spans="1:23" ht="17">
       <c r="A152" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>15</v>
@@ -61509,7 +61509,7 @@
     </row>
     <row r="153" spans="1:23" ht="17">
       <c r="A153" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>15</v>
@@ -61580,7 +61580,7 @@
     </row>
     <row r="154" spans="1:23" ht="17">
       <c r="A154" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>15</v>
@@ -61651,7 +61651,7 @@
     </row>
     <row r="155" spans="1:23" ht="17">
       <c r="A155" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>15</v>
@@ -61722,7 +61722,7 @@
     </row>
     <row r="156" spans="1:23" ht="17">
       <c r="A156" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>15</v>
@@ -61793,7 +61793,7 @@
     </row>
     <row r="157" spans="1:23" ht="17">
       <c r="A157" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>15</v>
@@ -61864,7 +61864,7 @@
     </row>
     <row r="158" spans="1:23" ht="17">
       <c r="A158" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>15</v>
@@ -61935,7 +61935,7 @@
     </row>
     <row r="159" spans="1:23" ht="17">
       <c r="A159" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>15</v>
@@ -62006,7 +62006,7 @@
     </row>
     <row r="160" spans="1:23" ht="17">
       <c r="A160" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>15</v>
@@ -62077,7 +62077,7 @@
     </row>
     <row r="161" spans="1:23" ht="17">
       <c r="A161" s="3" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>17</v>
@@ -62148,7 +62148,7 @@
     </row>
     <row r="162" spans="1:23" ht="17">
       <c r="A162" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>17</v>
@@ -62219,7 +62219,7 @@
     </row>
     <row r="163" spans="1:23" ht="17">
       <c r="A163" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>17</v>
@@ -62290,7 +62290,7 @@
     </row>
     <row r="164" spans="1:23" ht="17">
       <c r="A164" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>17</v>
@@ -62361,7 +62361,7 @@
     </row>
     <row r="165" spans="1:23" ht="17">
       <c r="A165" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>17</v>
@@ -62432,7 +62432,7 @@
     </row>
     <row r="166" spans="1:23" ht="17">
       <c r="A166" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>17</v>
@@ -62503,7 +62503,7 @@
     </row>
     <row r="167" spans="1:23" ht="17">
       <c r="A167" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>17</v>
@@ -62574,7 +62574,7 @@
     </row>
     <row r="168" spans="1:23" ht="17">
       <c r="A168" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>17</v>
@@ -62645,7 +62645,7 @@
     </row>
     <row r="169" spans="1:23" ht="17">
       <c r="A169" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>17</v>
@@ -62716,7 +62716,7 @@
     </row>
     <row r="170" spans="1:23" ht="17">
       <c r="A170" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>17</v>
@@ -62787,7 +62787,7 @@
     </row>
     <row r="171" spans="1:23" ht="17">
       <c r="A171" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>17</v>
@@ -62858,7 +62858,7 @@
     </row>
     <row r="172" spans="1:23" ht="17">
       <c r="A172" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>17</v>
@@ -62929,7 +62929,7 @@
     </row>
     <row r="173" spans="1:23" ht="17">
       <c r="A173" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>17</v>
@@ -63000,7 +63000,7 @@
     </row>
     <row r="174" spans="1:23" ht="17">
       <c r="A174" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>17</v>
@@ -63071,7 +63071,7 @@
     </row>
     <row r="175" spans="1:23" ht="17">
       <c r="A175" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>17</v>
@@ -63142,7 +63142,7 @@
     </row>
     <row r="176" spans="1:23" ht="17">
       <c r="A176" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>17</v>
@@ -63213,7 +63213,7 @@
     </row>
     <row r="177" spans="1:23" ht="17">
       <c r="A177" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>12</v>
@@ -63284,7 +63284,7 @@
     </row>
     <row r="178" spans="1:23" ht="17">
       <c r="A178" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>12</v>
@@ -63355,7 +63355,7 @@
     </row>
     <row r="179" spans="1:23" ht="17">
       <c r="A179" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>12</v>
@@ -63426,7 +63426,7 @@
     </row>
     <row r="180" spans="1:23" ht="17">
       <c r="A180" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>12</v>
@@ -63497,7 +63497,7 @@
     </row>
     <row r="181" spans="1:23" ht="17">
       <c r="A181" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>12</v>
@@ -63568,7 +63568,7 @@
     </row>
     <row r="182" spans="1:23" ht="17">
       <c r="A182" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>12</v>
@@ -63639,7 +63639,7 @@
     </row>
     <row r="183" spans="1:23" ht="17">
       <c r="A183" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>12</v>
@@ -63710,7 +63710,7 @@
     </row>
     <row r="184" spans="1:23" ht="17">
       <c r="A184" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>12</v>
@@ -63781,7 +63781,7 @@
     </row>
     <row r="185" spans="1:23" ht="17">
       <c r="A185" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>12</v>
@@ -63852,7 +63852,7 @@
     </row>
     <row r="186" spans="1:23" ht="17">
       <c r="A186" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>12</v>
@@ -63923,7 +63923,7 @@
     </row>
     <row r="187" spans="1:23" ht="17">
       <c r="A187" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>12</v>
@@ -63994,7 +63994,7 @@
     </row>
     <row r="188" spans="1:23" ht="17">
       <c r="A188" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>12</v>
@@ -64065,7 +64065,7 @@
     </row>
     <row r="189" spans="1:23" ht="17">
       <c r="A189" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>12</v>
@@ -64136,7 +64136,7 @@
     </row>
     <row r="190" spans="1:23" ht="17">
       <c r="A190" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>4</v>
@@ -64278,7 +64278,7 @@
     </row>
     <row r="192" spans="1:23" ht="17">
       <c r="A192" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>4</v>
@@ -64349,7 +64349,7 @@
     </row>
     <row r="193" spans="1:23" ht="17">
       <c r="A193" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>4</v>
@@ -64491,7 +64491,7 @@
     </row>
     <row r="195" spans="1:23" ht="17">
       <c r="A195" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>4</v>
@@ -64562,7 +64562,7 @@
     </row>
     <row r="196" spans="1:23" ht="17">
       <c r="A196" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>4</v>
@@ -64633,7 +64633,7 @@
     </row>
     <row r="197" spans="1:23" ht="17">
       <c r="A197" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>4</v>
@@ -64704,7 +64704,7 @@
     </row>
     <row r="198" spans="1:23" ht="17">
       <c r="A198" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>4</v>
@@ -64775,7 +64775,7 @@
     </row>
     <row r="199" spans="1:23" ht="17">
       <c r="A199" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>4</v>
@@ -64846,7 +64846,7 @@
     </row>
     <row r="200" spans="1:23" ht="17">
       <c r="A200" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>4</v>
@@ -64917,7 +64917,7 @@
     </row>
     <row r="201" spans="1:23" ht="17">
       <c r="A201" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>4</v>
@@ -64988,7 +64988,7 @@
     </row>
     <row r="202" spans="1:23" ht="17">
       <c r="A202" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>4</v>
@@ -65059,7 +65059,7 @@
     </row>
     <row r="203" spans="1:23" ht="17">
       <c r="A203" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>4</v>
@@ -65130,7 +65130,7 @@
     </row>
     <row r="204" spans="1:23" ht="17">
       <c r="A204" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>4</v>
@@ -65201,7 +65201,7 @@
     </row>
     <row r="205" spans="1:23" ht="17">
       <c r="A205" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>4</v>
@@ -65272,7 +65272,7 @@
     </row>
     <row r="206" spans="1:23" ht="17">
       <c r="A206" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>4</v>
@@ -65343,7 +65343,7 @@
     </row>
     <row r="207" spans="1:23" ht="17">
       <c r="A207" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>4</v>
@@ -65414,7 +65414,7 @@
     </row>
     <row r="208" spans="1:23" ht="17">
       <c r="A208" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>4</v>
@@ -65485,7 +65485,7 @@
     </row>
     <row r="209" spans="1:23" ht="17">
       <c r="A209" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>4</v>
@@ -65556,7 +65556,7 @@
     </row>
     <row r="210" spans="1:23" ht="17">
       <c r="A210" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>4</v>
@@ -65627,7 +65627,7 @@
     </row>
     <row r="211" spans="1:23" ht="17">
       <c r="A211" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>4</v>
@@ -65698,7 +65698,7 @@
     </row>
     <row r="212" spans="1:23" ht="17">
       <c r="A212" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>4</v>
@@ -65769,7 +65769,7 @@
     </row>
     <row r="213" spans="1:23" ht="17">
       <c r="A213" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>4</v>
@@ -65840,7 +65840,7 @@
     </row>
     <row r="214" spans="1:23" ht="17">
       <c r="A214" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>4</v>
@@ -65911,7 +65911,7 @@
     </row>
     <row r="215" spans="1:23" ht="17">
       <c r="A215" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -65982,7 +65982,7 @@
     </row>
     <row r="216" spans="1:23" ht="17">
       <c r="A216" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>4</v>
@@ -66053,7 +66053,7 @@
     </row>
     <row r="217" spans="1:23" ht="17">
       <c r="A217" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>7</v>
@@ -66195,7 +66195,7 @@
     </row>
     <row r="219" spans="1:23" ht="17">
       <c r="A219" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>7</v>
@@ -66266,7 +66266,7 @@
     </row>
     <row r="220" spans="1:23" ht="17">
       <c r="A220" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>7</v>
@@ -66337,7 +66337,7 @@
     </row>
     <row r="221" spans="1:23" ht="17">
       <c r="A221" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>7</v>
@@ -66408,7 +66408,7 @@
     </row>
     <row r="222" spans="1:23" ht="17">
       <c r="A222" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>7</v>
@@ -66479,7 +66479,7 @@
     </row>
     <row r="223" spans="1:23" ht="17">
       <c r="A223" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>7</v>
@@ -66550,7 +66550,7 @@
     </row>
     <row r="224" spans="1:23" ht="17">
       <c r="A224" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>7</v>
@@ -66621,7 +66621,7 @@
     </row>
     <row r="225" spans="1:23" ht="17">
       <c r="A225" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>7</v>
@@ -66692,7 +66692,7 @@
     </row>
     <row r="226" spans="1:23" ht="17">
       <c r="A226" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>7</v>
@@ -66763,7 +66763,7 @@
     </row>
     <row r="227" spans="1:23" ht="17">
       <c r="A227" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>7</v>
@@ -66834,7 +66834,7 @@
     </row>
     <row r="228" spans="1:23" ht="17">
       <c r="A228" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>7</v>
@@ -66905,7 +66905,7 @@
     </row>
     <row r="229" spans="1:23" ht="17">
       <c r="A229" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>7</v>
@@ -66976,7 +66976,7 @@
     </row>
     <row r="230" spans="1:23" ht="17">
       <c r="A230" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>7</v>
@@ -67047,7 +67047,7 @@
     </row>
     <row r="231" spans="1:23" ht="17">
       <c r="A231" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>7</v>
@@ -67118,7 +67118,7 @@
     </row>
     <row r="232" spans="1:23" ht="17">
       <c r="A232" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>7</v>
@@ -67199,11 +67199,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24909BB3-D198-1A4E-9B3D-50083A940A05}">
   <dimension ref="A1:W232"/>
   <sheetViews>
-    <sheetView topLeftCell="R204" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W232"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
@@ -67213,13 +67216,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F1" s="1">
         <v>2018</v>
@@ -67273,7 +67276,7 @@
         <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17">
@@ -67420,7 +67423,7 @@
     </row>
     <row r="4" spans="1:23" ht="17">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -67562,7 +67565,7 @@
     </row>
     <row r="6" spans="1:23" ht="17">
       <c r="A6" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -67633,7 +67636,7 @@
     </row>
     <row r="7" spans="1:23" ht="17">
       <c r="A7" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -67775,7 +67778,7 @@
     </row>
     <row r="9" spans="1:23" ht="17">
       <c r="A9" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -67917,7 +67920,7 @@
     </row>
     <row r="11" spans="1:23" ht="17">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -68201,7 +68204,7 @@
     </row>
     <row r="15" spans="1:23" ht="17">
       <c r="A15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -68272,7 +68275,7 @@
     </row>
     <row r="16" spans="1:23" ht="17">
       <c r="A16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1</v>
@@ -68343,7 +68346,7 @@
     </row>
     <row r="17" spans="1:23" ht="17">
       <c r="A17" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -68414,7 +68417,7 @@
     </row>
     <row r="18" spans="1:23" ht="17">
       <c r="A18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -68556,7 +68559,7 @@
     </row>
     <row r="20" spans="1:23" ht="17">
       <c r="A20" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
@@ -68627,7 +68630,7 @@
     </row>
     <row r="21" spans="1:23" ht="17">
       <c r="A21" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>15</v>
@@ -68698,7 +68701,7 @@
     </row>
     <row r="22" spans="1:23" ht="17">
       <c r="A22" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1</v>
@@ -68769,7 +68772,7 @@
     </row>
     <row r="23" spans="1:23" ht="17">
       <c r="A23" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
@@ -68911,7 +68914,7 @@
     </row>
     <row r="25" spans="1:23" ht="17">
       <c r="A25" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>4</v>
@@ -68982,7 +68985,7 @@
     </row>
     <row r="26" spans="1:23" ht="17">
       <c r="A26" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>4</v>
@@ -69195,7 +69198,7 @@
     </row>
     <row r="29" spans="1:23" ht="17">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>1</v>
@@ -69337,7 +69340,7 @@
     </row>
     <row r="31" spans="1:23" ht="17">
       <c r="A31" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>15</v>
@@ -69479,7 +69482,7 @@
     </row>
     <row r="33" spans="1:23" ht="17">
       <c r="A33" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>17</v>
@@ -69550,7 +69553,7 @@
     </row>
     <row r="34" spans="1:23" ht="17">
       <c r="A34" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
@@ -69621,7 +69624,7 @@
     </row>
     <row r="35" spans="1:23" ht="17">
       <c r="A35" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>4</v>
@@ -69692,7 +69695,7 @@
     </row>
     <row r="36" spans="1:23" ht="17">
       <c r="A36" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
@@ -69763,7 +69766,7 @@
     </row>
     <row r="37" spans="1:23" ht="17">
       <c r="A37" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>7</v>
@@ -69834,7 +69837,7 @@
     </row>
     <row r="38" spans="1:23" ht="17">
       <c r="A38" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>1</v>
@@ -69976,7 +69979,7 @@
     </row>
     <row r="40" spans="1:23" ht="17">
       <c r="A40" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>15</v>
@@ -70047,7 +70050,7 @@
     </row>
     <row r="41" spans="1:23" ht="17">
       <c r="A41" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>15</v>
@@ -70118,7 +70121,7 @@
     </row>
     <row r="42" spans="1:23" ht="17">
       <c r="A42" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>15</v>
@@ -70189,7 +70192,7 @@
     </row>
     <row r="43" spans="1:23" ht="17">
       <c r="A43" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>17</v>
@@ -70473,7 +70476,7 @@
     </row>
     <row r="47" spans="1:23" ht="17">
       <c r="A47" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
@@ -70544,7 +70547,7 @@
     </row>
     <row r="48" spans="1:23" ht="17">
       <c r="A48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>4</v>
@@ -70615,7 +70618,7 @@
     </row>
     <row r="49" spans="1:23" ht="17">
       <c r="A49" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>4</v>
@@ -70686,7 +70689,7 @@
     </row>
     <row r="50" spans="1:23" ht="17">
       <c r="A50" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>4</v>
@@ -70828,7 +70831,7 @@
     </row>
     <row r="52" spans="1:23" ht="17">
       <c r="A52" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>7</v>
@@ -70970,7 +70973,7 @@
     </row>
     <row r="54" spans="1:23" ht="17">
       <c r="A54" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>1</v>
@@ -71183,7 +71186,7 @@
     </row>
     <row r="57" spans="1:23" ht="17">
       <c r="A57" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>1</v>
@@ -71254,7 +71257,7 @@
     </row>
     <row r="58" spans="1:23" ht="17">
       <c r="A58" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>15</v>
@@ -71325,7 +71328,7 @@
     </row>
     <row r="59" spans="1:23" ht="17">
       <c r="A59" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>15</v>
@@ -71396,7 +71399,7 @@
     </row>
     <row r="60" spans="1:23" ht="17">
       <c r="A60" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>15</v>
@@ -71538,7 +71541,7 @@
     </row>
     <row r="62" spans="1:23" ht="17">
       <c r="A62" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>17</v>
@@ -71680,7 +71683,7 @@
     </row>
     <row r="64" spans="1:23" ht="17">
       <c r="A64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>17</v>
@@ -71822,7 +71825,7 @@
     </row>
     <row r="66" spans="1:23" ht="17">
       <c r="A66" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>17</v>
@@ -71893,7 +71896,7 @@
     </row>
     <row r="67" spans="1:23" ht="17">
       <c r="A67" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>17</v>
@@ -71964,7 +71967,7 @@
     </row>
     <row r="68" spans="1:23" ht="17">
       <c r="A68" s="3" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>17</v>
@@ -72035,7 +72038,7 @@
     </row>
     <row r="69" spans="1:23" ht="17">
       <c r="A69" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>17</v>
@@ -72177,7 +72180,7 @@
     </row>
     <row r="71" spans="1:23" ht="17">
       <c r="A71" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>12</v>
@@ -72248,7 +72251,7 @@
     </row>
     <row r="72" spans="1:23" ht="17">
       <c r="A72" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>12</v>
@@ -72319,7 +72322,7 @@
     </row>
     <row r="73" spans="1:23" ht="17">
       <c r="A73" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -72461,7 +72464,7 @@
     </row>
     <row r="75" spans="1:23" ht="17">
       <c r="A75" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -72674,7 +72677,7 @@
     </row>
     <row r="78" spans="1:23" ht="17">
       <c r="A78" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>4</v>
@@ -72745,7 +72748,7 @@
     </row>
     <row r="79" spans="1:23" ht="17">
       <c r="A79" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>7</v>
@@ -72887,7 +72890,7 @@
     </row>
     <row r="81" spans="1:23" ht="17">
       <c r="A81" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>7</v>
@@ -72958,7 +72961,7 @@
     </row>
     <row r="82" spans="1:23" ht="17">
       <c r="A82" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>7</v>
@@ -73029,7 +73032,7 @@
     </row>
     <row r="83" spans="1:23" ht="17">
       <c r="A83" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>7</v>
@@ -73100,7 +73103,7 @@
     </row>
     <row r="84" spans="1:23" ht="17">
       <c r="A84" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>1</v>
@@ -73171,7 +73174,7 @@
     </row>
     <row r="85" spans="1:23" ht="17">
       <c r="A85" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>1</v>
@@ -73313,7 +73316,7 @@
     </row>
     <row r="87" spans="1:23" ht="17">
       <c r="A87" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>15</v>
@@ -73384,7 +73387,7 @@
     </row>
     <row r="88" spans="1:23" ht="17">
       <c r="A88" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>15</v>
@@ -73597,7 +73600,7 @@
     </row>
     <row r="91" spans="1:23" ht="17">
       <c r="A91" s="3" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>17</v>
@@ -73668,7 +73671,7 @@
     </row>
     <row r="92" spans="1:23" ht="17">
       <c r="A92" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>17</v>
@@ -73739,7 +73742,7 @@
     </row>
     <row r="93" spans="1:23" ht="17">
       <c r="A93" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>17</v>
@@ -73952,7 +73955,7 @@
     </row>
     <row r="96" spans="1:23" ht="17">
       <c r="A96" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>4</v>
@@ -74023,7 +74026,7 @@
     </row>
     <row r="97" spans="1:23" ht="17">
       <c r="A97" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>4</v>
@@ -74094,7 +74097,7 @@
     </row>
     <row r="98" spans="1:23" ht="17">
       <c r="A98" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>4</v>
@@ -74307,7 +74310,7 @@
     </row>
     <row r="101" spans="1:23" ht="17">
       <c r="A101" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>7</v>
@@ -74378,7 +74381,7 @@
     </row>
     <row r="102" spans="1:23" ht="17">
       <c r="A102" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>7</v>
@@ -74449,7 +74452,7 @@
     </row>
     <row r="103" spans="1:23" ht="17">
       <c r="A103" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>7</v>
@@ -74520,7 +74523,7 @@
     </row>
     <row r="104" spans="1:23" ht="17">
       <c r="A104" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>7</v>
@@ -74591,7 +74594,7 @@
     </row>
     <row r="105" spans="1:23" ht="17">
       <c r="A105" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>7</v>
@@ -74662,7 +74665,7 @@
     </row>
     <row r="106" spans="1:23" ht="17">
       <c r="A106" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>7</v>
@@ -74733,7 +74736,7 @@
     </row>
     <row r="107" spans="1:23" ht="17">
       <c r="A107" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>7</v>
@@ -74804,7 +74807,7 @@
     </row>
     <row r="108" spans="1:23" ht="17">
       <c r="A108" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>7</v>
@@ -74875,7 +74878,7 @@
     </row>
     <row r="109" spans="1:23" ht="17">
       <c r="A109" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>7</v>
@@ -74946,7 +74949,7 @@
     </row>
     <row r="110" spans="1:23" ht="17">
       <c r="A110" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>1</v>
@@ -75017,7 +75020,7 @@
     </row>
     <row r="111" spans="1:23" ht="17">
       <c r="A111" s="3" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>1</v>
@@ -75088,7 +75091,7 @@
     </row>
     <row r="112" spans="1:23" ht="17">
       <c r="A112" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>1</v>
@@ -75159,7 +75162,7 @@
     </row>
     <row r="113" spans="1:23" ht="17">
       <c r="A113" s="3" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>1</v>
@@ -75230,7 +75233,7 @@
     </row>
     <row r="114" spans="1:23" ht="17">
       <c r="A114" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>15</v>
@@ -75372,7 +75375,7 @@
     </row>
     <row r="116" spans="1:23" ht="17">
       <c r="A116" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>15</v>
@@ -75443,7 +75446,7 @@
     </row>
     <row r="117" spans="1:23" ht="17">
       <c r="A117" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>15</v>
@@ -75514,7 +75517,7 @@
     </row>
     <row r="118" spans="1:23" ht="17">
       <c r="A118" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>17</v>
@@ -75585,7 +75588,7 @@
     </row>
     <row r="119" spans="1:23" ht="17">
       <c r="A119" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>17</v>
@@ -75656,7 +75659,7 @@
     </row>
     <row r="120" spans="1:23" ht="17">
       <c r="A120" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>17</v>
@@ -75727,7 +75730,7 @@
     </row>
     <row r="121" spans="1:23" ht="17">
       <c r="A121" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>17</v>
@@ -75798,7 +75801,7 @@
     </row>
     <row r="122" spans="1:23" ht="17">
       <c r="A122" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>17</v>
@@ -75940,7 +75943,7 @@
     </row>
     <row r="124" spans="1:23" ht="17">
       <c r="A124" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>12</v>
@@ -76011,7 +76014,7 @@
     </row>
     <row r="125" spans="1:23" ht="17">
       <c r="A125" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>12</v>
@@ -76082,7 +76085,7 @@
     </row>
     <row r="126" spans="1:23" ht="17">
       <c r="A126" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>12</v>
@@ -76153,7 +76156,7 @@
     </row>
     <row r="127" spans="1:23" ht="17">
       <c r="A127" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>12</v>
@@ -76224,7 +76227,7 @@
     </row>
     <row r="128" spans="1:23" ht="17">
       <c r="A128" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>12</v>
@@ -76295,7 +76298,7 @@
     </row>
     <row r="129" spans="1:23" ht="17">
       <c r="A129" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>4</v>
@@ -76437,7 +76440,7 @@
     </row>
     <row r="131" spans="1:23" ht="17">
       <c r="A131" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>7</v>
@@ -76579,7 +76582,7 @@
     </row>
     <row r="133" spans="1:23" ht="17">
       <c r="A133" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>1</v>
@@ -76650,7 +76653,7 @@
     </row>
     <row r="134" spans="1:23" ht="17">
       <c r="A134" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>1</v>
@@ -76721,7 +76724,7 @@
     </row>
     <row r="135" spans="1:23" ht="17">
       <c r="A135" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>1</v>
@@ -76792,7 +76795,7 @@
     </row>
     <row r="136" spans="1:23" ht="17">
       <c r="A136" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>1</v>
@@ -76863,7 +76866,7 @@
     </row>
     <row r="137" spans="1:23" ht="17">
       <c r="A137" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>1</v>
@@ -76934,7 +76937,7 @@
     </row>
     <row r="138" spans="1:23" ht="17">
       <c r="A138" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>1</v>
@@ -77005,7 +77008,7 @@
     </row>
     <row r="139" spans="1:23" ht="17">
       <c r="A139" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>1</v>
@@ -77076,7 +77079,7 @@
     </row>
     <row r="140" spans="1:23" ht="17">
       <c r="A140" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>1</v>
@@ -77147,7 +77150,7 @@
     </row>
     <row r="141" spans="1:23" ht="17">
       <c r="A141" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1</v>
@@ -77218,7 +77221,7 @@
     </row>
     <row r="142" spans="1:23" ht="17">
       <c r="A142" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
@@ -77289,7 +77292,7 @@
     </row>
     <row r="143" spans="1:23" ht="17">
       <c r="A143" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1</v>
@@ -77360,7 +77363,7 @@
     </row>
     <row r="144" spans="1:23" ht="17">
       <c r="A144" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1</v>
@@ -77431,7 +77434,7 @@
     </row>
     <row r="145" spans="1:23" ht="17">
       <c r="A145" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1</v>
@@ -77502,7 +77505,7 @@
     </row>
     <row r="146" spans="1:23" ht="17">
       <c r="A146" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>1</v>
@@ -77573,7 +77576,7 @@
     </row>
     <row r="147" spans="1:23" ht="17">
       <c r="A147" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>15</v>
@@ -77644,7 +77647,7 @@
     </row>
     <row r="148" spans="1:23" ht="17">
       <c r="A148" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>15</v>
@@ -77715,7 +77718,7 @@
     </row>
     <row r="149" spans="1:23" ht="17">
       <c r="A149" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>15</v>
@@ -77786,7 +77789,7 @@
     </row>
     <row r="150" spans="1:23" ht="17">
       <c r="A150" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>15</v>
@@ -77857,7 +77860,7 @@
     </row>
     <row r="151" spans="1:23" ht="17">
       <c r="A151" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>15</v>
@@ -77928,7 +77931,7 @@
     </row>
     <row r="152" spans="1:23" ht="17">
       <c r="A152" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>15</v>
@@ -77999,7 +78002,7 @@
     </row>
     <row r="153" spans="1:23" ht="17">
       <c r="A153" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>15</v>
@@ -78070,7 +78073,7 @@
     </row>
     <row r="154" spans="1:23" ht="17">
       <c r="A154" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>15</v>
@@ -78141,7 +78144,7 @@
     </row>
     <row r="155" spans="1:23" ht="17">
       <c r="A155" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>15</v>
@@ -78212,7 +78215,7 @@
     </row>
     <row r="156" spans="1:23" ht="17">
       <c r="A156" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>15</v>
@@ -78283,7 +78286,7 @@
     </row>
     <row r="157" spans="1:23" ht="17">
       <c r="A157" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>15</v>
@@ -78354,7 +78357,7 @@
     </row>
     <row r="158" spans="1:23" ht="17">
       <c r="A158" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>15</v>
@@ -78425,7 +78428,7 @@
     </row>
     <row r="159" spans="1:23" ht="17">
       <c r="A159" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>17</v>
@@ -78638,7 +78641,7 @@
     </row>
     <row r="162" spans="1:23" ht="17">
       <c r="A162" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>17</v>
@@ -78709,7 +78712,7 @@
     </row>
     <row r="163" spans="1:23" ht="17">
       <c r="A163" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>17</v>
@@ -78780,7 +78783,7 @@
     </row>
     <row r="164" spans="1:23" ht="17">
       <c r="A164" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>17</v>
@@ -78851,7 +78854,7 @@
     </row>
     <row r="165" spans="1:23" ht="17">
       <c r="A165" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>17</v>
@@ -78922,7 +78925,7 @@
     </row>
     <row r="166" spans="1:23" ht="17">
       <c r="A166" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>17</v>
@@ -78993,7 +78996,7 @@
     </row>
     <row r="167" spans="1:23" ht="17">
       <c r="A167" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>17</v>
@@ -79064,7 +79067,7 @@
     </row>
     <row r="168" spans="1:23" ht="17">
       <c r="A168" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>17</v>
@@ -79135,7 +79138,7 @@
     </row>
     <row r="169" spans="1:23" ht="17">
       <c r="A169" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>17</v>
@@ -79206,7 +79209,7 @@
     </row>
     <row r="170" spans="1:23" ht="17">
       <c r="A170" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>17</v>
@@ -79277,7 +79280,7 @@
     </row>
     <row r="171" spans="1:23" ht="17">
       <c r="A171" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>17</v>
@@ -79348,7 +79351,7 @@
     </row>
     <row r="172" spans="1:23" ht="17">
       <c r="A172" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>17</v>
@@ -79419,7 +79422,7 @@
     </row>
     <row r="173" spans="1:23" ht="17">
       <c r="A173" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>17</v>
@@ -79490,7 +79493,7 @@
     </row>
     <row r="174" spans="1:23" ht="17">
       <c r="A174" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>17</v>
@@ -79561,7 +79564,7 @@
     </row>
     <row r="175" spans="1:23" ht="17">
       <c r="A175" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>17</v>
@@ -79774,7 +79777,7 @@
     </row>
     <row r="178" spans="1:23" ht="17">
       <c r="A178" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>12</v>
@@ -79845,7 +79848,7 @@
     </row>
     <row r="179" spans="1:23" ht="17">
       <c r="A179" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>12</v>
@@ -79916,7 +79919,7 @@
     </row>
     <row r="180" spans="1:23" ht="17">
       <c r="A180" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>12</v>
@@ -79987,7 +79990,7 @@
     </row>
     <row r="181" spans="1:23" ht="17">
       <c r="A181" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>12</v>
@@ -80058,7 +80061,7 @@
     </row>
     <row r="182" spans="1:23" ht="17">
       <c r="A182" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>12</v>
@@ -80129,7 +80132,7 @@
     </row>
     <row r="183" spans="1:23" ht="17">
       <c r="A183" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>12</v>
@@ -80200,7 +80203,7 @@
     </row>
     <row r="184" spans="1:23" ht="17">
       <c r="A184" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>12</v>
@@ -80271,7 +80274,7 @@
     </row>
     <row r="185" spans="1:23" ht="17">
       <c r="A185" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>12</v>
@@ -80342,7 +80345,7 @@
     </row>
     <row r="186" spans="1:23" ht="17">
       <c r="A186" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>12</v>
@@ -80413,7 +80416,7 @@
     </row>
     <row r="187" spans="1:23" ht="17">
       <c r="A187" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>12</v>
@@ -80484,7 +80487,7 @@
     </row>
     <row r="188" spans="1:23" ht="17">
       <c r="A188" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>12</v>
@@ -80555,7 +80558,7 @@
     </row>
     <row r="189" spans="1:23" ht="17">
       <c r="A189" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>12</v>
@@ -80626,7 +80629,7 @@
     </row>
     <row r="190" spans="1:23" ht="17">
       <c r="A190" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>12</v>
@@ -80910,7 +80913,7 @@
     </row>
     <row r="194" spans="1:23" ht="17">
       <c r="A194" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>4</v>
@@ -80981,7 +80984,7 @@
     </row>
     <row r="195" spans="1:23" ht="17">
       <c r="A195" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>4</v>
@@ -81052,7 +81055,7 @@
     </row>
     <row r="196" spans="1:23" ht="17">
       <c r="A196" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>4</v>
@@ -81123,7 +81126,7 @@
     </row>
     <row r="197" spans="1:23" ht="17">
       <c r="A197" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>4</v>
@@ -81194,7 +81197,7 @@
     </row>
     <row r="198" spans="1:23" ht="17">
       <c r="A198" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>4</v>
@@ -81265,7 +81268,7 @@
     </row>
     <row r="199" spans="1:23" ht="17">
       <c r="A199" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>4</v>
@@ -81336,7 +81339,7 @@
     </row>
     <row r="200" spans="1:23" ht="17">
       <c r="A200" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>4</v>
@@ -81407,7 +81410,7 @@
     </row>
     <row r="201" spans="1:23" ht="17">
       <c r="A201" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>4</v>
@@ -81478,7 +81481,7 @@
     </row>
     <row r="202" spans="1:23" ht="17">
       <c r="A202" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>4</v>
@@ -81549,7 +81552,7 @@
     </row>
     <row r="203" spans="1:23" ht="17">
       <c r="A203" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>4</v>
@@ -81620,7 +81623,7 @@
     </row>
     <row r="204" spans="1:23" ht="17">
       <c r="A204" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>4</v>
@@ -81691,7 +81694,7 @@
     </row>
     <row r="205" spans="1:23" ht="17">
       <c r="A205" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>4</v>
@@ -81762,7 +81765,7 @@
     </row>
     <row r="206" spans="1:23" ht="17">
       <c r="A206" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>4</v>
@@ -81833,7 +81836,7 @@
     </row>
     <row r="207" spans="1:23" ht="17">
       <c r="A207" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>4</v>
@@ -81904,7 +81907,7 @@
     </row>
     <row r="208" spans="1:23" ht="17">
       <c r="A208" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>4</v>
@@ -81975,7 +81978,7 @@
     </row>
     <row r="209" spans="1:23" ht="17">
       <c r="A209" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>4</v>
@@ -82046,7 +82049,7 @@
     </row>
     <row r="210" spans="1:23" ht="17">
       <c r="A210" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>4</v>
@@ -82117,7 +82120,7 @@
     </row>
     <row r="211" spans="1:23" ht="17">
       <c r="A211" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>4</v>
@@ -82188,7 +82191,7 @@
     </row>
     <row r="212" spans="1:23" ht="17">
       <c r="A212" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>4</v>
@@ -82259,7 +82262,7 @@
     </row>
     <row r="213" spans="1:23" ht="17">
       <c r="A213" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>4</v>
@@ -82330,7 +82333,7 @@
     </row>
     <row r="214" spans="1:23" ht="17">
       <c r="A214" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>4</v>
@@ -82401,7 +82404,7 @@
     </row>
     <row r="215" spans="1:23" ht="17">
       <c r="A215" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -82472,7 +82475,7 @@
     </row>
     <row r="216" spans="1:23" ht="17">
       <c r="A216" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>4</v>
@@ -82543,7 +82546,7 @@
     </row>
     <row r="217" spans="1:23" ht="17">
       <c r="A217" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>7</v>
@@ -82685,7 +82688,7 @@
     </row>
     <row r="219" spans="1:23" ht="17">
       <c r="A219" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>7</v>
@@ -82756,7 +82759,7 @@
     </row>
     <row r="220" spans="1:23" ht="17">
       <c r="A220" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>7</v>
@@ -82827,7 +82830,7 @@
     </row>
     <row r="221" spans="1:23" ht="17">
       <c r="A221" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>7</v>
@@ -82898,7 +82901,7 @@
     </row>
     <row r="222" spans="1:23" ht="17">
       <c r="A222" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>7</v>
@@ -82969,7 +82972,7 @@
     </row>
     <row r="223" spans="1:23" ht="17">
       <c r="A223" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>7</v>
@@ -83040,7 +83043,7 @@
     </row>
     <row r="224" spans="1:23" ht="17">
       <c r="A224" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>7</v>
@@ -83111,7 +83114,7 @@
     </row>
     <row r="225" spans="1:23" ht="17">
       <c r="A225" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>7</v>
@@ -83182,7 +83185,7 @@
     </row>
     <row r="226" spans="1:23" ht="17">
       <c r="A226" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>7</v>
@@ -83253,7 +83256,7 @@
     </row>
     <row r="227" spans="1:23" ht="17">
       <c r="A227" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>7</v>
@@ -83324,7 +83327,7 @@
     </row>
     <row r="228" spans="1:23" ht="17">
       <c r="A228" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>7</v>
@@ -83395,7 +83398,7 @@
     </row>
     <row r="229" spans="1:23" ht="17">
       <c r="A229" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>7</v>
@@ -83466,7 +83469,7 @@
     </row>
     <row r="230" spans="1:23" ht="17">
       <c r="A230" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>7</v>
@@ -83537,7 +83540,7 @@
     </row>
     <row r="231" spans="1:23" ht="17">
       <c r="A231" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>7</v>
@@ -83608,7 +83611,7 @@
     </row>
     <row r="232" spans="1:23" ht="17">
       <c r="A232" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>7</v>

--- a/data/espn_rugby_data.xlsx
+++ b/data/espn_rugby_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurapallett/Desktop/fantasy_rugby/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurapallett/Documents/espn_fantasy_rugby/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C672288F-6DA2-3D4E-A501-31BE398BDE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1755F742-59B3-2D4F-AE8C-BFBFEECA4B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{F4E93FC6-B9F6-D143-A36F-47FE27FE8D7F}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" activeTab="1" xr2:uid="{F4E93FC6-B9F6-D143-A36F-47FE27FE8D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="round1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="267">
   <si>
     <t>O Farrell</t>
   </si>
@@ -280,9 +280,6 @@
     <t>L Morisi</t>
   </si>
   <si>
-    <t>P O’Mahony</t>
-  </si>
-  <si>
     <t>D Biggar</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>N Hughes</t>
   </si>
   <si>
-    <t>L Cowan-Dickie</t>
-  </si>
-  <si>
     <t>C Traore</t>
   </si>
   <si>
@@ -617,9 +611,6 @@
   </si>
   <si>
     <t>A Davies</t>
-  </si>
-  <si>
-    <t>B Te'o</t>
   </si>
   <si>
     <t>D Cole</t>
@@ -817,9 +808,6 @@
     <t>N Isiekwe</t>
   </si>
   <si>
-    <t>Z. Fagerson</t>
-  </si>
-  <si>
     <t>M McCallum</t>
   </si>
   <si>
@@ -833,6 +821,21 @@
   </si>
   <si>
     <t>ROUND</t>
+  </si>
+  <si>
+    <t>P OMahony</t>
+  </si>
+  <si>
+    <t>L Cowan Dickie</t>
+  </si>
+  <si>
+    <t>B Teo</t>
+  </si>
+  <si>
+    <t>Z Fagerson</t>
+  </si>
+  <si>
+    <t>S OBrien</t>
   </si>
 </sst>
 </file>
@@ -1223,12 +1226,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F97981-5D51-8D49-B1FC-CA5460516FF6}">
   <dimension ref="A1:W232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J206" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W232"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1240,13 +1244,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F1" s="1">
         <v>2018</v>
@@ -1300,7 +1304,7 @@
         <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17">
@@ -4216,7 +4220,7 @@
     </row>
     <row r="43" spans="1:23" ht="17">
       <c r="A43" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>1</v>
@@ -4287,7 +4291,7 @@
     </row>
     <row r="44" spans="1:23" ht="17">
       <c r="A44" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>15</v>
@@ -4429,7 +4433,7 @@
     </row>
     <row r="46" spans="1:23" ht="17">
       <c r="A46" s="3" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -4500,7 +4504,7 @@
     </row>
     <row r="47" spans="1:23" ht="17">
       <c r="A47" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>17</v>
@@ -4713,7 +4717,7 @@
     </row>
     <row r="50" spans="1:23" ht="17">
       <c r="A50" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
@@ -4784,7 +4788,7 @@
     </row>
     <row r="51" spans="1:23" ht="17">
       <c r="A51" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
@@ -4855,7 +4859,7 @@
     </row>
     <row r="52" spans="1:23" ht="17">
       <c r="A52" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
@@ -4926,7 +4930,7 @@
     </row>
     <row r="53" spans="1:23" ht="17">
       <c r="A53" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
@@ -5068,7 +5072,7 @@
     </row>
     <row r="55" spans="1:23" ht="17">
       <c r="A55" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>4</v>
@@ -5139,7 +5143,7 @@
     </row>
     <row r="56" spans="1:23" ht="17">
       <c r="A56" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>4</v>
@@ -5210,7 +5214,7 @@
     </row>
     <row r="57" spans="1:23" ht="17">
       <c r="A57" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>4</v>
@@ -5352,7 +5356,7 @@
     </row>
     <row r="59" spans="1:23" ht="17">
       <c r="A59" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>7</v>
@@ -5423,7 +5427,7 @@
     </row>
     <row r="60" spans="1:23" ht="17">
       <c r="A60" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>7</v>
@@ -5494,7 +5498,7 @@
     </row>
     <row r="61" spans="1:23" ht="17">
       <c r="A61" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>7</v>
@@ -5565,7 +5569,7 @@
     </row>
     <row r="62" spans="1:23" ht="17">
       <c r="A62" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>1</v>
@@ -5636,7 +5640,7 @@
     </row>
     <row r="63" spans="1:23" ht="17">
       <c r="A63" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>1</v>
@@ -5707,7 +5711,7 @@
     </row>
     <row r="64" spans="1:23" ht="17">
       <c r="A64" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1</v>
@@ -5778,7 +5782,7 @@
     </row>
     <row r="65" spans="1:23" ht="17">
       <c r="A65" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>1</v>
@@ -5920,7 +5924,7 @@
     </row>
     <row r="67" spans="1:23" ht="17">
       <c r="A67" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>15</v>
@@ -5991,7 +5995,7 @@
     </row>
     <row r="68" spans="1:23" ht="17">
       <c r="A68" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>15</v>
@@ -6062,7 +6066,7 @@
     </row>
     <row r="69" spans="1:23" ht="17">
       <c r="A69" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>15</v>
@@ -6133,7 +6137,7 @@
     </row>
     <row r="70" spans="1:23" ht="17">
       <c r="A70" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>15</v>
@@ -6204,7 +6208,7 @@
     </row>
     <row r="71" spans="1:23" ht="17">
       <c r="A71" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>15</v>
@@ -6275,7 +6279,7 @@
     </row>
     <row r="72" spans="1:23" ht="17">
       <c r="A72" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>15</v>
@@ -6346,7 +6350,7 @@
     </row>
     <row r="73" spans="1:23" ht="17">
       <c r="A73" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>15</v>
@@ -6417,7 +6421,7 @@
     </row>
     <row r="74" spans="1:23" ht="17">
       <c r="A74" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>17</v>
@@ -6488,7 +6492,7 @@
     </row>
     <row r="75" spans="1:23" ht="17">
       <c r="A75" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>17</v>
@@ -6559,7 +6563,7 @@
     </row>
     <row r="76" spans="1:23" ht="17">
       <c r="A76" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>17</v>
@@ -6630,7 +6634,7 @@
     </row>
     <row r="77" spans="1:23" ht="17">
       <c r="A77" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>17</v>
@@ -6701,7 +6705,7 @@
     </row>
     <row r="78" spans="1:23" ht="17">
       <c r="A78" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>17</v>
@@ -6772,7 +6776,7 @@
     </row>
     <row r="79" spans="1:23" ht="17">
       <c r="A79" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>17</v>
@@ -6843,7 +6847,7 @@
     </row>
     <row r="80" spans="1:23" ht="17">
       <c r="A80" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>12</v>
@@ -6914,7 +6918,7 @@
     </row>
     <row r="81" spans="1:23" ht="17">
       <c r="A81" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>12</v>
@@ -6985,7 +6989,7 @@
     </row>
     <row r="82" spans="1:23" ht="17">
       <c r="A82" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>4</v>
@@ -7056,7 +7060,7 @@
     </row>
     <row r="83" spans="1:23" ht="17">
       <c r="A83" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>7</v>
@@ -7127,7 +7131,7 @@
     </row>
     <row r="84" spans="1:23" ht="17">
       <c r="A84" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>7</v>
@@ -7198,7 +7202,7 @@
     </row>
     <row r="85" spans="1:23" ht="17">
       <c r="A85" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>7</v>
@@ -7269,7 +7273,7 @@
     </row>
     <row r="86" spans="1:23" ht="17">
       <c r="A86" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>7</v>
@@ -7340,7 +7344,7 @@
     </row>
     <row r="87" spans="1:23" ht="17">
       <c r="A87" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>7</v>
@@ -7411,7 +7415,7 @@
     </row>
     <row r="88" spans="1:23" ht="17">
       <c r="A88" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>7</v>
@@ -7482,7 +7486,7 @@
     </row>
     <row r="89" spans="1:23" ht="17">
       <c r="A89" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>7</v>
@@ -7553,7 +7557,7 @@
     </row>
     <row r="90" spans="1:23" ht="17">
       <c r="A90" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1</v>
@@ -7624,7 +7628,7 @@
     </row>
     <row r="91" spans="1:23" ht="17">
       <c r="A91" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1</v>
@@ -7695,7 +7699,7 @@
     </row>
     <row r="92" spans="1:23" ht="17">
       <c r="A92" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>1</v>
@@ -7766,7 +7770,7 @@
     </row>
     <row r="93" spans="1:23" ht="17">
       <c r="A93" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>15</v>
@@ -7837,7 +7841,7 @@
     </row>
     <row r="94" spans="1:23" ht="17">
       <c r="A94" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>15</v>
@@ -7979,7 +7983,7 @@
     </row>
     <row r="96" spans="1:23" ht="17">
       <c r="A96" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>17</v>
@@ -8050,7 +8054,7 @@
     </row>
     <row r="97" spans="1:23" ht="17">
       <c r="A97" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>17</v>
@@ -8121,7 +8125,7 @@
     </row>
     <row r="98" spans="1:23" ht="17">
       <c r="A98" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>4</v>
@@ -8192,7 +8196,7 @@
     </row>
     <row r="99" spans="1:23" ht="17">
       <c r="A99" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>4</v>
@@ -8263,7 +8267,7 @@
     </row>
     <row r="100" spans="1:23" ht="17">
       <c r="A100" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>4</v>
@@ -8334,7 +8338,7 @@
     </row>
     <row r="101" spans="1:23" ht="17">
       <c r="A101" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>4</v>
@@ -8405,7 +8409,7 @@
     </row>
     <row r="102" spans="1:23" ht="17">
       <c r="A102" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>4</v>
@@ -8476,7 +8480,7 @@
     </row>
     <row r="103" spans="1:23" ht="17">
       <c r="A103" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>7</v>
@@ -8547,7 +8551,7 @@
     </row>
     <row r="104" spans="1:23" ht="17">
       <c r="A104" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>7</v>
@@ -8618,7 +8622,7 @@
     </row>
     <row r="105" spans="1:23" ht="17">
       <c r="A105" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>7</v>
@@ -8689,7 +8693,7 @@
     </row>
     <row r="106" spans="1:23" ht="17">
       <c r="A106" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>7</v>
@@ -8760,7 +8764,7 @@
     </row>
     <row r="107" spans="1:23" ht="17">
       <c r="A107" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>1</v>
@@ -8831,7 +8835,7 @@
     </row>
     <row r="108" spans="1:23" ht="17">
       <c r="A108" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>1</v>
@@ -8902,7 +8906,7 @@
     </row>
     <row r="109" spans="1:23" ht="17">
       <c r="A109" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>1</v>
@@ -8973,7 +8977,7 @@
     </row>
     <row r="110" spans="1:23" ht="17">
       <c r="A110" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>1</v>
@@ -9044,7 +9048,7 @@
     </row>
     <row r="111" spans="1:23" ht="17">
       <c r="A111" s="3" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>1</v>
@@ -9186,7 +9190,7 @@
     </row>
     <row r="113" spans="1:23" ht="17">
       <c r="A113" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>15</v>
@@ -9257,7 +9261,7 @@
     </row>
     <row r="114" spans="1:23" ht="17">
       <c r="A114" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>15</v>
@@ -9328,7 +9332,7 @@
     </row>
     <row r="115" spans="1:23" ht="17">
       <c r="A115" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>15</v>
@@ -9399,7 +9403,7 @@
     </row>
     <row r="116" spans="1:23" ht="17">
       <c r="A116" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>15</v>
@@ -9470,7 +9474,7 @@
     </row>
     <row r="117" spans="1:23" ht="17">
       <c r="A117" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>15</v>
@@ -9541,7 +9545,7 @@
     </row>
     <row r="118" spans="1:23" ht="17">
       <c r="A118" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>15</v>
@@ -9612,7 +9616,7 @@
     </row>
     <row r="119" spans="1:23" ht="17">
       <c r="A119" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>17</v>
@@ -9683,7 +9687,7 @@
     </row>
     <row r="120" spans="1:23" ht="17">
       <c r="A120" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>17</v>
@@ -9754,7 +9758,7 @@
     </row>
     <row r="121" spans="1:23" ht="17">
       <c r="A121" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>17</v>
@@ -9825,7 +9829,7 @@
     </row>
     <row r="122" spans="1:23" ht="17">
       <c r="A122" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>17</v>
@@ -9896,7 +9900,7 @@
     </row>
     <row r="123" spans="1:23" ht="17">
       <c r="A123" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>17</v>
@@ -9967,7 +9971,7 @@
     </row>
     <row r="124" spans="1:23" ht="17">
       <c r="A124" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>12</v>
@@ -10038,7 +10042,7 @@
     </row>
     <row r="125" spans="1:23" ht="17">
       <c r="A125" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>12</v>
@@ -10109,7 +10113,7 @@
     </row>
     <row r="126" spans="1:23" ht="17">
       <c r="A126" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>12</v>
@@ -10180,7 +10184,7 @@
     </row>
     <row r="127" spans="1:23" ht="17">
       <c r="A127" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>12</v>
@@ -10251,7 +10255,7 @@
     </row>
     <row r="128" spans="1:23" ht="17">
       <c r="A128" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>12</v>
@@ -10322,7 +10326,7 @@
     </row>
     <row r="129" spans="1:23" ht="17">
       <c r="A129" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>12</v>
@@ -10393,7 +10397,7 @@
     </row>
     <row r="130" spans="1:23" ht="17">
       <c r="A130" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>4</v>
@@ -10464,7 +10468,7 @@
     </row>
     <row r="131" spans="1:23" ht="17">
       <c r="A131" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>4</v>
@@ -10535,7 +10539,7 @@
     </row>
     <row r="132" spans="1:23" ht="17">
       <c r="A132" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>4</v>
@@ -10606,7 +10610,7 @@
     </row>
     <row r="133" spans="1:23" ht="17">
       <c r="A133" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>7</v>
@@ -10677,7 +10681,7 @@
     </row>
     <row r="134" spans="1:23" ht="17">
       <c r="A134" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>1</v>
@@ -10748,7 +10752,7 @@
     </row>
     <row r="135" spans="1:23" ht="17">
       <c r="A135" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>1</v>
@@ -10819,7 +10823,7 @@
     </row>
     <row r="136" spans="1:23" ht="17">
       <c r="A136" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>1</v>
@@ -10890,7 +10894,7 @@
     </row>
     <row r="137" spans="1:23" ht="17">
       <c r="A137" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>1</v>
@@ -10961,7 +10965,7 @@
     </row>
     <row r="138" spans="1:23" ht="17">
       <c r="A138" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>1</v>
@@ -11032,7 +11036,7 @@
     </row>
     <row r="139" spans="1:23" ht="17">
       <c r="A139" s="3" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>1</v>
@@ -11103,7 +11107,7 @@
     </row>
     <row r="140" spans="1:23" ht="17">
       <c r="A140" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>1</v>
@@ -11174,7 +11178,7 @@
     </row>
     <row r="141" spans="1:23" ht="17">
       <c r="A141" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1</v>
@@ -11245,7 +11249,7 @@
     </row>
     <row r="142" spans="1:23" ht="17">
       <c r="A142" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
@@ -11316,7 +11320,7 @@
     </row>
     <row r="143" spans="1:23" ht="17">
       <c r="A143" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1</v>
@@ -11387,7 +11391,7 @@
     </row>
     <row r="144" spans="1:23" ht="17">
       <c r="A144" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1</v>
@@ -11458,7 +11462,7 @@
     </row>
     <row r="145" spans="1:23" ht="17">
       <c r="A145" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1</v>
@@ -11529,7 +11533,7 @@
     </row>
     <row r="146" spans="1:23" ht="17">
       <c r="A146" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>1</v>
@@ -11600,7 +11604,7 @@
     </row>
     <row r="147" spans="1:23" ht="17">
       <c r="A147" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>1</v>
@@ -11671,7 +11675,7 @@
     </row>
     <row r="148" spans="1:23" ht="17">
       <c r="A148" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>1</v>
@@ -11742,7 +11746,7 @@
     </row>
     <row r="149" spans="1:23" ht="17">
       <c r="A149" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>15</v>
@@ -11813,7 +11817,7 @@
     </row>
     <row r="150" spans="1:23" ht="17">
       <c r="A150" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>15</v>
@@ -11884,7 +11888,7 @@
     </row>
     <row r="151" spans="1:23" ht="17">
       <c r="A151" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>15</v>
@@ -11955,7 +11959,7 @@
     </row>
     <row r="152" spans="1:23" ht="17">
       <c r="A152" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>15</v>
@@ -12026,7 +12030,7 @@
     </row>
     <row r="153" spans="1:23" ht="17">
       <c r="A153" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>15</v>
@@ -12097,7 +12101,7 @@
     </row>
     <row r="154" spans="1:23" ht="17">
       <c r="A154" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>15</v>
@@ -12168,7 +12172,7 @@
     </row>
     <row r="155" spans="1:23" ht="17">
       <c r="A155" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>15</v>
@@ -12239,7 +12243,7 @@
     </row>
     <row r="156" spans="1:23" ht="17">
       <c r="A156" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>15</v>
@@ -12310,7 +12314,7 @@
     </row>
     <row r="157" spans="1:23" ht="17">
       <c r="A157" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>15</v>
@@ -12381,7 +12385,7 @@
     </row>
     <row r="158" spans="1:23" ht="17">
       <c r="A158" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>15</v>
@@ -12452,7 +12456,7 @@
     </row>
     <row r="159" spans="1:23" ht="17">
       <c r="A159" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>17</v>
@@ -12523,7 +12527,7 @@
     </row>
     <row r="160" spans="1:23" ht="17">
       <c r="A160" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>17</v>
@@ -12594,7 +12598,7 @@
     </row>
     <row r="161" spans="1:23" ht="17">
       <c r="A161" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>17</v>
@@ -12665,7 +12669,7 @@
     </row>
     <row r="162" spans="1:23" ht="17">
       <c r="A162" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>17</v>
@@ -12736,7 +12740,7 @@
     </row>
     <row r="163" spans="1:23" ht="17">
       <c r="A163" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>17</v>
@@ -12807,7 +12811,7 @@
     </row>
     <row r="164" spans="1:23" ht="17">
       <c r="A164" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>17</v>
@@ -12878,7 +12882,7 @@
     </row>
     <row r="165" spans="1:23" ht="17">
       <c r="A165" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>17</v>
@@ -12949,7 +12953,7 @@
     </row>
     <row r="166" spans="1:23" ht="17">
       <c r="A166" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>17</v>
@@ -13020,7 +13024,7 @@
     </row>
     <row r="167" spans="1:23" ht="17">
       <c r="A167" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>17</v>
@@ -13091,7 +13095,7 @@
     </row>
     <row r="168" spans="1:23" ht="17">
       <c r="A168" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>17</v>
@@ -13162,7 +13166,7 @@
     </row>
     <row r="169" spans="1:23" ht="17">
       <c r="A169" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>17</v>
@@ -13233,7 +13237,7 @@
     </row>
     <row r="170" spans="1:23" ht="17">
       <c r="A170" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>17</v>
@@ -13304,7 +13308,7 @@
     </row>
     <row r="171" spans="1:23" ht="17">
       <c r="A171" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>17</v>
@@ -13375,7 +13379,7 @@
     </row>
     <row r="172" spans="1:23" ht="17">
       <c r="A172" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>17</v>
@@ -13446,7 +13450,7 @@
     </row>
     <row r="173" spans="1:23" ht="17">
       <c r="A173" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>17</v>
@@ -13517,7 +13521,7 @@
     </row>
     <row r="174" spans="1:23" ht="17">
       <c r="A174" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>17</v>
@@ -13588,7 +13592,7 @@
     </row>
     <row r="175" spans="1:23" ht="17">
       <c r="A175" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>17</v>
@@ -13659,7 +13663,7 @@
     </row>
     <row r="176" spans="1:23" ht="17">
       <c r="A176" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>12</v>
@@ -13730,7 +13734,7 @@
     </row>
     <row r="177" spans="1:23" ht="17">
       <c r="A177" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>12</v>
@@ -13801,7 +13805,7 @@
     </row>
     <row r="178" spans="1:23" ht="17">
       <c r="A178" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>12</v>
@@ -13872,7 +13876,7 @@
     </row>
     <row r="179" spans="1:23" ht="17">
       <c r="A179" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>12</v>
@@ -13943,7 +13947,7 @@
     </row>
     <row r="180" spans="1:23" ht="17">
       <c r="A180" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>12</v>
@@ -14014,7 +14018,7 @@
     </row>
     <row r="181" spans="1:23" ht="17">
       <c r="A181" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>12</v>
@@ -14085,7 +14089,7 @@
     </row>
     <row r="182" spans="1:23" ht="17">
       <c r="A182" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>12</v>
@@ -14156,7 +14160,7 @@
     </row>
     <row r="183" spans="1:23" ht="17">
       <c r="A183" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>12</v>
@@ -14227,7 +14231,7 @@
     </row>
     <row r="184" spans="1:23" ht="17">
       <c r="A184" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>12</v>
@@ -14298,7 +14302,7 @@
     </row>
     <row r="185" spans="1:23" ht="17">
       <c r="A185" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>12</v>
@@ -14369,7 +14373,7 @@
     </row>
     <row r="186" spans="1:23" ht="17">
       <c r="A186" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>12</v>
@@ -14440,7 +14444,7 @@
     </row>
     <row r="187" spans="1:23" ht="17">
       <c r="A187" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>12</v>
@@ -14511,7 +14515,7 @@
     </row>
     <row r="188" spans="1:23" ht="17">
       <c r="A188" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>12</v>
@@ -14582,7 +14586,7 @@
     </row>
     <row r="189" spans="1:23" ht="17">
       <c r="A189" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>4</v>
@@ -14653,7 +14657,7 @@
     </row>
     <row r="190" spans="1:23" ht="17">
       <c r="A190" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>4</v>
@@ -14724,7 +14728,7 @@
     </row>
     <row r="191" spans="1:23" ht="17">
       <c r="A191" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>4</v>
@@ -14795,7 +14799,7 @@
     </row>
     <row r="192" spans="1:23" ht="17">
       <c r="A192" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>4</v>
@@ -14866,7 +14870,7 @@
     </row>
     <row r="193" spans="1:23" ht="17">
       <c r="A193" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>4</v>
@@ -14937,7 +14941,7 @@
     </row>
     <row r="194" spans="1:23" ht="17">
       <c r="A194" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>4</v>
@@ -15008,7 +15012,7 @@
     </row>
     <row r="195" spans="1:23" ht="17">
       <c r="A195" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>4</v>
@@ -15079,7 +15083,7 @@
     </row>
     <row r="196" spans="1:23" ht="17">
       <c r="A196" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>4</v>
@@ -15150,7 +15154,7 @@
     </row>
     <row r="197" spans="1:23" ht="17">
       <c r="A197" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>4</v>
@@ -15221,7 +15225,7 @@
     </row>
     <row r="198" spans="1:23" ht="17">
       <c r="A198" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>4</v>
@@ -15292,7 +15296,7 @@
     </row>
     <row r="199" spans="1:23" ht="17">
       <c r="A199" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>4</v>
@@ -15363,7 +15367,7 @@
     </row>
     <row r="200" spans="1:23" ht="17">
       <c r="A200" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>4</v>
@@ -15434,7 +15438,7 @@
     </row>
     <row r="201" spans="1:23" ht="17">
       <c r="A201" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>4</v>
@@ -15505,7 +15509,7 @@
     </row>
     <row r="202" spans="1:23" ht="17">
       <c r="A202" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>4</v>
@@ -15576,7 +15580,7 @@
     </row>
     <row r="203" spans="1:23" ht="17">
       <c r="A203" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>4</v>
@@ -15647,7 +15651,7 @@
     </row>
     <row r="204" spans="1:23" ht="17">
       <c r="A204" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>4</v>
@@ -15718,7 +15722,7 @@
     </row>
     <row r="205" spans="1:23" ht="17">
       <c r="A205" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>4</v>
@@ -15789,7 +15793,7 @@
     </row>
     <row r="206" spans="1:23" ht="17">
       <c r="A206" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>4</v>
@@ -15860,7 +15864,7 @@
     </row>
     <row r="207" spans="1:23" ht="17">
       <c r="A207" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>4</v>
@@ -15931,7 +15935,7 @@
     </row>
     <row r="208" spans="1:23" ht="17">
       <c r="A208" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>4</v>
@@ -16002,7 +16006,7 @@
     </row>
     <row r="209" spans="1:23" ht="17">
       <c r="A209" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>4</v>
@@ -16073,7 +16077,7 @@
     </row>
     <row r="210" spans="1:23" ht="17">
       <c r="A210" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>4</v>
@@ -16144,7 +16148,7 @@
     </row>
     <row r="211" spans="1:23" ht="17">
       <c r="A211" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>4</v>
@@ -16215,7 +16219,7 @@
     </row>
     <row r="212" spans="1:23" ht="17">
       <c r="A212" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>4</v>
@@ -16286,7 +16290,7 @@
     </row>
     <row r="213" spans="1:23" ht="17">
       <c r="A213" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>4</v>
@@ -16357,7 +16361,7 @@
     </row>
     <row r="214" spans="1:23" ht="17">
       <c r="A214" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>4</v>
@@ -16428,7 +16432,7 @@
     </row>
     <row r="215" spans="1:23" ht="17">
       <c r="A215" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -16499,7 +16503,7 @@
     </row>
     <row r="216" spans="1:23" ht="17">
       <c r="A216" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>7</v>
@@ -16570,7 +16574,7 @@
     </row>
     <row r="217" spans="1:23" ht="17">
       <c r="A217" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>7</v>
@@ -16641,7 +16645,7 @@
     </row>
     <row r="218" spans="1:23" ht="17">
       <c r="A218" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>7</v>
@@ -16712,7 +16716,7 @@
     </row>
     <row r="219" spans="1:23" ht="17">
       <c r="A219" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>7</v>
@@ -16783,7 +16787,7 @@
     </row>
     <row r="220" spans="1:23" ht="17">
       <c r="A220" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>7</v>
@@ -16854,7 +16858,7 @@
     </row>
     <row r="221" spans="1:23" ht="17">
       <c r="A221" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>7</v>
@@ -16925,7 +16929,7 @@
     </row>
     <row r="222" spans="1:23" ht="17">
       <c r="A222" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>7</v>
@@ -16996,7 +17000,7 @@
     </row>
     <row r="223" spans="1:23" ht="17">
       <c r="A223" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>7</v>
@@ -17067,7 +17071,7 @@
     </row>
     <row r="224" spans="1:23" ht="17">
       <c r="A224" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>7</v>
@@ -17138,7 +17142,7 @@
     </row>
     <row r="225" spans="1:23" ht="17">
       <c r="A225" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>7</v>
@@ -17209,7 +17213,7 @@
     </row>
     <row r="226" spans="1:23" ht="17">
       <c r="A226" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>7</v>
@@ -17280,7 +17284,7 @@
     </row>
     <row r="227" spans="1:23" ht="17">
       <c r="A227" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>7</v>
@@ -17351,7 +17355,7 @@
     </row>
     <row r="228" spans="1:23" ht="17">
       <c r="A228" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>7</v>
@@ -17422,7 +17426,7 @@
     </row>
     <row r="229" spans="1:23" ht="17">
       <c r="A229" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>7</v>
@@ -17493,7 +17497,7 @@
     </row>
     <row r="230" spans="1:23" ht="17">
       <c r="A230" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>7</v>
@@ -17564,7 +17568,7 @@
     </row>
     <row r="231" spans="1:23" ht="17">
       <c r="A231" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>7</v>
@@ -17635,7 +17639,7 @@
     </row>
     <row r="232" spans="1:23" ht="17">
       <c r="A232" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>7</v>
@@ -17716,11 +17720,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93910695-16D6-D24B-9285-A04402E2D69C}">
   <dimension ref="A1:W232"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W232"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
@@ -17730,13 +17737,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F1" s="1">
         <v>2018</v>
@@ -17790,7 +17797,7 @@
         <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17">
@@ -18079,7 +18086,7 @@
     </row>
     <row r="6" spans="1:23" ht="17">
       <c r="A6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -18221,7 +18228,7 @@
     </row>
     <row r="8" spans="1:23" ht="17">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
@@ -18292,7 +18299,7 @@
     </row>
     <row r="9" spans="1:23" ht="17">
       <c r="A9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -18434,7 +18441,7 @@
     </row>
     <row r="11" spans="1:23" ht="17">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -18647,7 +18654,7 @@
     </row>
     <row r="14" spans="1:23" ht="17">
       <c r="A14" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -18718,7 +18725,7 @@
     </row>
     <row r="15" spans="1:23" ht="17">
       <c r="A15" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1</v>
@@ -18860,7 +18867,7 @@
     </row>
     <row r="17" spans="1:23" ht="17">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -19215,7 +19222,7 @@
     </row>
     <row r="22" spans="1:23" ht="17">
       <c r="A22" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
@@ -19286,7 +19293,7 @@
     </row>
     <row r="23" spans="1:23" ht="17">
       <c r="A23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
@@ -19499,7 +19506,7 @@
     </row>
     <row r="26" spans="1:23" ht="17">
       <c r="A26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
@@ -19641,7 +19648,7 @@
     </row>
     <row r="28" spans="1:23" ht="17">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>4</v>
@@ -19996,7 +20003,7 @@
     </row>
     <row r="33" spans="1:23" ht="17">
       <c r="A33" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1</v>
@@ -20067,7 +20074,7 @@
     </row>
     <row r="34" spans="1:23" ht="17">
       <c r="A34" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1</v>
@@ -20351,7 +20358,7 @@
     </row>
     <row r="38" spans="1:23" ht="17">
       <c r="A38" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>17</v>
@@ -20422,7 +20429,7 @@
     </row>
     <row r="39" spans="1:23" ht="17">
       <c r="A39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
@@ -20635,7 +20642,7 @@
     </row>
     <row r="42" spans="1:23" ht="17">
       <c r="A42" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>7</v>
@@ -20919,7 +20926,7 @@
     </row>
     <row r="46" spans="1:23" ht="17">
       <c r="A46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -20990,7 +20997,7 @@
     </row>
     <row r="47" spans="1:23" ht="17">
       <c r="A47" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>17</v>
@@ -21345,7 +21352,7 @@
     </row>
     <row r="52" spans="1:23" ht="17">
       <c r="A52" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>7</v>
@@ -21416,7 +21423,7 @@
     </row>
     <row r="53" spans="1:23" ht="17">
       <c r="A53" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>7</v>
@@ -21558,7 +21565,7 @@
     </row>
     <row r="55" spans="1:23" ht="17">
       <c r="A55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>1</v>
@@ -21629,7 +21636,7 @@
     </row>
     <row r="56" spans="1:23" ht="17">
       <c r="A56" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>1</v>
@@ -21700,7 +21707,7 @@
     </row>
     <row r="57" spans="1:23" ht="17">
       <c r="A57" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>1</v>
@@ -21771,7 +21778,7 @@
     </row>
     <row r="58" spans="1:23" ht="17">
       <c r="A58" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>15</v>
@@ -21842,7 +21849,7 @@
     </row>
     <row r="59" spans="1:23" ht="17">
       <c r="A59" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>15</v>
@@ -21913,7 +21920,7 @@
     </row>
     <row r="60" spans="1:23" ht="17">
       <c r="A60" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>15</v>
@@ -21984,7 +21991,7 @@
     </row>
     <row r="61" spans="1:23" ht="17">
       <c r="A61" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>15</v>
@@ -22055,7 +22062,7 @@
     </row>
     <row r="62" spans="1:23" ht="17">
       <c r="A62" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>15</v>
@@ -22126,7 +22133,7 @@
     </row>
     <row r="63" spans="1:23" ht="17">
       <c r="A63" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>15</v>
@@ -22197,7 +22204,7 @@
     </row>
     <row r="64" spans="1:23" ht="17">
       <c r="A64" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>15</v>
@@ -22339,7 +22346,7 @@
     </row>
     <row r="66" spans="1:23" ht="17">
       <c r="A66" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>15</v>
@@ -22410,7 +22417,7 @@
     </row>
     <row r="67" spans="1:23" ht="17">
       <c r="A67" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>15</v>
@@ -22481,7 +22488,7 @@
     </row>
     <row r="68" spans="1:23" ht="17">
       <c r="A68" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>15</v>
@@ -22552,7 +22559,7 @@
     </row>
     <row r="69" spans="1:23" ht="17">
       <c r="A69" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>17</v>
@@ -22623,7 +22630,7 @@
     </row>
     <row r="70" spans="1:23" ht="17">
       <c r="A70" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -22694,7 +22701,7 @@
     </row>
     <row r="71" spans="1:23" ht="17">
       <c r="A71" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>17</v>
@@ -22765,7 +22772,7 @@
     </row>
     <row r="72" spans="1:23" ht="17">
       <c r="A72" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>17</v>
@@ -22978,7 +22985,7 @@
     </row>
     <row r="75" spans="1:23" ht="17">
       <c r="A75" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -23049,7 +23056,7 @@
     </row>
     <row r="76" spans="1:23" ht="17">
       <c r="A76" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>4</v>
@@ -23120,7 +23127,7 @@
     </row>
     <row r="77" spans="1:23" ht="17">
       <c r="A77" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>4</v>
@@ -23191,7 +23198,7 @@
     </row>
     <row r="78" spans="1:23" ht="17">
       <c r="A78" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>4</v>
@@ -23262,7 +23269,7 @@
     </row>
     <row r="79" spans="1:23" ht="17">
       <c r="A79" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>4</v>
@@ -23333,7 +23340,7 @@
     </row>
     <row r="80" spans="1:23" ht="17">
       <c r="A80" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>7</v>
@@ -23404,7 +23411,7 @@
     </row>
     <row r="81" spans="1:23" ht="17">
       <c r="A81" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>7</v>
@@ -23475,7 +23482,7 @@
     </row>
     <row r="82" spans="1:23" ht="17">
       <c r="A82" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>7</v>
@@ -23546,7 +23553,7 @@
     </row>
     <row r="83" spans="1:23" ht="17">
       <c r="A83" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>7</v>
@@ -23617,7 +23624,7 @@
     </row>
     <row r="84" spans="1:23" ht="17">
       <c r="A84" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>7</v>
@@ -23688,7 +23695,7 @@
     </row>
     <row r="85" spans="1:23" ht="17">
       <c r="A85" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>7</v>
@@ -23759,7 +23766,7 @@
     </row>
     <row r="86" spans="1:23" ht="17">
       <c r="A86" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1</v>
@@ -23830,7 +23837,7 @@
     </row>
     <row r="87" spans="1:23" ht="17">
       <c r="A87" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>1</v>
@@ -23901,7 +23908,7 @@
     </row>
     <row r="88" spans="1:23" ht="17">
       <c r="A88" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>1</v>
@@ -23972,7 +23979,7 @@
     </row>
     <row r="89" spans="1:23" ht="17">
       <c r="A89" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>1</v>
@@ -24043,7 +24050,7 @@
     </row>
     <row r="90" spans="1:23" ht="17">
       <c r="A90" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1</v>
@@ -24114,7 +24121,7 @@
     </row>
     <row r="91" spans="1:23" ht="17">
       <c r="A91" s="3" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1</v>
@@ -24185,7 +24192,7 @@
     </row>
     <row r="92" spans="1:23" ht="17">
       <c r="A92" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>15</v>
@@ -24256,7 +24263,7 @@
     </row>
     <row r="93" spans="1:23" ht="17">
       <c r="A93" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>17</v>
@@ -24327,7 +24334,7 @@
     </row>
     <row r="94" spans="1:23" ht="17">
       <c r="A94" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>12</v>
@@ -24540,7 +24547,7 @@
     </row>
     <row r="97" spans="1:23" ht="17">
       <c r="A97" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>4</v>
@@ -24611,7 +24618,7 @@
     </row>
     <row r="98" spans="1:23" ht="17">
       <c r="A98" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>4</v>
@@ -24753,7 +24760,7 @@
     </row>
     <row r="100" spans="1:23" ht="17">
       <c r="A100" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>7</v>
@@ -24824,7 +24831,7 @@
     </row>
     <row r="101" spans="1:23" ht="17">
       <c r="A101" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>7</v>
@@ -24895,7 +24902,7 @@
     </row>
     <row r="102" spans="1:23" ht="17">
       <c r="A102" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>1</v>
@@ -24966,7 +24973,7 @@
     </row>
     <row r="103" spans="1:23" ht="17">
       <c r="A103" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>1</v>
@@ -25179,7 +25186,7 @@
     </row>
     <row r="106" spans="1:23" ht="17">
       <c r="A106" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>15</v>
@@ -25250,7 +25257,7 @@
     </row>
     <row r="107" spans="1:23" ht="17">
       <c r="A107" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>15</v>
@@ -25321,7 +25328,7 @@
     </row>
     <row r="108" spans="1:23" ht="17">
       <c r="A108" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>15</v>
@@ -25392,7 +25399,7 @@
     </row>
     <row r="109" spans="1:23" ht="17">
       <c r="A109" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>15</v>
@@ -25463,7 +25470,7 @@
     </row>
     <row r="110" spans="1:23" ht="17">
       <c r="A110" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>15</v>
@@ -25534,7 +25541,7 @@
     </row>
     <row r="111" spans="1:23" ht="17">
       <c r="A111" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>17</v>
@@ -25747,7 +25754,7 @@
     </row>
     <row r="114" spans="1:23" ht="17">
       <c r="A114" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>17</v>
@@ -25818,7 +25825,7 @@
     </row>
     <row r="115" spans="1:23" ht="17">
       <c r="A115" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>17</v>
@@ -25889,7 +25896,7 @@
     </row>
     <row r="116" spans="1:23" ht="17">
       <c r="A116" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>17</v>
@@ -25960,7 +25967,7 @@
     </row>
     <row r="117" spans="1:23" ht="17">
       <c r="A117" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>12</v>
@@ -26031,7 +26038,7 @@
     </row>
     <row r="118" spans="1:23" ht="17">
       <c r="A118" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>12</v>
@@ -26102,7 +26109,7 @@
     </row>
     <row r="119" spans="1:23" ht="17">
       <c r="A119" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>12</v>
@@ -26173,7 +26180,7 @@
     </row>
     <row r="120" spans="1:23" ht="17">
       <c r="A120" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>12</v>
@@ -26244,7 +26251,7 @@
     </row>
     <row r="121" spans="1:23" ht="17">
       <c r="A121" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>12</v>
@@ -26315,7 +26322,7 @@
     </row>
     <row r="122" spans="1:23" ht="17">
       <c r="A122" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>12</v>
@@ -26386,7 +26393,7 @@
     </row>
     <row r="123" spans="1:23" ht="17">
       <c r="A123" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>12</v>
@@ -26457,7 +26464,7 @@
     </row>
     <row r="124" spans="1:23" ht="17">
       <c r="A124" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>4</v>
@@ -26528,7 +26535,7 @@
     </row>
     <row r="125" spans="1:23" ht="17">
       <c r="A125" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>4</v>
@@ -26599,7 +26606,7 @@
     </row>
     <row r="126" spans="1:23" ht="17">
       <c r="A126" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>4</v>
@@ -26670,7 +26677,7 @@
     </row>
     <row r="127" spans="1:23" ht="17">
       <c r="A127" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>4</v>
@@ -26741,7 +26748,7 @@
     </row>
     <row r="128" spans="1:23" ht="17">
       <c r="A128" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>7</v>
@@ -26812,7 +26819,7 @@
     </row>
     <row r="129" spans="1:23" ht="17">
       <c r="A129" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>7</v>
@@ -26883,7 +26890,7 @@
     </row>
     <row r="130" spans="1:23" ht="17">
       <c r="A130" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>7</v>
@@ -26954,7 +26961,7 @@
     </row>
     <row r="131" spans="1:23" ht="17">
       <c r="A131" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>7</v>
@@ -27025,7 +27032,7 @@
     </row>
     <row r="132" spans="1:23" ht="17">
       <c r="A132" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>7</v>
@@ -27096,7 +27103,7 @@
     </row>
     <row r="133" spans="1:23" ht="17">
       <c r="A133" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>7</v>
@@ -27167,7 +27174,7 @@
     </row>
     <row r="134" spans="1:23" ht="17">
       <c r="A134" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>1</v>
@@ -27238,7 +27245,7 @@
     </row>
     <row r="135" spans="1:23" ht="17">
       <c r="A135" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>1</v>
@@ -27309,7 +27316,7 @@
     </row>
     <row r="136" spans="1:23" ht="17">
       <c r="A136" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>1</v>
@@ -27380,7 +27387,7 @@
     </row>
     <row r="137" spans="1:23" ht="17">
       <c r="A137" s="3" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>1</v>
@@ -27451,7 +27458,7 @@
     </row>
     <row r="138" spans="1:23" ht="17">
       <c r="A138" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>1</v>
@@ -27522,7 +27529,7 @@
     </row>
     <row r="139" spans="1:23" ht="17">
       <c r="A139" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>1</v>
@@ -27593,7 +27600,7 @@
     </row>
     <row r="140" spans="1:23" ht="17">
       <c r="A140" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>1</v>
@@ -27664,7 +27671,7 @@
     </row>
     <row r="141" spans="1:23" ht="17">
       <c r="A141" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1</v>
@@ -27735,7 +27742,7 @@
     </row>
     <row r="142" spans="1:23" ht="17">
       <c r="A142" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
@@ -27806,7 +27813,7 @@
     </row>
     <row r="143" spans="1:23" ht="17">
       <c r="A143" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1</v>
@@ -27877,7 +27884,7 @@
     </row>
     <row r="144" spans="1:23" ht="17">
       <c r="A144" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1</v>
@@ -27948,7 +27955,7 @@
     </row>
     <row r="145" spans="1:23" ht="17">
       <c r="A145" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1</v>
@@ -28019,7 +28026,7 @@
     </row>
     <row r="146" spans="1:23" ht="17">
       <c r="A146" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>1</v>
@@ -28090,7 +28097,7 @@
     </row>
     <row r="147" spans="1:23" ht="17">
       <c r="A147" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>1</v>
@@ -28232,7 +28239,7 @@
     </row>
     <row r="149" spans="1:23" ht="17">
       <c r="A149" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>15</v>
@@ -28303,7 +28310,7 @@
     </row>
     <row r="150" spans="1:23" ht="17">
       <c r="A150" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>15</v>
@@ -28374,7 +28381,7 @@
     </row>
     <row r="151" spans="1:23" ht="17">
       <c r="A151" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>15</v>
@@ -28445,7 +28452,7 @@
     </row>
     <row r="152" spans="1:23" ht="17">
       <c r="A152" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>15</v>
@@ -28516,7 +28523,7 @@
     </row>
     <row r="153" spans="1:23" ht="17">
       <c r="A153" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>15</v>
@@ -28587,7 +28594,7 @@
     </row>
     <row r="154" spans="1:23" ht="17">
       <c r="A154" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>15</v>
@@ -28658,7 +28665,7 @@
     </row>
     <row r="155" spans="1:23" ht="17">
       <c r="A155" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>15</v>
@@ -28729,7 +28736,7 @@
     </row>
     <row r="156" spans="1:23" ht="17">
       <c r="A156" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>15</v>
@@ -28800,7 +28807,7 @@
     </row>
     <row r="157" spans="1:23" ht="17">
       <c r="A157" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>15</v>
@@ -28942,7 +28949,7 @@
     </row>
     <row r="159" spans="1:23" ht="17">
       <c r="A159" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>17</v>
@@ -29013,7 +29020,7 @@
     </row>
     <row r="160" spans="1:23" ht="17">
       <c r="A160" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>17</v>
@@ -29084,7 +29091,7 @@
     </row>
     <row r="161" spans="1:23" ht="17">
       <c r="A161" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>17</v>
@@ -29155,7 +29162,7 @@
     </row>
     <row r="162" spans="1:23" ht="17">
       <c r="A162" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>17</v>
@@ -29226,7 +29233,7 @@
     </row>
     <row r="163" spans="1:23" ht="17">
       <c r="A163" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>17</v>
@@ -29297,7 +29304,7 @@
     </row>
     <row r="164" spans="1:23" ht="17">
       <c r="A164" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>17</v>
@@ -29368,7 +29375,7 @@
     </row>
     <row r="165" spans="1:23" ht="17">
       <c r="A165" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>17</v>
@@ -29439,7 +29446,7 @@
     </row>
     <row r="166" spans="1:23" ht="17">
       <c r="A166" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>17</v>
@@ -29510,7 +29517,7 @@
     </row>
     <row r="167" spans="1:23" ht="17">
       <c r="A167" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>17</v>
@@ -29581,7 +29588,7 @@
     </row>
     <row r="168" spans="1:23" ht="17">
       <c r="A168" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>17</v>
@@ -29652,7 +29659,7 @@
     </row>
     <row r="169" spans="1:23" ht="17">
       <c r="A169" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>17</v>
@@ -29723,7 +29730,7 @@
     </row>
     <row r="170" spans="1:23" ht="17">
       <c r="A170" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>17</v>
@@ -29794,7 +29801,7 @@
     </row>
     <row r="171" spans="1:23" ht="17">
       <c r="A171" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>17</v>
@@ -29865,7 +29872,7 @@
     </row>
     <row r="172" spans="1:23" ht="17">
       <c r="A172" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>17</v>
@@ -29936,7 +29943,7 @@
     </row>
     <row r="173" spans="1:23" ht="17">
       <c r="A173" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>17</v>
@@ -30007,7 +30014,7 @@
     </row>
     <row r="174" spans="1:23" ht="17">
       <c r="A174" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>17</v>
@@ -30078,7 +30085,7 @@
     </row>
     <row r="175" spans="1:23" ht="17">
       <c r="A175" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>12</v>
@@ -30149,7 +30156,7 @@
     </row>
     <row r="176" spans="1:23" ht="17">
       <c r="A176" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>12</v>
@@ -30220,7 +30227,7 @@
     </row>
     <row r="177" spans="1:23" ht="17">
       <c r="A177" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>12</v>
@@ -30291,7 +30298,7 @@
     </row>
     <row r="178" spans="1:23" ht="17">
       <c r="A178" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>12</v>
@@ -30362,7 +30369,7 @@
     </row>
     <row r="179" spans="1:23" ht="17">
       <c r="A179" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>12</v>
@@ -30433,7 +30440,7 @@
     </row>
     <row r="180" spans="1:23" ht="17">
       <c r="A180" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>12</v>
@@ -30504,7 +30511,7 @@
     </row>
     <row r="181" spans="1:23" ht="17">
       <c r="A181" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>12</v>
@@ -30575,7 +30582,7 @@
     </row>
     <row r="182" spans="1:23" ht="17">
       <c r="A182" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>12</v>
@@ -30646,7 +30653,7 @@
     </row>
     <row r="183" spans="1:23" ht="17">
       <c r="A183" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>12</v>
@@ -30717,7 +30724,7 @@
     </row>
     <row r="184" spans="1:23" ht="17">
       <c r="A184" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>12</v>
@@ -30788,7 +30795,7 @@
     </row>
     <row r="185" spans="1:23" ht="17">
       <c r="A185" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>12</v>
@@ -30859,7 +30866,7 @@
     </row>
     <row r="186" spans="1:23" ht="17">
       <c r="A186" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>12</v>
@@ -30930,7 +30937,7 @@
     </row>
     <row r="187" spans="1:23" ht="17">
       <c r="A187" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>12</v>
@@ -31001,7 +31008,7 @@
     </row>
     <row r="188" spans="1:23" ht="17">
       <c r="A188" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>12</v>
@@ -31072,7 +31079,7 @@
     </row>
     <row r="189" spans="1:23" ht="17">
       <c r="A189" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>12</v>
@@ -31143,7 +31150,7 @@
     </row>
     <row r="190" spans="1:23" ht="17">
       <c r="A190" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>4</v>
@@ -31214,7 +31221,7 @@
     </row>
     <row r="191" spans="1:23" ht="17">
       <c r="A191" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>4</v>
@@ -31285,7 +31292,7 @@
     </row>
     <row r="192" spans="1:23" ht="17">
       <c r="A192" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>4</v>
@@ -31356,7 +31363,7 @@
     </row>
     <row r="193" spans="1:23" ht="17">
       <c r="A193" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>4</v>
@@ -31427,7 +31434,7 @@
     </row>
     <row r="194" spans="1:23" ht="17">
       <c r="A194" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>4</v>
@@ -31498,7 +31505,7 @@
     </row>
     <row r="195" spans="1:23" ht="17">
       <c r="A195" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>4</v>
@@ -31569,7 +31576,7 @@
     </row>
     <row r="196" spans="1:23" ht="17">
       <c r="A196" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>4</v>
@@ -31711,7 +31718,7 @@
     </row>
     <row r="198" spans="1:23" ht="17">
       <c r="A198" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>4</v>
@@ -31782,7 +31789,7 @@
     </row>
     <row r="199" spans="1:23" ht="17">
       <c r="A199" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>4</v>
@@ -31853,7 +31860,7 @@
     </row>
     <row r="200" spans="1:23" ht="17">
       <c r="A200" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>4</v>
@@ -31924,7 +31931,7 @@
     </row>
     <row r="201" spans="1:23" ht="17">
       <c r="A201" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>4</v>
@@ -31995,7 +32002,7 @@
     </row>
     <row r="202" spans="1:23" ht="17">
       <c r="A202" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>4</v>
@@ -32066,7 +32073,7 @@
     </row>
     <row r="203" spans="1:23" ht="17">
       <c r="A203" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>4</v>
@@ -32137,7 +32144,7 @@
     </row>
     <row r="204" spans="1:23" ht="17">
       <c r="A204" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>4</v>
@@ -32208,7 +32215,7 @@
     </row>
     <row r="205" spans="1:23" ht="17">
       <c r="A205" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>4</v>
@@ -32279,7 +32286,7 @@
     </row>
     <row r="206" spans="1:23" ht="17">
       <c r="A206" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>4</v>
@@ -32350,7 +32357,7 @@
     </row>
     <row r="207" spans="1:23" ht="17">
       <c r="A207" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>4</v>
@@ -32421,7 +32428,7 @@
     </row>
     <row r="208" spans="1:23" ht="17">
       <c r="A208" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>4</v>
@@ -32492,7 +32499,7 @@
     </row>
     <row r="209" spans="1:23" ht="17">
       <c r="A209" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>4</v>
@@ -32563,7 +32570,7 @@
     </row>
     <row r="210" spans="1:23" ht="17">
       <c r="A210" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>4</v>
@@ -32634,7 +32641,7 @@
     </row>
     <row r="211" spans="1:23" ht="17">
       <c r="A211" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>4</v>
@@ -32705,7 +32712,7 @@
     </row>
     <row r="212" spans="1:23" ht="17">
       <c r="A212" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>4</v>
@@ -32776,7 +32783,7 @@
     </row>
     <row r="213" spans="1:23" ht="17">
       <c r="A213" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>4</v>
@@ -32847,7 +32854,7 @@
     </row>
     <row r="214" spans="1:23" ht="17">
       <c r="A214" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>4</v>
@@ -32918,7 +32925,7 @@
     </row>
     <row r="215" spans="1:23" ht="17">
       <c r="A215" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -32989,7 +32996,7 @@
     </row>
     <row r="216" spans="1:23" ht="17">
       <c r="A216" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>4</v>
@@ -33060,7 +33067,7 @@
     </row>
     <row r="217" spans="1:23" ht="17">
       <c r="A217" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>7</v>
@@ -33273,7 +33280,7 @@
     </row>
     <row r="220" spans="1:23" ht="17">
       <c r="A220" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>7</v>
@@ -33344,7 +33351,7 @@
     </row>
     <row r="221" spans="1:23" ht="17">
       <c r="A221" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>7</v>
@@ -33415,7 +33422,7 @@
     </row>
     <row r="222" spans="1:23" ht="17">
       <c r="A222" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>7</v>
@@ -33486,7 +33493,7 @@
     </row>
     <row r="223" spans="1:23" ht="17">
       <c r="A223" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>7</v>
@@ -33628,7 +33635,7 @@
     </row>
     <row r="225" spans="1:23" ht="17">
       <c r="A225" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>7</v>
@@ -33699,7 +33706,7 @@
     </row>
     <row r="226" spans="1:23" ht="17">
       <c r="A226" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>7</v>
@@ -33770,7 +33777,7 @@
     </row>
     <row r="227" spans="1:23" ht="17">
       <c r="A227" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>7</v>
@@ -33841,7 +33848,7 @@
     </row>
     <row r="228" spans="1:23" ht="17">
       <c r="A228" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>7</v>
@@ -33912,7 +33919,7 @@
     </row>
     <row r="229" spans="1:23" ht="17">
       <c r="A229" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>7</v>
@@ -33983,7 +33990,7 @@
     </row>
     <row r="230" spans="1:23" ht="17">
       <c r="A230" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>7</v>
@@ -34054,7 +34061,7 @@
     </row>
     <row r="231" spans="1:23" ht="17">
       <c r="A231" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>7</v>
@@ -34125,7 +34132,7 @@
     </row>
     <row r="232" spans="1:23" ht="17">
       <c r="A232" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>7</v>
@@ -34206,11 +34213,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F61A27-9F0E-F041-B7C7-37C6DCE29063}">
   <dimension ref="A1:W232"/>
   <sheetViews>
-    <sheetView topLeftCell="J201" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W232"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
@@ -34220,13 +34230,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F1" s="1">
         <v>2018</v>
@@ -34280,7 +34290,7 @@
         <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17">
@@ -34569,7 +34579,7 @@
     </row>
     <row r="6" spans="1:23" ht="17">
       <c r="A6" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -34711,7 +34721,7 @@
     </row>
     <row r="8" spans="1:23" ht="17">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
@@ -34782,7 +34792,7 @@
     </row>
     <row r="9" spans="1:23" ht="17">
       <c r="A9" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -34924,7 +34934,7 @@
     </row>
     <row r="11" spans="1:23" ht="17">
       <c r="A11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
@@ -34995,7 +35005,7 @@
     </row>
     <row r="12" spans="1:23" ht="17">
       <c r="A12" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
@@ -35066,7 +35076,7 @@
     </row>
     <row r="13" spans="1:23" ht="17">
       <c r="A13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
@@ -35137,7 +35147,7 @@
     </row>
     <row r="14" spans="1:23" ht="17">
       <c r="A14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -35208,7 +35218,7 @@
     </row>
     <row r="15" spans="1:23" ht="17">
       <c r="A15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -35492,7 +35502,7 @@
     </row>
     <row r="19" spans="1:23" ht="17">
       <c r="A19" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>15</v>
@@ -35705,7 +35715,7 @@
     </row>
     <row r="22" spans="1:23" ht="17">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
@@ -36060,7 +36070,7 @@
     </row>
     <row r="27" spans="1:23" ht="17">
       <c r="A27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>15</v>
@@ -36131,7 +36141,7 @@
     </row>
     <row r="28" spans="1:23" ht="17">
       <c r="A28" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>17</v>
@@ -36273,7 +36283,7 @@
     </row>
     <row r="30" spans="1:23" ht="17">
       <c r="A30" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -36344,7 +36354,7 @@
     </row>
     <row r="31" spans="1:23" ht="17">
       <c r="A31" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>4</v>
@@ -36415,7 +36425,7 @@
     </row>
     <row r="32" spans="1:23" ht="17">
       <c r="A32" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1</v>
@@ -36486,7 +36496,7 @@
     </row>
     <row r="33" spans="1:23" ht="17">
       <c r="A33" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1</v>
@@ -36557,7 +36567,7 @@
     </row>
     <row r="34" spans="1:23" ht="17">
       <c r="A34" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1</v>
@@ -36628,7 +36638,7 @@
     </row>
     <row r="35" spans="1:23" ht="17">
       <c r="A35" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>15</v>
@@ -36841,7 +36851,7 @@
     </row>
     <row r="38" spans="1:23" ht="17">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
@@ -36912,7 +36922,7 @@
     </row>
     <row r="39" spans="1:23" ht="17">
       <c r="A39" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
@@ -36983,7 +36993,7 @@
     </row>
     <row r="40" spans="1:23" ht="17">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>4</v>
@@ -37054,7 +37064,7 @@
     </row>
     <row r="41" spans="1:23" ht="17">
       <c r="A41" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>4</v>
@@ -37196,7 +37206,7 @@
     </row>
     <row r="43" spans="1:23" ht="17">
       <c r="A43" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>7</v>
@@ -37338,7 +37348,7 @@
     </row>
     <row r="45" spans="1:23" ht="17">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1</v>
@@ -37409,7 +37419,7 @@
     </row>
     <row r="46" spans="1:23" ht="17">
       <c r="A46" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>15</v>
@@ -37480,7 +37490,7 @@
     </row>
     <row r="47" spans="1:23" ht="17">
       <c r="A47" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>15</v>
@@ -37551,7 +37561,7 @@
     </row>
     <row r="48" spans="1:23" ht="17">
       <c r="A48" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>15</v>
@@ -37622,7 +37632,7 @@
     </row>
     <row r="49" spans="1:23" ht="17">
       <c r="A49" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>15</v>
@@ -37693,7 +37703,7 @@
     </row>
     <row r="50" spans="1:23" ht="17">
       <c r="A50" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>17</v>
@@ -37764,7 +37774,7 @@
     </row>
     <row r="51" spans="1:23" ht="17">
       <c r="A51" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>17</v>
@@ -37835,7 +37845,7 @@
     </row>
     <row r="52" spans="1:23" ht="17">
       <c r="A52" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>17</v>
@@ -37906,7 +37916,7 @@
     </row>
     <row r="53" spans="1:23" ht="17">
       <c r="A53" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
@@ -37977,7 +37987,7 @@
     </row>
     <row r="54" spans="1:23" ht="17">
       <c r="A54" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -38048,7 +38058,7 @@
     </row>
     <row r="55" spans="1:23" ht="17">
       <c r="A55" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
@@ -38261,7 +38271,7 @@
     </row>
     <row r="58" spans="1:23" ht="17">
       <c r="A58" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>4</v>
@@ -38616,7 +38626,7 @@
     </row>
     <row r="63" spans="1:23" ht="17">
       <c r="A63" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>1</v>
@@ -38687,7 +38697,7 @@
     </row>
     <row r="64" spans="1:23" ht="17">
       <c r="A64" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1</v>
@@ -38758,7 +38768,7 @@
     </row>
     <row r="65" spans="1:23" ht="17">
       <c r="A65" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1</v>
@@ -38829,7 +38839,7 @@
     </row>
     <row r="66" spans="1:23" ht="17">
       <c r="A66" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>1</v>
@@ -38971,7 +38981,7 @@
     </row>
     <row r="68" spans="1:23" ht="17">
       <c r="A68" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>15</v>
@@ -39042,7 +39052,7 @@
     </row>
     <row r="69" spans="1:23" ht="17">
       <c r="A69" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>17</v>
@@ -39113,7 +39123,7 @@
     </row>
     <row r="70" spans="1:23" ht="17">
       <c r="A70" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -39184,7 +39194,7 @@
     </row>
     <row r="71" spans="1:23" ht="17">
       <c r="A71" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>17</v>
@@ -39326,7 +39336,7 @@
     </row>
     <row r="73" spans="1:23" ht="17">
       <c r="A73" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -39468,7 +39478,7 @@
     </row>
     <row r="75" spans="1:23" ht="17">
       <c r="A75" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -39539,7 +39549,7 @@
     </row>
     <row r="76" spans="1:23" ht="17">
       <c r="A76" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>12</v>
@@ -39823,7 +39833,7 @@
     </row>
     <row r="80" spans="1:23" ht="17">
       <c r="A80" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>4</v>
@@ -39894,7 +39904,7 @@
     </row>
     <row r="81" spans="1:23" ht="17">
       <c r="A81" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>4</v>
@@ -39965,7 +39975,7 @@
     </row>
     <row r="82" spans="1:23" ht="17">
       <c r="A82" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>4</v>
@@ -40036,7 +40046,7 @@
     </row>
     <row r="83" spans="1:23" ht="17">
       <c r="A83" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>7</v>
@@ -40107,7 +40117,7 @@
     </row>
     <row r="84" spans="1:23" ht="17">
       <c r="A84" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>7</v>
@@ -40249,7 +40259,7 @@
     </row>
     <row r="86" spans="1:23" ht="17">
       <c r="A86" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>7</v>
@@ -40320,7 +40330,7 @@
     </row>
     <row r="87" spans="1:23" ht="17">
       <c r="A87" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>7</v>
@@ -40391,7 +40401,7 @@
     </row>
     <row r="88" spans="1:23" ht="17">
       <c r="A88" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>7</v>
@@ -40462,7 +40472,7 @@
     </row>
     <row r="89" spans="1:23" ht="17">
       <c r="A89" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>7</v>
@@ -40604,7 +40614,7 @@
     </row>
     <row r="91" spans="1:23" ht="17">
       <c r="A91" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1</v>
@@ -40675,7 +40685,7 @@
     </row>
     <row r="92" spans="1:23" ht="17">
       <c r="A92" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>15</v>
@@ -40746,7 +40756,7 @@
     </row>
     <row r="93" spans="1:23" ht="17">
       <c r="A93" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>15</v>
@@ -40817,7 +40827,7 @@
     </row>
     <row r="94" spans="1:23" ht="17">
       <c r="A94" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>15</v>
@@ -40888,7 +40898,7 @@
     </row>
     <row r="95" spans="1:23" ht="17">
       <c r="A95" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>17</v>
@@ -40959,7 +40969,7 @@
     </row>
     <row r="96" spans="1:23" ht="17">
       <c r="A96" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>17</v>
@@ -41030,7 +41040,7 @@
     </row>
     <row r="97" spans="1:23" ht="17">
       <c r="A97" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>17</v>
@@ -41101,7 +41111,7 @@
     </row>
     <row r="98" spans="1:23" ht="17">
       <c r="A98" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>17</v>
@@ -41172,7 +41182,7 @@
     </row>
     <row r="99" spans="1:23" ht="17">
       <c r="A99" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>17</v>
@@ -41314,7 +41324,7 @@
     </row>
     <row r="101" spans="1:23" ht="17">
       <c r="A101" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>12</v>
@@ -41385,7 +41395,7 @@
     </row>
     <row r="102" spans="1:23" ht="17">
       <c r="A102" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>4</v>
@@ -41456,7 +41466,7 @@
     </row>
     <row r="103" spans="1:23" ht="17">
       <c r="A103" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>4</v>
@@ -41527,7 +41537,7 @@
     </row>
     <row r="104" spans="1:23" ht="17">
       <c r="A104" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>4</v>
@@ -41598,7 +41608,7 @@
     </row>
     <row r="105" spans="1:23" ht="17">
       <c r="A105" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>4</v>
@@ -41740,7 +41750,7 @@
     </row>
     <row r="107" spans="1:23" ht="17">
       <c r="A107" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>1</v>
@@ -41811,7 +41821,7 @@
     </row>
     <row r="108" spans="1:23" ht="17">
       <c r="A108" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>1</v>
@@ -41882,7 +41892,7 @@
     </row>
     <row r="109" spans="1:23" ht="17">
       <c r="A109" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>1</v>
@@ -42024,7 +42034,7 @@
     </row>
     <row r="111" spans="1:23" ht="17">
       <c r="A111" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>15</v>
@@ -42095,7 +42105,7 @@
     </row>
     <row r="112" spans="1:23" ht="17">
       <c r="A112" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>15</v>
@@ -42308,7 +42318,7 @@
     </row>
     <row r="115" spans="1:23" ht="17">
       <c r="A115" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>17</v>
@@ -42379,7 +42389,7 @@
     </row>
     <row r="116" spans="1:23" ht="17">
       <c r="A116" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>17</v>
@@ -42450,7 +42460,7 @@
     </row>
     <row r="117" spans="1:23" ht="17">
       <c r="A117" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>17</v>
@@ -42521,7 +42531,7 @@
     </row>
     <row r="118" spans="1:23" ht="17">
       <c r="A118" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>12</v>
@@ -42592,7 +42602,7 @@
     </row>
     <row r="119" spans="1:23" ht="17">
       <c r="A119" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>12</v>
@@ -42663,7 +42673,7 @@
     </row>
     <row r="120" spans="1:23" ht="17">
       <c r="A120" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>12</v>
@@ -42734,7 +42744,7 @@
     </row>
     <row r="121" spans="1:23" ht="17">
       <c r="A121" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>4</v>
@@ -42805,7 +42815,7 @@
     </row>
     <row r="122" spans="1:23" ht="17">
       <c r="A122" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>4</v>
@@ -42876,7 +42886,7 @@
     </row>
     <row r="123" spans="1:23" ht="17">
       <c r="A123" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>4</v>
@@ -42947,7 +42957,7 @@
     </row>
     <row r="124" spans="1:23" ht="17">
       <c r="A124" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>4</v>
@@ -43018,7 +43028,7 @@
     </row>
     <row r="125" spans="1:23" ht="17">
       <c r="A125" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>7</v>
@@ -43089,7 +43099,7 @@
     </row>
     <row r="126" spans="1:23" ht="17">
       <c r="A126" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>7</v>
@@ -43160,7 +43170,7 @@
     </row>
     <row r="127" spans="1:23" ht="17">
       <c r="A127" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>7</v>
@@ -43231,7 +43241,7 @@
     </row>
     <row r="128" spans="1:23" ht="17">
       <c r="A128" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>7</v>
@@ -43302,7 +43312,7 @@
     </row>
     <row r="129" spans="1:23" ht="17">
       <c r="A129" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>7</v>
@@ -43373,7 +43383,7 @@
     </row>
     <row r="130" spans="1:23" ht="17">
       <c r="A130" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>7</v>
@@ -43444,7 +43454,7 @@
     </row>
     <row r="131" spans="1:23" ht="17">
       <c r="A131" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>7</v>
@@ -43586,7 +43596,7 @@
     </row>
     <row r="133" spans="1:23" ht="17">
       <c r="A133" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>1</v>
@@ -43657,7 +43667,7 @@
     </row>
     <row r="134" spans="1:23" ht="17">
       <c r="A134" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>1</v>
@@ -43728,7 +43738,7 @@
     </row>
     <row r="135" spans="1:23" ht="17">
       <c r="A135" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>1</v>
@@ -43799,7 +43809,7 @@
     </row>
     <row r="136" spans="1:23" ht="17">
       <c r="A136" s="3" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>1</v>
@@ -43870,7 +43880,7 @@
     </row>
     <row r="137" spans="1:23" ht="17">
       <c r="A137" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>1</v>
@@ -43941,7 +43951,7 @@
     </row>
     <row r="138" spans="1:23" ht="17">
       <c r="A138" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>1</v>
@@ -44012,7 +44022,7 @@
     </row>
     <row r="139" spans="1:23" ht="17">
       <c r="A139" s="3" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>1</v>
@@ -44083,7 +44093,7 @@
     </row>
     <row r="140" spans="1:23" ht="17">
       <c r="A140" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>1</v>
@@ -44154,7 +44164,7 @@
     </row>
     <row r="141" spans="1:23" ht="17">
       <c r="A141" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1</v>
@@ -44225,7 +44235,7 @@
     </row>
     <row r="142" spans="1:23" ht="17">
       <c r="A142" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
@@ -44296,7 +44306,7 @@
     </row>
     <row r="143" spans="1:23" ht="17">
       <c r="A143" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1</v>
@@ -44367,7 +44377,7 @@
     </row>
     <row r="144" spans="1:23" ht="17">
       <c r="A144" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1</v>
@@ -44438,7 +44448,7 @@
     </row>
     <row r="145" spans="1:23" ht="17">
       <c r="A145" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1</v>
@@ -44509,7 +44519,7 @@
     </row>
     <row r="146" spans="1:23" ht="17">
       <c r="A146" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>1</v>
@@ -44580,7 +44590,7 @@
     </row>
     <row r="147" spans="1:23" ht="17">
       <c r="A147" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>1</v>
@@ -44651,7 +44661,7 @@
     </row>
     <row r="148" spans="1:23" ht="17">
       <c r="A148" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>1</v>
@@ -44793,7 +44803,7 @@
     </row>
     <row r="150" spans="1:23" ht="17">
       <c r="A150" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>15</v>
@@ -44864,7 +44874,7 @@
     </row>
     <row r="151" spans="1:23" ht="17">
       <c r="A151" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>15</v>
@@ -44935,7 +44945,7 @@
     </row>
     <row r="152" spans="1:23" ht="17">
       <c r="A152" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>15</v>
@@ -45006,7 +45016,7 @@
     </row>
     <row r="153" spans="1:23" ht="17">
       <c r="A153" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>15</v>
@@ -45077,7 +45087,7 @@
     </row>
     <row r="154" spans="1:23" ht="17">
       <c r="A154" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>15</v>
@@ -45148,7 +45158,7 @@
     </row>
     <row r="155" spans="1:23" ht="17">
       <c r="A155" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>15</v>
@@ -45219,7 +45229,7 @@
     </row>
     <row r="156" spans="1:23" ht="17">
       <c r="A156" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>15</v>
@@ -45290,7 +45300,7 @@
     </row>
     <row r="157" spans="1:23" ht="17">
       <c r="A157" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>15</v>
@@ -45361,7 +45371,7 @@
     </row>
     <row r="158" spans="1:23" ht="17">
       <c r="A158" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>15</v>
@@ -45432,7 +45442,7 @@
     </row>
     <row r="159" spans="1:23" ht="17">
       <c r="A159" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>15</v>
@@ -45503,7 +45513,7 @@
     </row>
     <row r="160" spans="1:23" ht="17">
       <c r="A160" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>15</v>
@@ -45574,7 +45584,7 @@
     </row>
     <row r="161" spans="1:23" ht="17">
       <c r="A161" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>17</v>
@@ -45716,7 +45726,7 @@
     </row>
     <row r="163" spans="1:23" ht="17">
       <c r="A163" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>17</v>
@@ -45787,7 +45797,7 @@
     </row>
     <row r="164" spans="1:23" ht="17">
       <c r="A164" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>17</v>
@@ -45929,7 +45939,7 @@
     </row>
     <row r="166" spans="1:23" ht="17">
       <c r="A166" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>17</v>
@@ -46000,7 +46010,7 @@
     </row>
     <row r="167" spans="1:23" ht="17">
       <c r="A167" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>17</v>
@@ -46071,7 +46081,7 @@
     </row>
     <row r="168" spans="1:23" ht="17">
       <c r="A168" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>17</v>
@@ -46142,7 +46152,7 @@
     </row>
     <row r="169" spans="1:23" ht="17">
       <c r="A169" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>17</v>
@@ -46213,7 +46223,7 @@
     </row>
     <row r="170" spans="1:23" ht="17">
       <c r="A170" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>17</v>
@@ -46284,7 +46294,7 @@
     </row>
     <row r="171" spans="1:23" ht="17">
       <c r="A171" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>17</v>
@@ -46355,7 +46365,7 @@
     </row>
     <row r="172" spans="1:23" ht="17">
       <c r="A172" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>17</v>
@@ -46426,7 +46436,7 @@
     </row>
     <row r="173" spans="1:23" ht="17">
       <c r="A173" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>17</v>
@@ -46497,7 +46507,7 @@
     </row>
     <row r="174" spans="1:23" ht="17">
       <c r="A174" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>17</v>
@@ -46568,7 +46578,7 @@
     </row>
     <row r="175" spans="1:23" ht="17">
       <c r="A175" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>17</v>
@@ -46639,7 +46649,7 @@
     </row>
     <row r="176" spans="1:23" ht="17">
       <c r="A176" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>17</v>
@@ -46710,7 +46720,7 @@
     </row>
     <row r="177" spans="1:23" ht="17">
       <c r="A177" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>12</v>
@@ -46923,7 +46933,7 @@
     </row>
     <row r="180" spans="1:23" ht="17">
       <c r="A180" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>12</v>
@@ -46994,7 +47004,7 @@
     </row>
     <row r="181" spans="1:23" ht="17">
       <c r="A181" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>12</v>
@@ -47065,7 +47075,7 @@
     </row>
     <row r="182" spans="1:23" ht="17">
       <c r="A182" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>12</v>
@@ -47136,7 +47146,7 @@
     </row>
     <row r="183" spans="1:23" ht="17">
       <c r="A183" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>12</v>
@@ -47207,7 +47217,7 @@
     </row>
     <row r="184" spans="1:23" ht="17">
       <c r="A184" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>12</v>
@@ -47278,7 +47288,7 @@
     </row>
     <row r="185" spans="1:23" ht="17">
       <c r="A185" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>12</v>
@@ -47349,7 +47359,7 @@
     </row>
     <row r="186" spans="1:23" ht="17">
       <c r="A186" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>12</v>
@@ -47420,7 +47430,7 @@
     </row>
     <row r="187" spans="1:23" ht="17">
       <c r="A187" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>12</v>
@@ -47491,7 +47501,7 @@
     </row>
     <row r="188" spans="1:23" ht="17">
       <c r="A188" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>12</v>
@@ -47562,7 +47572,7 @@
     </row>
     <row r="189" spans="1:23" ht="17">
       <c r="A189" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>12</v>
@@ -47633,7 +47643,7 @@
     </row>
     <row r="190" spans="1:23" ht="17">
       <c r="A190" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>12</v>
@@ -47846,7 +47856,7 @@
     </row>
     <row r="193" spans="1:23" ht="17">
       <c r="A193" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>4</v>
@@ -47917,7 +47927,7 @@
     </row>
     <row r="194" spans="1:23" ht="17">
       <c r="A194" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>4</v>
@@ -48059,7 +48069,7 @@
     </row>
     <row r="196" spans="1:23" ht="17">
       <c r="A196" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>4</v>
@@ -48130,7 +48140,7 @@
     </row>
     <row r="197" spans="1:23" ht="17">
       <c r="A197" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>4</v>
@@ -48201,7 +48211,7 @@
     </row>
     <row r="198" spans="1:23" ht="17">
       <c r="A198" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>4</v>
@@ -48272,7 +48282,7 @@
     </row>
     <row r="199" spans="1:23" ht="17">
       <c r="A199" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>4</v>
@@ -48343,7 +48353,7 @@
     </row>
     <row r="200" spans="1:23" ht="17">
       <c r="A200" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>4</v>
@@ -48414,7 +48424,7 @@
     </row>
     <row r="201" spans="1:23" ht="17">
       <c r="A201" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>4</v>
@@ -48485,7 +48495,7 @@
     </row>
     <row r="202" spans="1:23" ht="17">
       <c r="A202" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>4</v>
@@ -48556,7 +48566,7 @@
     </row>
     <row r="203" spans="1:23" ht="17">
       <c r="A203" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>4</v>
@@ -48627,7 +48637,7 @@
     </row>
     <row r="204" spans="1:23" ht="17">
       <c r="A204" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>4</v>
@@ -48698,7 +48708,7 @@
     </row>
     <row r="205" spans="1:23" ht="17">
       <c r="A205" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>4</v>
@@ -48769,7 +48779,7 @@
     </row>
     <row r="206" spans="1:23" ht="17">
       <c r="A206" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>4</v>
@@ -48840,7 +48850,7 @@
     </row>
     <row r="207" spans="1:23" ht="17">
       <c r="A207" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>4</v>
@@ -48911,7 +48921,7 @@
     </row>
     <row r="208" spans="1:23" ht="17">
       <c r="A208" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>4</v>
@@ -48982,7 +48992,7 @@
     </row>
     <row r="209" spans="1:23" ht="17">
       <c r="A209" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>4</v>
@@ -49053,7 +49063,7 @@
     </row>
     <row r="210" spans="1:23" ht="17">
       <c r="A210" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>4</v>
@@ -49124,7 +49134,7 @@
     </row>
     <row r="211" spans="1:23" ht="17">
       <c r="A211" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>4</v>
@@ -49195,7 +49205,7 @@
     </row>
     <row r="212" spans="1:23" ht="17">
       <c r="A212" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>4</v>
@@ -49266,7 +49276,7 @@
     </row>
     <row r="213" spans="1:23" ht="17">
       <c r="A213" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>4</v>
@@ -49337,7 +49347,7 @@
     </row>
     <row r="214" spans="1:23" ht="17">
       <c r="A214" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>4</v>
@@ -49408,7 +49418,7 @@
     </row>
     <row r="215" spans="1:23" ht="17">
       <c r="A215" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -49479,7 +49489,7 @@
     </row>
     <row r="216" spans="1:23" ht="17">
       <c r="A216" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>4</v>
@@ -49621,7 +49631,7 @@
     </row>
     <row r="218" spans="1:23" ht="17">
       <c r="A218" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>7</v>
@@ -49692,7 +49702,7 @@
     </row>
     <row r="219" spans="1:23" ht="17">
       <c r="A219" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>7</v>
@@ -49763,7 +49773,7 @@
     </row>
     <row r="220" spans="1:23" ht="17">
       <c r="A220" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>7</v>
@@ -49834,7 +49844,7 @@
     </row>
     <row r="221" spans="1:23" ht="17">
       <c r="A221" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>7</v>
@@ -49905,7 +49915,7 @@
     </row>
     <row r="222" spans="1:23" ht="17">
       <c r="A222" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>7</v>
@@ -49976,7 +49986,7 @@
     </row>
     <row r="223" spans="1:23" ht="17">
       <c r="A223" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>7</v>
@@ -50047,7 +50057,7 @@
     </row>
     <row r="224" spans="1:23" ht="17">
       <c r="A224" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>7</v>
@@ -50118,7 +50128,7 @@
     </row>
     <row r="225" spans="1:23" ht="17">
       <c r="A225" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>7</v>
@@ -50189,7 +50199,7 @@
     </row>
     <row r="226" spans="1:23" ht="17">
       <c r="A226" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>7</v>
@@ -50260,7 +50270,7 @@
     </row>
     <row r="227" spans="1:23" ht="17">
       <c r="A227" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>7</v>
@@ -50331,7 +50341,7 @@
     </row>
     <row r="228" spans="1:23" ht="17">
       <c r="A228" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>7</v>
@@ -50402,7 +50412,7 @@
     </row>
     <row r="229" spans="1:23" ht="17">
       <c r="A229" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>7</v>
@@ -50473,7 +50483,7 @@
     </row>
     <row r="230" spans="1:23" ht="17">
       <c r="A230" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>7</v>
@@ -50544,7 +50554,7 @@
     </row>
     <row r="231" spans="1:23" ht="17">
       <c r="A231" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>7</v>
@@ -50615,7 +50625,7 @@
     </row>
     <row r="232" spans="1:23" ht="17">
       <c r="A232" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>7</v>
@@ -50696,11 +50706,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57E4E30-4B88-EA47-8709-667FE0F27FC1}">
   <dimension ref="A1:W232"/>
   <sheetViews>
-    <sheetView topLeftCell="M203" workbookViewId="0">
-      <selection activeCell="Z227" sqref="Z227"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
@@ -50710,13 +50723,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F1" s="1">
         <v>2018</v>
@@ -50770,12 +50783,12 @@
         <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17">
       <c r="A2" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -50846,7 +50859,7 @@
     </row>
     <row r="3" spans="1:23" ht="17">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -51059,7 +51072,7 @@
     </row>
     <row r="6" spans="1:23" ht="17">
       <c r="A6" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -51130,7 +51143,7 @@
     </row>
     <row r="7" spans="1:23" ht="17">
       <c r="A7" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -51272,7 +51285,7 @@
     </row>
     <row r="9" spans="1:23" ht="17">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -51485,7 +51498,7 @@
     </row>
     <row r="12" spans="1:23" ht="17">
       <c r="A12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -51556,7 +51569,7 @@
     </row>
     <row r="13" spans="1:23" ht="17">
       <c r="A13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
@@ -51627,7 +51640,7 @@
     </row>
     <row r="14" spans="1:23" ht="17">
       <c r="A14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -51698,7 +51711,7 @@
     </row>
     <row r="15" spans="1:23" ht="17">
       <c r="A15" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
@@ -52337,7 +52350,7 @@
     </row>
     <row r="24" spans="1:23" ht="17">
       <c r="A24" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>15</v>
@@ -52479,7 +52492,7 @@
     </row>
     <row r="26" spans="1:23" ht="17">
       <c r="A26" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>1</v>
@@ -52692,7 +52705,7 @@
     </row>
     <row r="29" spans="1:23" ht="17">
       <c r="A29" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
@@ -52763,7 +52776,7 @@
     </row>
     <row r="30" spans="1:23" ht="17">
       <c r="A30" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
@@ -52976,7 +52989,7 @@
     </row>
     <row r="33" spans="1:23" ht="17">
       <c r="A33" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1</v>
@@ -53047,7 +53060,7 @@
     </row>
     <row r="34" spans="1:23" ht="17">
       <c r="A34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1</v>
@@ -53118,7 +53131,7 @@
     </row>
     <row r="35" spans="1:23" ht="17">
       <c r="A35" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>15</v>
@@ -53189,7 +53202,7 @@
     </row>
     <row r="36" spans="1:23" ht="17">
       <c r="A36" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>15</v>
@@ -53260,7 +53273,7 @@
     </row>
     <row r="37" spans="1:23" ht="17">
       <c r="A37" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>12</v>
@@ -53331,7 +53344,7 @@
     </row>
     <row r="38" spans="1:23" ht="17">
       <c r="A38" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
@@ -53473,7 +53486,7 @@
     </row>
     <row r="40" spans="1:23" ht="17">
       <c r="A40" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>4</v>
@@ -53544,7 +53557,7 @@
     </row>
     <row r="41" spans="1:23" ht="17">
       <c r="A41" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>7</v>
@@ -53686,7 +53699,7 @@
     </row>
     <row r="43" spans="1:23" ht="17">
       <c r="A43" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>1</v>
@@ -53757,7 +53770,7 @@
     </row>
     <row r="44" spans="1:23" ht="17">
       <c r="A44" s="3" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1</v>
@@ -53899,7 +53912,7 @@
     </row>
     <row r="46" spans="1:23" ht="17">
       <c r="A46" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>15</v>
@@ -53970,7 +53983,7 @@
     </row>
     <row r="47" spans="1:23" ht="17">
       <c r="A47" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>15</v>
@@ -54041,7 +54054,7 @@
     </row>
     <row r="48" spans="1:23" ht="17">
       <c r="A48" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
@@ -54254,7 +54267,7 @@
     </row>
     <row r="51" spans="1:23" ht="17">
       <c r="A51" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>4</v>
@@ -54325,7 +54338,7 @@
     </row>
     <row r="52" spans="1:23" ht="17">
       <c r="A52" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>4</v>
@@ -54538,7 +54551,7 @@
     </row>
     <row r="55" spans="1:23" ht="17">
       <c r="A55" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>4</v>
@@ -54680,7 +54693,7 @@
     </row>
     <row r="57" spans="1:23" ht="17">
       <c r="A57" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>7</v>
@@ -54751,7 +54764,7 @@
     </row>
     <row r="58" spans="1:23" ht="17">
       <c r="A58" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>7</v>
@@ -54822,7 +54835,7 @@
     </row>
     <row r="59" spans="1:23" ht="17">
       <c r="A59" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>1</v>
@@ -54964,7 +54977,7 @@
     </row>
     <row r="61" spans="1:23" ht="17">
       <c r="A61" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>15</v>
@@ -55035,7 +55048,7 @@
     </row>
     <row r="62" spans="1:23" ht="17">
       <c r="A62" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>15</v>
@@ -55106,7 +55119,7 @@
     </row>
     <row r="63" spans="1:23" ht="17">
       <c r="A63" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>15</v>
@@ -55177,7 +55190,7 @@
     </row>
     <row r="64" spans="1:23" ht="17">
       <c r="A64" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>15</v>
@@ -55248,7 +55261,7 @@
     </row>
     <row r="65" spans="1:23" ht="17">
       <c r="A65" s="3" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>17</v>
@@ -55390,7 +55403,7 @@
     </row>
     <row r="67" spans="1:23" ht="17">
       <c r="A67" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>17</v>
@@ -55461,7 +55474,7 @@
     </row>
     <row r="68" spans="1:23" ht="17">
       <c r="A68" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>17</v>
@@ -55532,7 +55545,7 @@
     </row>
     <row r="69" spans="1:23" ht="17">
       <c r="A69" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>17</v>
@@ -55603,7 +55616,7 @@
     </row>
     <row r="70" spans="1:23" ht="17">
       <c r="A70" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -55816,7 +55829,7 @@
     </row>
     <row r="73" spans="1:23" ht="17">
       <c r="A73" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -55887,7 +55900,7 @@
     </row>
     <row r="74" spans="1:23" ht="17">
       <c r="A74" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>12</v>
@@ -55958,7 +55971,7 @@
     </row>
     <row r="75" spans="1:23" ht="17">
       <c r="A75" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -56029,7 +56042,7 @@
     </row>
     <row r="76" spans="1:23" ht="17">
       <c r="A76" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>12</v>
@@ -56100,7 +56113,7 @@
     </row>
     <row r="77" spans="1:23" ht="17">
       <c r="A77" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>12</v>
@@ -56242,7 +56255,7 @@
     </row>
     <row r="79" spans="1:23" ht="17">
       <c r="A79" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>4</v>
@@ -56313,7 +56326,7 @@
     </row>
     <row r="80" spans="1:23" ht="17">
       <c r="A80" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>4</v>
@@ -56384,7 +56397,7 @@
     </row>
     <row r="81" spans="1:23" ht="17">
       <c r="A81" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>4</v>
@@ -56526,7 +56539,7 @@
     </row>
     <row r="83" spans="1:23" ht="17">
       <c r="A83" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>7</v>
@@ -56597,7 +56610,7 @@
     </row>
     <row r="84" spans="1:23" ht="17">
       <c r="A84" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>7</v>
@@ -56668,7 +56681,7 @@
     </row>
     <row r="85" spans="1:23" ht="17">
       <c r="A85" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>7</v>
@@ -56739,7 +56752,7 @@
     </row>
     <row r="86" spans="1:23" ht="17">
       <c r="A86" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1</v>
@@ -56810,7 +56823,7 @@
     </row>
     <row r="87" spans="1:23" ht="17">
       <c r="A87" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>1</v>
@@ -56881,7 +56894,7 @@
     </row>
     <row r="88" spans="1:23" ht="17">
       <c r="A88" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>15</v>
@@ -56952,7 +56965,7 @@
     </row>
     <row r="89" spans="1:23" ht="17">
       <c r="A89" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>15</v>
@@ -57023,7 +57036,7 @@
     </row>
     <row r="90" spans="1:23" ht="17">
       <c r="A90" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>15</v>
@@ -57094,7 +57107,7 @@
     </row>
     <row r="91" spans="1:23" ht="17">
       <c r="A91" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>17</v>
@@ -57165,7 +57178,7 @@
     </row>
     <row r="92" spans="1:23" ht="17">
       <c r="A92" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>17</v>
@@ -57591,7 +57604,7 @@
     </row>
     <row r="98" spans="1:23" ht="17">
       <c r="A98" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>12</v>
@@ -57733,7 +57746,7 @@
     </row>
     <row r="100" spans="1:23" ht="17">
       <c r="A100" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>4</v>
@@ -57804,7 +57817,7 @@
     </row>
     <row r="101" spans="1:23" ht="17">
       <c r="A101" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>4</v>
@@ -57875,7 +57888,7 @@
     </row>
     <row r="102" spans="1:23" ht="17">
       <c r="A102" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>7</v>
@@ -57946,7 +57959,7 @@
     </row>
     <row r="103" spans="1:23" ht="17">
       <c r="A103" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>7</v>
@@ -58017,7 +58030,7 @@
     </row>
     <row r="104" spans="1:23" ht="17">
       <c r="A104" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>7</v>
@@ -58088,7 +58101,7 @@
     </row>
     <row r="105" spans="1:23" ht="17">
       <c r="A105" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>7</v>
@@ -58159,7 +58172,7 @@
     </row>
     <row r="106" spans="1:23" ht="17">
       <c r="A106" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>7</v>
@@ -58230,7 +58243,7 @@
     </row>
     <row r="107" spans="1:23" ht="17">
       <c r="A107" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>7</v>
@@ -58443,7 +58456,7 @@
     </row>
     <row r="110" spans="1:23" ht="17">
       <c r="A110" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>1</v>
@@ -58514,7 +58527,7 @@
     </row>
     <row r="111" spans="1:23" ht="17">
       <c r="A111" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>1</v>
@@ -58585,7 +58598,7 @@
     </row>
     <row r="112" spans="1:23" ht="17">
       <c r="A112" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>1</v>
@@ -58656,7 +58669,7 @@
     </row>
     <row r="113" spans="1:23" ht="17">
       <c r="A113" s="3" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>1</v>
@@ -58798,7 +58811,7 @@
     </row>
     <row r="115" spans="1:23" ht="17">
       <c r="A115" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>15</v>
@@ -58869,7 +58882,7 @@
     </row>
     <row r="116" spans="1:23" ht="17">
       <c r="A116" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>15</v>
@@ -59011,7 +59024,7 @@
     </row>
     <row r="118" spans="1:23" ht="17">
       <c r="A118" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>17</v>
@@ -59082,7 +59095,7 @@
     </row>
     <row r="119" spans="1:23" ht="17">
       <c r="A119" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>17</v>
@@ -59153,7 +59166,7 @@
     </row>
     <row r="120" spans="1:23" ht="17">
       <c r="A120" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>17</v>
@@ -59224,7 +59237,7 @@
     </row>
     <row r="121" spans="1:23" ht="17">
       <c r="A121" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>17</v>
@@ -59295,7 +59308,7 @@
     </row>
     <row r="122" spans="1:23" ht="17">
       <c r="A122" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>17</v>
@@ -59437,7 +59450,7 @@
     </row>
     <row r="124" spans="1:23" ht="17">
       <c r="A124" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>12</v>
@@ -59508,7 +59521,7 @@
     </row>
     <row r="125" spans="1:23" ht="17">
       <c r="A125" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>12</v>
@@ -59579,7 +59592,7 @@
     </row>
     <row r="126" spans="1:23" ht="17">
       <c r="A126" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>12</v>
@@ -59721,7 +59734,7 @@
     </row>
     <row r="128" spans="1:23" ht="17">
       <c r="A128" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>4</v>
@@ -59792,7 +59805,7 @@
     </row>
     <row r="129" spans="1:23" ht="17">
       <c r="A129" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>4</v>
@@ -59863,7 +59876,7 @@
     </row>
     <row r="130" spans="1:23" ht="17">
       <c r="A130" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>4</v>
@@ -59934,7 +59947,7 @@
     </row>
     <row r="131" spans="1:23" ht="17">
       <c r="A131" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>7</v>
@@ -60005,7 +60018,7 @@
     </row>
     <row r="132" spans="1:23" ht="17">
       <c r="A132" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>7</v>
@@ -60076,7 +60089,7 @@
     </row>
     <row r="133" spans="1:23" ht="17">
       <c r="A133" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>7</v>
@@ -60147,7 +60160,7 @@
     </row>
     <row r="134" spans="1:23" ht="17">
       <c r="A134" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>1</v>
@@ -60289,7 +60302,7 @@
     </row>
     <row r="136" spans="1:23" ht="17">
       <c r="A136" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>1</v>
@@ -60360,7 +60373,7 @@
     </row>
     <row r="137" spans="1:23" ht="17">
       <c r="A137" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>1</v>
@@ -60431,7 +60444,7 @@
     </row>
     <row r="138" spans="1:23" ht="17">
       <c r="A138" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>1</v>
@@ -60502,7 +60515,7 @@
     </row>
     <row r="139" spans="1:23" ht="17">
       <c r="A139" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>1</v>
@@ -60573,7 +60586,7 @@
     </row>
     <row r="140" spans="1:23" ht="17">
       <c r="A140" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>1</v>
@@ -60644,7 +60657,7 @@
     </row>
     <row r="141" spans="1:23" ht="17">
       <c r="A141" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1</v>
@@ -60715,7 +60728,7 @@
     </row>
     <row r="142" spans="1:23" ht="17">
       <c r="A142" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
@@ -60786,7 +60799,7 @@
     </row>
     <row r="143" spans="1:23" ht="17">
       <c r="A143" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1</v>
@@ -60857,7 +60870,7 @@
     </row>
     <row r="144" spans="1:23" ht="17">
       <c r="A144" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1</v>
@@ -60928,7 +60941,7 @@
     </row>
     <row r="145" spans="1:23" ht="17">
       <c r="A145" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1</v>
@@ -60999,7 +61012,7 @@
     </row>
     <row r="146" spans="1:23" ht="17">
       <c r="A146" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>1</v>
@@ -61070,7 +61083,7 @@
     </row>
     <row r="147" spans="1:23" ht="17">
       <c r="A147" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>1</v>
@@ -61212,7 +61225,7 @@
     </row>
     <row r="149" spans="1:23" ht="17">
       <c r="A149" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>15</v>
@@ -61283,7 +61296,7 @@
     </row>
     <row r="150" spans="1:23" ht="17">
       <c r="A150" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>15</v>
@@ -61354,7 +61367,7 @@
     </row>
     <row r="151" spans="1:23" ht="17">
       <c r="A151" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>15</v>
@@ -61425,7 +61438,7 @@
     </row>
     <row r="152" spans="1:23" ht="17">
       <c r="A152" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>15</v>
@@ -61496,7 +61509,7 @@
     </row>
     <row r="153" spans="1:23" ht="17">
       <c r="A153" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>15</v>
@@ -61567,7 +61580,7 @@
     </row>
     <row r="154" spans="1:23" ht="17">
       <c r="A154" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>15</v>
@@ -61638,7 +61651,7 @@
     </row>
     <row r="155" spans="1:23" ht="17">
       <c r="A155" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>15</v>
@@ -61709,7 +61722,7 @@
     </row>
     <row r="156" spans="1:23" ht="17">
       <c r="A156" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>15</v>
@@ -61780,7 +61793,7 @@
     </row>
     <row r="157" spans="1:23" ht="17">
       <c r="A157" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>15</v>
@@ -61851,7 +61864,7 @@
     </row>
     <row r="158" spans="1:23" ht="17">
       <c r="A158" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>15</v>
@@ -61922,7 +61935,7 @@
     </row>
     <row r="159" spans="1:23" ht="17">
       <c r="A159" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>15</v>
@@ -61993,7 +62006,7 @@
     </row>
     <row r="160" spans="1:23" ht="17">
       <c r="A160" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>15</v>
@@ -62064,7 +62077,7 @@
     </row>
     <row r="161" spans="1:23" ht="17">
       <c r="A161" s="3" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>17</v>
@@ -62135,7 +62148,7 @@
     </row>
     <row r="162" spans="1:23" ht="17">
       <c r="A162" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>17</v>
@@ -62206,7 +62219,7 @@
     </row>
     <row r="163" spans="1:23" ht="17">
       <c r="A163" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>17</v>
@@ -62277,7 +62290,7 @@
     </row>
     <row r="164" spans="1:23" ht="17">
       <c r="A164" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>17</v>
@@ -62348,7 +62361,7 @@
     </row>
     <row r="165" spans="1:23" ht="17">
       <c r="A165" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>17</v>
@@ -62419,7 +62432,7 @@
     </row>
     <row r="166" spans="1:23" ht="17">
       <c r="A166" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>17</v>
@@ -62490,7 +62503,7 @@
     </row>
     <row r="167" spans="1:23" ht="17">
       <c r="A167" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>17</v>
@@ -62561,7 +62574,7 @@
     </row>
     <row r="168" spans="1:23" ht="17">
       <c r="A168" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>17</v>
@@ -62632,7 +62645,7 @@
     </row>
     <row r="169" spans="1:23" ht="17">
       <c r="A169" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>17</v>
@@ -62703,7 +62716,7 @@
     </row>
     <row r="170" spans="1:23" ht="17">
       <c r="A170" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>17</v>
@@ -62774,7 +62787,7 @@
     </row>
     <row r="171" spans="1:23" ht="17">
       <c r="A171" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>17</v>
@@ -62845,7 +62858,7 @@
     </row>
     <row r="172" spans="1:23" ht="17">
       <c r="A172" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>17</v>
@@ -62916,7 +62929,7 @@
     </row>
     <row r="173" spans="1:23" ht="17">
       <c r="A173" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>17</v>
@@ -62987,7 +63000,7 @@
     </row>
     <row r="174" spans="1:23" ht="17">
       <c r="A174" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>17</v>
@@ -63058,7 +63071,7 @@
     </row>
     <row r="175" spans="1:23" ht="17">
       <c r="A175" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>17</v>
@@ -63129,7 +63142,7 @@
     </row>
     <row r="176" spans="1:23" ht="17">
       <c r="A176" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>17</v>
@@ -63200,7 +63213,7 @@
     </row>
     <row r="177" spans="1:23" ht="17">
       <c r="A177" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>12</v>
@@ -63271,7 +63284,7 @@
     </row>
     <row r="178" spans="1:23" ht="17">
       <c r="A178" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>12</v>
@@ -63342,7 +63355,7 @@
     </row>
     <row r="179" spans="1:23" ht="17">
       <c r="A179" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>12</v>
@@ -63413,7 +63426,7 @@
     </row>
     <row r="180" spans="1:23" ht="17">
       <c r="A180" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>12</v>
@@ -63484,7 +63497,7 @@
     </row>
     <row r="181" spans="1:23" ht="17">
       <c r="A181" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>12</v>
@@ -63555,7 +63568,7 @@
     </row>
     <row r="182" spans="1:23" ht="17">
       <c r="A182" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>12</v>
@@ -63626,7 +63639,7 @@
     </row>
     <row r="183" spans="1:23" ht="17">
       <c r="A183" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>12</v>
@@ -63697,7 +63710,7 @@
     </row>
     <row r="184" spans="1:23" ht="17">
       <c r="A184" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>12</v>
@@ -63768,7 +63781,7 @@
     </row>
     <row r="185" spans="1:23" ht="17">
       <c r="A185" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>12</v>
@@ -63839,7 +63852,7 @@
     </row>
     <row r="186" spans="1:23" ht="17">
       <c r="A186" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>12</v>
@@ -63910,7 +63923,7 @@
     </row>
     <row r="187" spans="1:23" ht="17">
       <c r="A187" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>12</v>
@@ -63981,7 +63994,7 @@
     </row>
     <row r="188" spans="1:23" ht="17">
       <c r="A188" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>12</v>
@@ -64052,7 +64065,7 @@
     </row>
     <row r="189" spans="1:23" ht="17">
       <c r="A189" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>12</v>
@@ -64123,7 +64136,7 @@
     </row>
     <row r="190" spans="1:23" ht="17">
       <c r="A190" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>4</v>
@@ -64265,7 +64278,7 @@
     </row>
     <row r="192" spans="1:23" ht="17">
       <c r="A192" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>4</v>
@@ -64336,7 +64349,7 @@
     </row>
     <row r="193" spans="1:23" ht="17">
       <c r="A193" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>4</v>
@@ -64478,7 +64491,7 @@
     </row>
     <row r="195" spans="1:23" ht="17">
       <c r="A195" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>4</v>
@@ -64549,7 +64562,7 @@
     </row>
     <row r="196" spans="1:23" ht="17">
       <c r="A196" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>4</v>
@@ -64620,7 +64633,7 @@
     </row>
     <row r="197" spans="1:23" ht="17">
       <c r="A197" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>4</v>
@@ -64691,7 +64704,7 @@
     </row>
     <row r="198" spans="1:23" ht="17">
       <c r="A198" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>4</v>
@@ -64762,7 +64775,7 @@
     </row>
     <row r="199" spans="1:23" ht="17">
       <c r="A199" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>4</v>
@@ -64833,7 +64846,7 @@
     </row>
     <row r="200" spans="1:23" ht="17">
       <c r="A200" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>4</v>
@@ -64904,7 +64917,7 @@
     </row>
     <row r="201" spans="1:23" ht="17">
       <c r="A201" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>4</v>
@@ -64975,7 +64988,7 @@
     </row>
     <row r="202" spans="1:23" ht="17">
       <c r="A202" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>4</v>
@@ -65046,7 +65059,7 @@
     </row>
     <row r="203" spans="1:23" ht="17">
       <c r="A203" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>4</v>
@@ -65117,7 +65130,7 @@
     </row>
     <row r="204" spans="1:23" ht="17">
       <c r="A204" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>4</v>
@@ -65188,7 +65201,7 @@
     </row>
     <row r="205" spans="1:23" ht="17">
       <c r="A205" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>4</v>
@@ -65259,7 +65272,7 @@
     </row>
     <row r="206" spans="1:23" ht="17">
       <c r="A206" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>4</v>
@@ -65330,7 +65343,7 @@
     </row>
     <row r="207" spans="1:23" ht="17">
       <c r="A207" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>4</v>
@@ -65401,7 +65414,7 @@
     </row>
     <row r="208" spans="1:23" ht="17">
       <c r="A208" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>4</v>
@@ -65472,7 +65485,7 @@
     </row>
     <row r="209" spans="1:23" ht="17">
       <c r="A209" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>4</v>
@@ -65543,7 +65556,7 @@
     </row>
     <row r="210" spans="1:23" ht="17">
       <c r="A210" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>4</v>
@@ -65614,7 +65627,7 @@
     </row>
     <row r="211" spans="1:23" ht="17">
       <c r="A211" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>4</v>
@@ -65685,7 +65698,7 @@
     </row>
     <row r="212" spans="1:23" ht="17">
       <c r="A212" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>4</v>
@@ -65756,7 +65769,7 @@
     </row>
     <row r="213" spans="1:23" ht="17">
       <c r="A213" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>4</v>
@@ -65827,7 +65840,7 @@
     </row>
     <row r="214" spans="1:23" ht="17">
       <c r="A214" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>4</v>
@@ -65898,7 +65911,7 @@
     </row>
     <row r="215" spans="1:23" ht="17">
       <c r="A215" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -65969,7 +65982,7 @@
     </row>
     <row r="216" spans="1:23" ht="17">
       <c r="A216" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>4</v>
@@ -66040,7 +66053,7 @@
     </row>
     <row r="217" spans="1:23" ht="17">
       <c r="A217" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>7</v>
@@ -66182,7 +66195,7 @@
     </row>
     <row r="219" spans="1:23" ht="17">
       <c r="A219" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>7</v>
@@ -66253,7 +66266,7 @@
     </row>
     <row r="220" spans="1:23" ht="17">
       <c r="A220" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>7</v>
@@ -66324,7 +66337,7 @@
     </row>
     <row r="221" spans="1:23" ht="17">
       <c r="A221" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>7</v>
@@ -66395,7 +66408,7 @@
     </row>
     <row r="222" spans="1:23" ht="17">
       <c r="A222" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>7</v>
@@ -66466,7 +66479,7 @@
     </row>
     <row r="223" spans="1:23" ht="17">
       <c r="A223" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>7</v>
@@ -66537,7 +66550,7 @@
     </row>
     <row r="224" spans="1:23" ht="17">
       <c r="A224" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>7</v>
@@ -66608,7 +66621,7 @@
     </row>
     <row r="225" spans="1:23" ht="17">
       <c r="A225" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>7</v>
@@ -66679,7 +66692,7 @@
     </row>
     <row r="226" spans="1:23" ht="17">
       <c r="A226" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>7</v>
@@ -66750,7 +66763,7 @@
     </row>
     <row r="227" spans="1:23" ht="17">
       <c r="A227" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>7</v>
@@ -66821,7 +66834,7 @@
     </row>
     <row r="228" spans="1:23" ht="17">
       <c r="A228" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>7</v>
@@ -66892,7 +66905,7 @@
     </row>
     <row r="229" spans="1:23" ht="17">
       <c r="A229" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>7</v>
@@ -66963,7 +66976,7 @@
     </row>
     <row r="230" spans="1:23" ht="17">
       <c r="A230" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>7</v>
@@ -67034,7 +67047,7 @@
     </row>
     <row r="231" spans="1:23" ht="17">
       <c r="A231" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>7</v>
@@ -67105,7 +67118,7 @@
     </row>
     <row r="232" spans="1:23" ht="17">
       <c r="A232" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>7</v>
@@ -67186,11 +67199,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24909BB3-D198-1A4E-9B3D-50083A940A05}">
   <dimension ref="A1:W232"/>
   <sheetViews>
-    <sheetView topLeftCell="R204" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W232"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
@@ -67200,13 +67216,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F1" s="1">
         <v>2018</v>
@@ -67260,7 +67276,7 @@
         <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17">
@@ -67407,7 +67423,7 @@
     </row>
     <row r="4" spans="1:23" ht="17">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -67549,7 +67565,7 @@
     </row>
     <row r="6" spans="1:23" ht="17">
       <c r="A6" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -67620,7 +67636,7 @@
     </row>
     <row r="7" spans="1:23" ht="17">
       <c r="A7" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -67762,7 +67778,7 @@
     </row>
     <row r="9" spans="1:23" ht="17">
       <c r="A9" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -67904,7 +67920,7 @@
     </row>
     <row r="11" spans="1:23" ht="17">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -68188,7 +68204,7 @@
     </row>
     <row r="15" spans="1:23" ht="17">
       <c r="A15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -68259,7 +68275,7 @@
     </row>
     <row r="16" spans="1:23" ht="17">
       <c r="A16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1</v>
@@ -68330,7 +68346,7 @@
     </row>
     <row r="17" spans="1:23" ht="17">
       <c r="A17" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -68401,7 +68417,7 @@
     </row>
     <row r="18" spans="1:23" ht="17">
       <c r="A18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -68543,7 +68559,7 @@
     </row>
     <row r="20" spans="1:23" ht="17">
       <c r="A20" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
@@ -68614,7 +68630,7 @@
     </row>
     <row r="21" spans="1:23" ht="17">
       <c r="A21" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>15</v>
@@ -68685,7 +68701,7 @@
     </row>
     <row r="22" spans="1:23" ht="17">
       <c r="A22" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1</v>
@@ -68756,7 +68772,7 @@
     </row>
     <row r="23" spans="1:23" ht="17">
       <c r="A23" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
@@ -68898,7 +68914,7 @@
     </row>
     <row r="25" spans="1:23" ht="17">
       <c r="A25" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>4</v>
@@ -68969,7 +68985,7 @@
     </row>
     <row r="26" spans="1:23" ht="17">
       <c r="A26" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>4</v>
@@ -69182,7 +69198,7 @@
     </row>
     <row r="29" spans="1:23" ht="17">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>1</v>
@@ -69324,7 +69340,7 @@
     </row>
     <row r="31" spans="1:23" ht="17">
       <c r="A31" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>15</v>
@@ -69466,7 +69482,7 @@
     </row>
     <row r="33" spans="1:23" ht="17">
       <c r="A33" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>17</v>
@@ -69537,7 +69553,7 @@
     </row>
     <row r="34" spans="1:23" ht="17">
       <c r="A34" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
@@ -69608,7 +69624,7 @@
     </row>
     <row r="35" spans="1:23" ht="17">
       <c r="A35" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>4</v>
@@ -69679,7 +69695,7 @@
     </row>
     <row r="36" spans="1:23" ht="17">
       <c r="A36" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
@@ -69750,7 +69766,7 @@
     </row>
     <row r="37" spans="1:23" ht="17">
       <c r="A37" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>7</v>
@@ -69821,7 +69837,7 @@
     </row>
     <row r="38" spans="1:23" ht="17">
       <c r="A38" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>1</v>
@@ -69963,7 +69979,7 @@
     </row>
     <row r="40" spans="1:23" ht="17">
       <c r="A40" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>15</v>
@@ -70034,7 +70050,7 @@
     </row>
     <row r="41" spans="1:23" ht="17">
       <c r="A41" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>15</v>
@@ -70105,7 +70121,7 @@
     </row>
     <row r="42" spans="1:23" ht="17">
       <c r="A42" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>15</v>
@@ -70176,7 +70192,7 @@
     </row>
     <row r="43" spans="1:23" ht="17">
       <c r="A43" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>17</v>
@@ -70460,7 +70476,7 @@
     </row>
     <row r="47" spans="1:23" ht="17">
       <c r="A47" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
@@ -70531,7 +70547,7 @@
     </row>
     <row r="48" spans="1:23" ht="17">
       <c r="A48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>4</v>
@@ -70602,7 +70618,7 @@
     </row>
     <row r="49" spans="1:23" ht="17">
       <c r="A49" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>4</v>
@@ -70673,7 +70689,7 @@
     </row>
     <row r="50" spans="1:23" ht="17">
       <c r="A50" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>4</v>
@@ -70815,7 +70831,7 @@
     </row>
     <row r="52" spans="1:23" ht="17">
       <c r="A52" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>7</v>
@@ -70957,7 +70973,7 @@
     </row>
     <row r="54" spans="1:23" ht="17">
       <c r="A54" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>1</v>
@@ -71170,7 +71186,7 @@
     </row>
     <row r="57" spans="1:23" ht="17">
       <c r="A57" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>1</v>
@@ -71241,7 +71257,7 @@
     </row>
     <row r="58" spans="1:23" ht="17">
       <c r="A58" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>15</v>
@@ -71312,7 +71328,7 @@
     </row>
     <row r="59" spans="1:23" ht="17">
       <c r="A59" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>15</v>
@@ -71383,7 +71399,7 @@
     </row>
     <row r="60" spans="1:23" ht="17">
       <c r="A60" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>15</v>
@@ -71525,7 +71541,7 @@
     </row>
     <row r="62" spans="1:23" ht="17">
       <c r="A62" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>17</v>
@@ -71667,7 +71683,7 @@
     </row>
     <row r="64" spans="1:23" ht="17">
       <c r="A64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>17</v>
@@ -71809,7 +71825,7 @@
     </row>
     <row r="66" spans="1:23" ht="17">
       <c r="A66" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>17</v>
@@ -71880,7 +71896,7 @@
     </row>
     <row r="67" spans="1:23" ht="17">
       <c r="A67" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>17</v>
@@ -71951,7 +71967,7 @@
     </row>
     <row r="68" spans="1:23" ht="17">
       <c r="A68" s="3" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>17</v>
@@ -72022,7 +72038,7 @@
     </row>
     <row r="69" spans="1:23" ht="17">
       <c r="A69" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>17</v>
@@ -72164,7 +72180,7 @@
     </row>
     <row r="71" spans="1:23" ht="17">
       <c r="A71" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>12</v>
@@ -72235,7 +72251,7 @@
     </row>
     <row r="72" spans="1:23" ht="17">
       <c r="A72" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>12</v>
@@ -72306,7 +72322,7 @@
     </row>
     <row r="73" spans="1:23" ht="17">
       <c r="A73" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -72448,7 +72464,7 @@
     </row>
     <row r="75" spans="1:23" ht="17">
       <c r="A75" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -72661,7 +72677,7 @@
     </row>
     <row r="78" spans="1:23" ht="17">
       <c r="A78" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>4</v>
@@ -72732,7 +72748,7 @@
     </row>
     <row r="79" spans="1:23" ht="17">
       <c r="A79" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>7</v>
@@ -72874,7 +72890,7 @@
     </row>
     <row r="81" spans="1:23" ht="17">
       <c r="A81" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>7</v>
@@ -72945,7 +72961,7 @@
     </row>
     <row r="82" spans="1:23" ht="17">
       <c r="A82" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>7</v>
@@ -73016,7 +73032,7 @@
     </row>
     <row r="83" spans="1:23" ht="17">
       <c r="A83" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>7</v>
@@ -73087,7 +73103,7 @@
     </row>
     <row r="84" spans="1:23" ht="17">
       <c r="A84" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>1</v>
@@ -73158,7 +73174,7 @@
     </row>
     <row r="85" spans="1:23" ht="17">
       <c r="A85" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>1</v>
@@ -73300,7 +73316,7 @@
     </row>
     <row r="87" spans="1:23" ht="17">
       <c r="A87" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>15</v>
@@ -73371,7 +73387,7 @@
     </row>
     <row r="88" spans="1:23" ht="17">
       <c r="A88" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>15</v>
@@ -73584,7 +73600,7 @@
     </row>
     <row r="91" spans="1:23" ht="17">
       <c r="A91" s="3" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>17</v>
@@ -73655,7 +73671,7 @@
     </row>
     <row r="92" spans="1:23" ht="17">
       <c r="A92" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>17</v>
@@ -73726,7 +73742,7 @@
     </row>
     <row r="93" spans="1:23" ht="17">
       <c r="A93" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>17</v>
@@ -73939,7 +73955,7 @@
     </row>
     <row r="96" spans="1:23" ht="17">
       <c r="A96" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>4</v>
@@ -74010,7 +74026,7 @@
     </row>
     <row r="97" spans="1:23" ht="17">
       <c r="A97" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>4</v>
@@ -74081,7 +74097,7 @@
     </row>
     <row r="98" spans="1:23" ht="17">
       <c r="A98" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>4</v>
@@ -74294,7 +74310,7 @@
     </row>
     <row r="101" spans="1:23" ht="17">
       <c r="A101" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>7</v>
@@ -74365,7 +74381,7 @@
     </row>
     <row r="102" spans="1:23" ht="17">
       <c r="A102" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>7</v>
@@ -74436,7 +74452,7 @@
     </row>
     <row r="103" spans="1:23" ht="17">
       <c r="A103" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>7</v>
@@ -74507,7 +74523,7 @@
     </row>
     <row r="104" spans="1:23" ht="17">
       <c r="A104" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>7</v>
@@ -74578,7 +74594,7 @@
     </row>
     <row r="105" spans="1:23" ht="17">
       <c r="A105" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>7</v>
@@ -74649,7 +74665,7 @@
     </row>
     <row r="106" spans="1:23" ht="17">
       <c r="A106" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>7</v>
@@ -74720,7 +74736,7 @@
     </row>
     <row r="107" spans="1:23" ht="17">
       <c r="A107" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>7</v>
@@ -74791,7 +74807,7 @@
     </row>
     <row r="108" spans="1:23" ht="17">
       <c r="A108" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>7</v>
@@ -74862,7 +74878,7 @@
     </row>
     <row r="109" spans="1:23" ht="17">
       <c r="A109" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>7</v>
@@ -74933,7 +74949,7 @@
     </row>
     <row r="110" spans="1:23" ht="17">
       <c r="A110" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>1</v>
@@ -75004,7 +75020,7 @@
     </row>
     <row r="111" spans="1:23" ht="17">
       <c r="A111" s="3" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>1</v>
@@ -75075,7 +75091,7 @@
     </row>
     <row r="112" spans="1:23" ht="17">
       <c r="A112" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>1</v>
@@ -75146,7 +75162,7 @@
     </row>
     <row r="113" spans="1:23" ht="17">
       <c r="A113" s="3" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>1</v>
@@ -75217,7 +75233,7 @@
     </row>
     <row r="114" spans="1:23" ht="17">
       <c r="A114" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>15</v>
@@ -75359,7 +75375,7 @@
     </row>
     <row r="116" spans="1:23" ht="17">
       <c r="A116" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>15</v>
@@ -75430,7 +75446,7 @@
     </row>
     <row r="117" spans="1:23" ht="17">
       <c r="A117" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>15</v>
@@ -75501,7 +75517,7 @@
     </row>
     <row r="118" spans="1:23" ht="17">
       <c r="A118" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>17</v>
@@ -75572,7 +75588,7 @@
     </row>
     <row r="119" spans="1:23" ht="17">
       <c r="A119" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>17</v>
@@ -75643,7 +75659,7 @@
     </row>
     <row r="120" spans="1:23" ht="17">
       <c r="A120" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>17</v>
@@ -75714,7 +75730,7 @@
     </row>
     <row r="121" spans="1:23" ht="17">
       <c r="A121" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>17</v>
@@ -75785,7 +75801,7 @@
     </row>
     <row r="122" spans="1:23" ht="17">
       <c r="A122" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>17</v>
@@ -75927,7 +75943,7 @@
     </row>
     <row r="124" spans="1:23" ht="17">
       <c r="A124" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>12</v>
@@ -75998,7 +76014,7 @@
     </row>
     <row r="125" spans="1:23" ht="17">
       <c r="A125" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>12</v>
@@ -76069,7 +76085,7 @@
     </row>
     <row r="126" spans="1:23" ht="17">
       <c r="A126" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>12</v>
@@ -76140,7 +76156,7 @@
     </row>
     <row r="127" spans="1:23" ht="17">
       <c r="A127" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>12</v>
@@ -76211,7 +76227,7 @@
     </row>
     <row r="128" spans="1:23" ht="17">
       <c r="A128" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>12</v>
@@ -76282,7 +76298,7 @@
     </row>
     <row r="129" spans="1:23" ht="17">
       <c r="A129" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>4</v>
@@ -76424,7 +76440,7 @@
     </row>
     <row r="131" spans="1:23" ht="17">
       <c r="A131" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>7</v>
@@ -76566,7 +76582,7 @@
     </row>
     <row r="133" spans="1:23" ht="17">
       <c r="A133" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>1</v>
@@ -76637,7 +76653,7 @@
     </row>
     <row r="134" spans="1:23" ht="17">
       <c r="A134" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>1</v>
@@ -76708,7 +76724,7 @@
     </row>
     <row r="135" spans="1:23" ht="17">
       <c r="A135" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>1</v>
@@ -76779,7 +76795,7 @@
     </row>
     <row r="136" spans="1:23" ht="17">
       <c r="A136" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>1</v>
@@ -76850,7 +76866,7 @@
     </row>
     <row r="137" spans="1:23" ht="17">
       <c r="A137" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>1</v>
@@ -76921,7 +76937,7 @@
     </row>
     <row r="138" spans="1:23" ht="17">
       <c r="A138" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>1</v>
@@ -76992,7 +77008,7 @@
     </row>
     <row r="139" spans="1:23" ht="17">
       <c r="A139" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>1</v>
@@ -77063,7 +77079,7 @@
     </row>
     <row r="140" spans="1:23" ht="17">
       <c r="A140" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>1</v>
@@ -77134,7 +77150,7 @@
     </row>
     <row r="141" spans="1:23" ht="17">
       <c r="A141" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1</v>
@@ -77205,7 +77221,7 @@
     </row>
     <row r="142" spans="1:23" ht="17">
       <c r="A142" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
@@ -77276,7 +77292,7 @@
     </row>
     <row r="143" spans="1:23" ht="17">
       <c r="A143" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1</v>
@@ -77347,7 +77363,7 @@
     </row>
     <row r="144" spans="1:23" ht="17">
       <c r="A144" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1</v>
@@ -77418,7 +77434,7 @@
     </row>
     <row r="145" spans="1:23" ht="17">
       <c r="A145" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1</v>
@@ -77489,7 +77505,7 @@
     </row>
     <row r="146" spans="1:23" ht="17">
       <c r="A146" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>1</v>
@@ -77560,7 +77576,7 @@
     </row>
     <row r="147" spans="1:23" ht="17">
       <c r="A147" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>15</v>
@@ -77631,7 +77647,7 @@
     </row>
     <row r="148" spans="1:23" ht="17">
       <c r="A148" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>15</v>
@@ -77702,7 +77718,7 @@
     </row>
     <row r="149" spans="1:23" ht="17">
       <c r="A149" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>15</v>
@@ -77773,7 +77789,7 @@
     </row>
     <row r="150" spans="1:23" ht="17">
       <c r="A150" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>15</v>
@@ -77844,7 +77860,7 @@
     </row>
     <row r="151" spans="1:23" ht="17">
       <c r="A151" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>15</v>
@@ -77915,7 +77931,7 @@
     </row>
     <row r="152" spans="1:23" ht="17">
       <c r="A152" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>15</v>
@@ -77986,7 +78002,7 @@
     </row>
     <row r="153" spans="1:23" ht="17">
       <c r="A153" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>15</v>
@@ -78057,7 +78073,7 @@
     </row>
     <row r="154" spans="1:23" ht="17">
       <c r="A154" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>15</v>
@@ -78128,7 +78144,7 @@
     </row>
     <row r="155" spans="1:23" ht="17">
       <c r="A155" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>15</v>
@@ -78199,7 +78215,7 @@
     </row>
     <row r="156" spans="1:23" ht="17">
       <c r="A156" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>15</v>
@@ -78270,7 +78286,7 @@
     </row>
     <row r="157" spans="1:23" ht="17">
       <c r="A157" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>15</v>
@@ -78341,7 +78357,7 @@
     </row>
     <row r="158" spans="1:23" ht="17">
       <c r="A158" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>15</v>
@@ -78412,7 +78428,7 @@
     </row>
     <row r="159" spans="1:23" ht="17">
       <c r="A159" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>17</v>
@@ -78625,7 +78641,7 @@
     </row>
     <row r="162" spans="1:23" ht="17">
       <c r="A162" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>17</v>
@@ -78696,7 +78712,7 @@
     </row>
     <row r="163" spans="1:23" ht="17">
       <c r="A163" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>17</v>
@@ -78767,7 +78783,7 @@
     </row>
     <row r="164" spans="1:23" ht="17">
       <c r="A164" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>17</v>
@@ -78838,7 +78854,7 @@
     </row>
     <row r="165" spans="1:23" ht="17">
       <c r="A165" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>17</v>
@@ -78909,7 +78925,7 @@
     </row>
     <row r="166" spans="1:23" ht="17">
       <c r="A166" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>17</v>
@@ -78980,7 +78996,7 @@
     </row>
     <row r="167" spans="1:23" ht="17">
       <c r="A167" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>17</v>
@@ -79051,7 +79067,7 @@
     </row>
     <row r="168" spans="1:23" ht="17">
       <c r="A168" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>17</v>
@@ -79122,7 +79138,7 @@
     </row>
     <row r="169" spans="1:23" ht="17">
       <c r="A169" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>17</v>
@@ -79193,7 +79209,7 @@
     </row>
     <row r="170" spans="1:23" ht="17">
       <c r="A170" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>17</v>
@@ -79264,7 +79280,7 @@
     </row>
     <row r="171" spans="1:23" ht="17">
       <c r="A171" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>17</v>
@@ -79335,7 +79351,7 @@
     </row>
     <row r="172" spans="1:23" ht="17">
       <c r="A172" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>17</v>
@@ -79406,7 +79422,7 @@
     </row>
     <row r="173" spans="1:23" ht="17">
       <c r="A173" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>17</v>
@@ -79477,7 +79493,7 @@
     </row>
     <row r="174" spans="1:23" ht="17">
       <c r="A174" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>17</v>
@@ -79548,7 +79564,7 @@
     </row>
     <row r="175" spans="1:23" ht="17">
       <c r="A175" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>17</v>
@@ -79761,7 +79777,7 @@
     </row>
     <row r="178" spans="1:23" ht="17">
       <c r="A178" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>12</v>
@@ -79832,7 +79848,7 @@
     </row>
     <row r="179" spans="1:23" ht="17">
       <c r="A179" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>12</v>
@@ -79903,7 +79919,7 @@
     </row>
     <row r="180" spans="1:23" ht="17">
       <c r="A180" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>12</v>
@@ -79974,7 +79990,7 @@
     </row>
     <row r="181" spans="1:23" ht="17">
       <c r="A181" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>12</v>
@@ -80045,7 +80061,7 @@
     </row>
     <row r="182" spans="1:23" ht="17">
       <c r="A182" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>12</v>
@@ -80116,7 +80132,7 @@
     </row>
     <row r="183" spans="1:23" ht="17">
       <c r="A183" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>12</v>
@@ -80187,7 +80203,7 @@
     </row>
     <row r="184" spans="1:23" ht="17">
       <c r="A184" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>12</v>
@@ -80258,7 +80274,7 @@
     </row>
     <row r="185" spans="1:23" ht="17">
       <c r="A185" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>12</v>
@@ -80329,7 +80345,7 @@
     </row>
     <row r="186" spans="1:23" ht="17">
       <c r="A186" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>12</v>
@@ -80400,7 +80416,7 @@
     </row>
     <row r="187" spans="1:23" ht="17">
       <c r="A187" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>12</v>
@@ -80471,7 +80487,7 @@
     </row>
     <row r="188" spans="1:23" ht="17">
       <c r="A188" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>12</v>
@@ -80542,7 +80558,7 @@
     </row>
     <row r="189" spans="1:23" ht="17">
       <c r="A189" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>12</v>
@@ -80613,7 +80629,7 @@
     </row>
     <row r="190" spans="1:23" ht="17">
       <c r="A190" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>12</v>
@@ -80897,7 +80913,7 @@
     </row>
     <row r="194" spans="1:23" ht="17">
       <c r="A194" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>4</v>
@@ -80968,7 +80984,7 @@
     </row>
     <row r="195" spans="1:23" ht="17">
       <c r="A195" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>4</v>
@@ -81039,7 +81055,7 @@
     </row>
     <row r="196" spans="1:23" ht="17">
       <c r="A196" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>4</v>
@@ -81110,7 +81126,7 @@
     </row>
     <row r="197" spans="1:23" ht="17">
       <c r="A197" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>4</v>
@@ -81181,7 +81197,7 @@
     </row>
     <row r="198" spans="1:23" ht="17">
       <c r="A198" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>4</v>
@@ -81252,7 +81268,7 @@
     </row>
     <row r="199" spans="1:23" ht="17">
       <c r="A199" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>4</v>
@@ -81323,7 +81339,7 @@
     </row>
     <row r="200" spans="1:23" ht="17">
       <c r="A200" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>4</v>
@@ -81394,7 +81410,7 @@
     </row>
     <row r="201" spans="1:23" ht="17">
       <c r="A201" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>4</v>
@@ -81465,7 +81481,7 @@
     </row>
     <row r="202" spans="1:23" ht="17">
       <c r="A202" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>4</v>
@@ -81536,7 +81552,7 @@
     </row>
     <row r="203" spans="1:23" ht="17">
       <c r="A203" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>4</v>
@@ -81607,7 +81623,7 @@
     </row>
     <row r="204" spans="1:23" ht="17">
       <c r="A204" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>4</v>
@@ -81678,7 +81694,7 @@
     </row>
     <row r="205" spans="1:23" ht="17">
       <c r="A205" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>4</v>
@@ -81749,7 +81765,7 @@
     </row>
     <row r="206" spans="1:23" ht="17">
       <c r="A206" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>4</v>
@@ -81820,7 +81836,7 @@
     </row>
     <row r="207" spans="1:23" ht="17">
       <c r="A207" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>4</v>
@@ -81891,7 +81907,7 @@
     </row>
     <row r="208" spans="1:23" ht="17">
       <c r="A208" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>4</v>
@@ -81962,7 +81978,7 @@
     </row>
     <row r="209" spans="1:23" ht="17">
       <c r="A209" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>4</v>
@@ -82033,7 +82049,7 @@
     </row>
     <row r="210" spans="1:23" ht="17">
       <c r="A210" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>4</v>
@@ -82104,7 +82120,7 @@
     </row>
     <row r="211" spans="1:23" ht="17">
       <c r="A211" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>4</v>
@@ -82175,7 +82191,7 @@
     </row>
     <row r="212" spans="1:23" ht="17">
       <c r="A212" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>4</v>
@@ -82246,7 +82262,7 @@
     </row>
     <row r="213" spans="1:23" ht="17">
       <c r="A213" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>4</v>
@@ -82317,7 +82333,7 @@
     </row>
     <row r="214" spans="1:23" ht="17">
       <c r="A214" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>4</v>
@@ -82388,7 +82404,7 @@
     </row>
     <row r="215" spans="1:23" ht="17">
       <c r="A215" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -82459,7 +82475,7 @@
     </row>
     <row r="216" spans="1:23" ht="17">
       <c r="A216" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>4</v>
@@ -82530,7 +82546,7 @@
     </row>
     <row r="217" spans="1:23" ht="17">
       <c r="A217" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>7</v>
@@ -82672,7 +82688,7 @@
     </row>
     <row r="219" spans="1:23" ht="17">
       <c r="A219" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>7</v>
@@ -82743,7 +82759,7 @@
     </row>
     <row r="220" spans="1:23" ht="17">
       <c r="A220" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>7</v>
@@ -82814,7 +82830,7 @@
     </row>
     <row r="221" spans="1:23" ht="17">
       <c r="A221" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>7</v>
@@ -82885,7 +82901,7 @@
     </row>
     <row r="222" spans="1:23" ht="17">
       <c r="A222" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>7</v>
@@ -82956,7 +82972,7 @@
     </row>
     <row r="223" spans="1:23" ht="17">
       <c r="A223" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>7</v>
@@ -83027,7 +83043,7 @@
     </row>
     <row r="224" spans="1:23" ht="17">
       <c r="A224" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>7</v>
@@ -83098,7 +83114,7 @@
     </row>
     <row r="225" spans="1:23" ht="17">
       <c r="A225" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>7</v>
@@ -83169,7 +83185,7 @@
     </row>
     <row r="226" spans="1:23" ht="17">
       <c r="A226" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>7</v>
@@ -83240,7 +83256,7 @@
     </row>
     <row r="227" spans="1:23" ht="17">
       <c r="A227" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>7</v>
@@ -83311,7 +83327,7 @@
     </row>
     <row r="228" spans="1:23" ht="17">
       <c r="A228" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>7</v>
@@ -83382,7 +83398,7 @@
     </row>
     <row r="229" spans="1:23" ht="17">
       <c r="A229" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>7</v>
@@ -83453,7 +83469,7 @@
     </row>
     <row r="230" spans="1:23" ht="17">
       <c r="A230" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>7</v>
@@ -83524,7 +83540,7 @@
     </row>
     <row r="231" spans="1:23" ht="17">
       <c r="A231" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>7</v>
@@ -83595,7 +83611,7 @@
     </row>
     <row r="232" spans="1:23" ht="17">
       <c r="A232" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>7</v>
